--- a/4. WindowAPI/Ninja_Baseball_Batman_Project/AniData/AniData.xlsx
+++ b/4. WindowAPI/Ninja_Baseball_Batman_Project/AniData/AniData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="17565" windowHeight="6975" tabRatio="500" activeTab="2"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="13965" windowHeight="13590" tabRatio="500" activeTab="1"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="All_Sprites" sheetId="1" r:id="rId4"/>
@@ -21,7 +21,142 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="71">
+  <x:si>
+    <x:t>AniData/UI/Straw_selected.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Select.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_tag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Ryno_tag.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Player.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Player</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Select_background.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/playerselect_deco.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Straw_select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Roger_selected</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Jose_selected.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/Background/Background.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/Monster/WindyPlane.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Bat/Bat_hit.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Roger_select.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/UI/titlescreen.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Jose_select.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/Monster/Baseball.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/titlescreen.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/UI/PlayerSelect.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/1P_select.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Straw_selected</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Baseball/Baseball_walk.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Straw_tag.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Ryno_select.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Straw_select.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jose_tag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jose_select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Employed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1P_select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WindyPlane</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_walk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Background1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bat</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HUD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/UI/HUD.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/UI/Object.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sprite Data Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/Background/Background1.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_walk.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bat_hit</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cards</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno</x:t>
+  </x:si>
   <x:si>
     <x:t>Object</x:t>
   </x:si>
@@ -29,139 +164,76 @@
     <x:t>Drafted</x:t>
   </x:si>
   <x:si>
-    <x:t>Cards</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bat_hit</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HUD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bat</x:t>
-  </x:si>
-  <x:si>
     <x:t>Background</x:t>
   </x:si>
   <x:si>
-    <x:t>Jose_select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jose_tag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_walk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WindyPlane</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1P_select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>employed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Background1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Jose_select.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/UI/titlescreen.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/titlescreen.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/Monster/Baseball.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/UI/PlayerSelect.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/1P_select.txt</x:t>
+    <x:t>Data Address</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Origin Sprite</x:t>
   </x:si>
   <x:si>
     <x:t>SpriteAddress</x:t>
   </x:si>
   <x:si>
-    <x:t>Origin Sprite</x:t>
-  </x:si>
-  <x:si>
     <x:t>Player_Select</x:t>
   </x:si>
   <x:si>
+    <x:t>Animation Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jose_selected</x:t>
+  </x:si>
+  <x:si>
     <x:t>Baseball_walk</x:t>
   </x:si>
   <x:si>
-    <x:t>Animation Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jose_selected</x:t>
-  </x:si>
-  <x:si>
-    <x:t>title_screen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Data Address</x:t>
-  </x:si>
-  <x:si>
     <x:t>Title_Screen</x:t>
   </x:si>
   <x:si>
-    <x:t>Image/Monster/WindyPlane.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/Background/Background.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Bat/Bat_hit.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Jose_selected.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Baseball/Baseball_walk.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_walk.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/Background/Background1.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/UI/HUD.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sprite Data Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/UI/Object.bmp</x:t>
+    <x:t>AniData/UI/employed.txt</x:t>
   </x:si>
   <x:si>
     <x:t>AniData/UI/Jose_tag.txt</x:t>
   </x:si>
   <x:si>
+    <x:t>Image/Monster/Bat.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/Monster/Cards.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Drafted.txt</x:t>
+  </x:si>
+  <x:si>
     <x:t>Image/Player/Ryno.bmp</x:t>
   </x:si>
   <x:si>
-    <x:t>AniData/UI/Drafted.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/Monster/Bat.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/Monster/Cards.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/employed.txt</x:t>
+    <x:t>Ryno_selected</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Roger_selected.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Straw_tag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Title_screen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Player_select_deco</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Roger_select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Select_background</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Ryno_selected.txt</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -922,20 +994,20 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="B1" s="4" t="s">
-        <x:v>22</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
       <x:c r="A2" s="3" t="s">
-        <x:v>30</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B2" s="3" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2">
       <x:c r="A3" s="3" t="s">
-        <x:v>24</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B3" s="3" t="s">
         <x:v>20</x:v>
@@ -943,74 +1015,74 @@
     </x:row>
     <x:row r="4" spans="1:2">
       <x:c r="A4" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B4" s="3" t="s">
-        <x:v>40</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2">
       <x:c r="A5" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>38</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2">
       <x:c r="A6" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B6" s="3" t="s">
-        <x:v>42</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2">
       <x:c r="A7" s="3" t="s">
-        <x:v>12</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B7" s="3" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2">
       <x:c r="A8" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B8" s="3" t="s">
-        <x:v>44</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2">
       <x:c r="A9" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B9" s="3" t="s">
-        <x:v>45</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2">
       <x:c r="A10" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B10" s="3" t="s">
-        <x:v>31</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2">
       <x:c r="A11" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B11" s="3" t="s">
-        <x:v>32</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:2">
       <x:c r="A12" s="3" t="s">
-        <x:v>15</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B12" s="3" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1022,10 +1094,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet2"/>
-  <x:dimension ref="A1:C11"/>
+  <x:dimension ref="A1:C23"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="E5" activeCellId="0" sqref="E5:E5"/>
+    <x:sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="A24" activeCellId="0" sqref="A24:A24"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
@@ -1037,126 +1109,261 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="4" t="s">
-        <x:v>26</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B1" s="4" t="s">
-        <x:v>23</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C1" s="4" t="s">
-        <x:v>29</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B2" s="1" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="C2" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C3" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C4" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
       <x:c r="A5" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
       <x:c r="A6" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C6" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
       <x:c r="A7" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B7" s="1" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C7" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:3">
+      <x:c r="A8" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="B8" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C8" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:3" customFormat="1">
+      <x:c r="A9" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="B7" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C7" s="1" t="s">
-        <x:v>34</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:3">
-      <x:c r="A8" s="2" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B8" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C8" s="1" t="s">
+      <x:c r="B9" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C9" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:3">
+      <x:c r="A10" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B10" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C10" t="s">
         <x:v>41</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:3">
-      <x:c r="A9" s="2" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B9" s="1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C9" s="1" t="s">
-        <x:v>36</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:3">
-      <x:c r="A10" s="2" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="B10" s="1" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C10" s="1" t="s">
-        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
       <x:c r="A11" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="B11" s="1" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C11" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:3">
+      <x:c r="A12" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B12" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C12" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:3">
+      <x:c r="A13" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="B13" s="1" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C13" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:3">
+      <x:c r="A14" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="B14" s="1" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C14" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:3">
+      <x:c r="A15" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B15" s="1" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C15" s="1" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:3">
+      <x:c r="A16" s="2" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B16" s="1" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C16" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:3">
+      <x:c r="A17" s="2" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="B17" s="1" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C17" s="1" t="s">
+        <x:v>70</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:3">
+      <x:c r="A18" s="2" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="B11" s="1" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="C11" s="1" t="s">
-        <x:v>33</x:v>
+      <x:c r="B18" s="1" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C18" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:3">
+      <x:c r="A19" s="2" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="B19" s="1" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C19" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:3">
+      <x:c r="A20" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="B20" s="1" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C20" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:3">
+      <x:c r="A21" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B21" s="1" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C21" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:3">
+      <x:c r="A22" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B22" s="1" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C22" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:3">
+      <x:c r="A23" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="B23" s="1" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C23" s="1" t="s">
+        <x:v>24</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
+  <x:sortState columnSort="0" caseSensitive="0" ref="A2:C11">
+    <x:sortCondition descending="0" sortBy="value" ref="B2:B11"/>
+  </x:sortState>
   <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
@@ -1167,13 +1374,13 @@
   <x:sheetPr codeName="Sheet3"/>
   <x:dimension ref="A1:A1"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
   <x:sheetData/>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
--- a/4. WindowAPI/Ninja_Baseball_Batman_Project/AniData/AniData.xlsx
+++ b/4. WindowAPI/Ninja_Baseball_Batman_Project/AniData/AniData.xlsx
@@ -9,231 +9,243 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="13965" windowHeight="13590" tabRatio="500" activeTab="1"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="13620" tabRatio="500" activeTab="4"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="All_Sprites" sheetId="1" r:id="rId4"/>
-    <x:sheet name="All_Animations" sheetId="2" r:id="rId5"/>
-    <x:sheet name="All_Sounds" sheetId="3" r:id="rId6"/>
+    <x:sheet name="TitleScene_Sprites" sheetId="1" r:id="rId4"/>
+    <x:sheet name="TitleScene_Animations" sheetId="2" r:id="rId5"/>
+    <x:sheet name="TitleScene_Sounds" sheetId="3" r:id="rId6"/>
+    <x:sheet name="SelectScene_Sprites" sheetId="4" r:id="rId7"/>
+    <x:sheet name="SelectScene_Animations" sheetId="5" r:id="rId8"/>
+    <x:sheet name="PlayScene_Sprites" sheetId="6" r:id="rId9"/>
+    <x:sheet name="PlayScene_Animations" sheetId="7" r:id="rId10"/>
+    <x:sheet name="EndingScene_Sprites" sheetId="8" r:id="rId11"/>
+    <x:sheet name="EndingScene_Animations" sheetId="9" r:id="rId12"/>
   </x:sheets>
   <x:calcPr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" mc:Ignorable="hs" hs:hclCalcId="904"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="71">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="73">
+  <x:si>
+    <x:t>Ryno_select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_walk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_tag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1P_select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WindyPlane</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Background</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jose_tag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Employed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jose_select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Straw_tag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Background1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cards</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Player</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bat_hit</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Object</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Drafted</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/playerselect_deco.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_walk.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/Background/Background1.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Select_background.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HUD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bat</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jose_selected</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Roger_select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Roger_selected</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Title_Screen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Straw_select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Animation Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_selected</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Player_Select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Straw_selected</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Data Address</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Origin Sprite</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_walk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Title_screen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sprite Address</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Bat/Bat_hit.txt</x:t>
+  </x:si>
   <x:si>
     <x:t>AniData/UI/Straw_selected.txt</x:t>
   </x:si>
   <x:si>
+    <x:t>Image/Monster/WindyPlane.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Ryno_selected.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Jose_selected.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Roger_selected.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/Background/Background.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Baseball/Baseball_walk.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Player_select_deco</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/UI/Object.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Select_background</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sprite Data Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/UI/HUD.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/titlescreen.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Roger_select.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/UI/titlescreen.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Ryno_select.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/Monster/Baseball.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/1P_select.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Straw_tag.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Straw_select.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Jose_select.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/UI/PlayerSelect.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/Monster/Bat.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/Player/Ryno.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Jose_tag.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Ryno_tag.txt</x:t>
+  </x:si>
+  <x:si>
     <x:t>AniData/UI/Select.txt</x:t>
   </x:si>
   <x:si>
-    <x:t>Ryno_select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_tag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Ryno_tag.txt</x:t>
+    <x:t>AniData/UI/Drafted.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/employed.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/Monster/Cards.bmp</x:t>
   </x:si>
   <x:si>
     <x:t>AniData/UI/Player.txt</x:t>
   </x:si>
   <x:si>
-    <x:t>Player</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Select_background.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/playerselect_deco.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Straw_select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Roger_selected</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Jose_selected.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/Background/Background.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/Monster/WindyPlane.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Bat/Bat_hit.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Roger_select.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/UI/titlescreen.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Jose_select.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/Monster/Baseball.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/titlescreen.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/UI/PlayerSelect.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/1P_select.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Straw_selected</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Baseball/Baseball_walk.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Straw_tag.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Ryno_select.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Straw_select.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jose_tag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jose_select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Employed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1P_select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WindyPlane</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_walk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Background1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bat</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HUD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/UI/HUD.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/UI/Object.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sprite Data Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/Background/Background1.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_walk.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bat_hit</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cards</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Object</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Drafted</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Background</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Data Address</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Origin Sprite</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SpriteAddress</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Player_Select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Animation Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jose_selected</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_walk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Title_Screen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/employed.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Jose_tag.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/Monster/Bat.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/Monster/Cards.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Drafted.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/Player/Ryno.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_selected</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Roger_selected.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Straw_tag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Title_screen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Player_select_deco</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Roger_select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Select_background</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Ryno_selected.txt</x:t>
+    <x:t>Sound Data Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound Address</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -307,16 +319,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="5">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
+  <x:cellXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -976,411 +979,617 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:B12"/>
+  <x:sheetPr codeName="Sheet4"/>
+  <x:dimension ref="A1:G2"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="E6" activeCellId="0" sqref="E6:E6"/>
+      <x:selection activeCell="D9" activeCellId="0" sqref="D9:D9"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
   <x:cols>
-    <x:col min="1" max="1" width="21.125" style="3" customWidth="1"/>
-    <x:col min="2" max="2" width="41.875" style="3" customWidth="1"/>
+    <x:col min="1" max="1" width="18.125" customWidth="1"/>
+    <x:col min="2" max="2" width="23.125" customWidth="1"/>
+    <x:col min="3" max="3" width="17.25" customWidth="1"/>
+    <x:col min="4" max="4" width="14.25" customWidth="1"/>
+    <x:col min="5" max="5" width="15.125" customWidth="1"/>
+    <x:col min="6" max="6" width="19.5" customWidth="1"/>
+    <x:col min="7" max="7" width="17" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:2">
-      <x:c r="A1" s="4" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="B1" s="4" t="s">
+    <x:row r="1" spans="1:7">
+      <x:c r="A1" s="1" t="s">
         <x:v>50</x:v>
       </x:c>
+      <x:c r="B1" s="1" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C1" s="1"/>
+      <x:c r="D1" s="1"/>
+      <x:c r="E1" s="1"/>
+      <x:c r="F1" s="1"/>
+      <x:c r="G1" s="1"/>
     </x:row>
     <x:row r="2" spans="1:2">
-      <x:c r="A2" s="3" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="B2" s="3" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:2">
-      <x:c r="A3" s="3" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="B3" s="3" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:2">
-      <x:c r="A4" s="3" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="B4" s="3" t="s">
-        <x:v>38</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:2">
-      <x:c r="A5" s="3" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="B5" s="3" t="s">
-        <x:v>37</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:2">
-      <x:c r="A6" s="3" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="B6" s="3" t="s">
-        <x:v>61</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:2">
-      <x:c r="A7" s="3" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="B7" s="3" t="s">
-        <x:v>18</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:2">
-      <x:c r="A8" s="3" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="B8" s="3" t="s">
-        <x:v>58</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:2">
-      <x:c r="A9" s="3" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="B9" s="3" t="s">
-        <x:v>59</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:2">
-      <x:c r="A10" s="3" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="B10" s="3" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:2">
-      <x:c r="A11" s="3" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="B11" s="3" t="s">
-        <x:v>12</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:2">
-      <x:c r="A12" s="3" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="B12" s="3" t="s">
-        <x:v>40</x:v>
+      <x:c r="A2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B2" t="s">
+        <x:v>54</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr codeName="Sheet2"/>
-  <x:dimension ref="A1:C23"/>
+  <x:sheetPr codeName="Sheet8"/>
+  <x:dimension ref="A1:C2"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="A24" activeCellId="0" sqref="A24:A24"/>
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="F5" activeCellId="0" sqref="F5:F5"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
   <x:cols>
-    <x:col min="1" max="1" width="19.625" style="2" customWidth="1"/>
-    <x:col min="2" max="2" width="21.25" style="1" customWidth="1"/>
-    <x:col min="3" max="3" width="48.125" style="1" customWidth="1"/>
+    <x:col min="1" max="1" width="18.875" customWidth="1"/>
+    <x:col min="2" max="2" width="18.5" customWidth="1"/>
+    <x:col min="3" max="3" width="23.5" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:3">
-      <x:c r="A1" s="4" t="s">
+      <x:c r="A1" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B1" s="1" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C1" s="1" t="s">
+        <x:v>34</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:3">
+      <x:c r="A2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="B2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C2" t="s">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="B1" s="4" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="C1" s="4" t="s">
-        <x:v>48</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:3">
-      <x:c r="A2" s="2" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="B2" s="1" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="C2" s="1" t="s">
-        <x:v>23</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:3">
-      <x:c r="A3" s="2" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="B3" s="1" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="C3" s="1" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:3">
-      <x:c r="A4" s="2" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="B4" s="1" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="C4" s="1" t="s">
-        <x:v>21</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:3">
-      <x:c r="A5" s="2" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="B5" s="1" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="C5" s="1" t="s">
-        <x:v>60</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:3">
-      <x:c r="A6" s="2" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="B6" s="1" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="C6" s="1" t="s">
-        <x:v>56</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:3">
-      <x:c r="A7" s="2" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="B7" s="1" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="C7" s="1" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:3">
-      <x:c r="A8" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="B8" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="C8" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:3" customFormat="1">
-      <x:c r="A9" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="B9" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="C9" t="s">
-        <x:v>57</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:3">
-      <x:c r="A10" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="B10" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="C10" t="s">
-        <x:v>41</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:3">
-      <x:c r="A11" s="2" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="B11" s="1" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="C11" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:3">
-      <x:c r="A12" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B12" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="C12" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:3">
-      <x:c r="A13" s="2" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="B13" s="1" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="C13" s="1" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:3">
-      <x:c r="A14" s="2" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="B14" s="1" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="C14" s="1" t="s">
-        <x:v>15</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:3">
-      <x:c r="A15" s="2" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B15" s="1" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="C15" s="1" t="s">
-        <x:v>63</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:3">
-      <x:c r="A16" s="2" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B16" s="1" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="C16" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:3">
-      <x:c r="A17" s="2" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="B17" s="1" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="C17" s="1" t="s">
-        <x:v>70</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:3">
-      <x:c r="A18" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B18" s="1" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="C18" s="1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:3">
-      <x:c r="A19" s="2" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="B19" s="1" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="C19" s="1" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:3">
-      <x:c r="A20" s="2" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="B20" s="1" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="C20" s="1" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:3">
-      <x:c r="A21" s="2" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B21" s="1" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="C21" s="1" t="s">
-        <x:v>26</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:3">
-      <x:c r="A22" s="2" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="B22" s="1" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="C22" s="1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:3">
-      <x:c r="A23" s="2" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="B23" s="1" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="C23" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
     </x:row>
   </x:sheetData>
-  <x:sortState columnSort="0" caseSensitive="0" ref="A2:C11">
-    <x:sortCondition descending="0" sortBy="value" ref="B2:B11"/>
-  </x:sortState>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr codeName="Sheet3"/>
-  <x:dimension ref="A1:A1"/>
+  <x:sheetPr codeName="Sheet13"/>
+  <x:dimension ref="A1:B1"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
+      <x:selection activeCell="B9" activeCellId="0" sqref="B9:B9"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
-  <x:sheetData/>
+  <x:cols>
+    <x:col min="1" max="1" width="21.25" customWidth="1"/>
+    <x:col min="2" max="2" width="18.625" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:2">
+      <x:c r="A1" s="1" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="B1" s="1" t="s">
+        <x:v>72</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr codeName="Sheet5"/>
+  <x:dimension ref="A1:B2"/>
+  <x:sheetViews>
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="A2" activeCellId="0" sqref="A2:B2"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
+  <x:cols>
+    <x:col min="1" max="1" width="18.75" customWidth="1"/>
+    <x:col min="2" max="2" width="24.375" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:2">
+      <x:c r="A1" s="1" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B1" s="1" t="s">
+        <x:v>38</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:2">
+      <x:c r="A2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
   <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr codeName="Sheet9"/>
+  <x:dimension ref="A1:C20"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="G28" activeCellId="0" sqref="G28:G28"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
+  <x:cols>
+    <x:col min="1" max="1" width="17.625" customWidth="1"/>
+    <x:col min="2" max="2" width="18.625" customWidth="1"/>
+    <x:col min="3" max="3" width="29.875" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:3">
+      <x:c r="A1" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B1" s="1" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C1" s="1" t="s">
+        <x:v>34</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:3">
+      <x:c r="A2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:3">
+      <x:c r="A3" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B3" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C3" t="s">
+        <x:v>67</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:3">
+      <x:c r="A4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B4" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C4" t="s">
+        <x:v>68</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:3">
+      <x:c r="A5" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B5" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C5" t="s">
+        <x:v>60</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:3">
+      <x:c r="A6" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B6" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C6" t="s">
+        <x:v>43</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:3">
+      <x:c r="A7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B7" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C7" t="s">
+        <x:v>64</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:3">
+      <x:c r="A8" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B8" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C8" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:3">
+      <x:c r="A9" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B9" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C9" t="s">
+        <x:v>70</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:3">
+      <x:c r="A10" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="B10" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C10" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:3">
+      <x:c r="A11" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B11" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C11" t="s">
+        <x:v>53</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:3">
+      <x:c r="A12" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B12" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C12" t="s">
+        <x:v>44</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:3">
+      <x:c r="A13" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B13" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C13" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:3">
+      <x:c r="A14" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B14" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C14" t="s">
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:3">
+      <x:c r="A15" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B15" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C15" t="s">
+        <x:v>65</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:3">
+      <x:c r="A16" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B16" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C16" t="s">
+        <x:v>66</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:3">
+      <x:c r="A17" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B17" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C17" t="s">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:3">
+      <x:c r="A18" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B18" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C18" t="s">
+        <x:v>59</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:3">
+      <x:c r="A19" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B19" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C19" t="s">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:3">
+      <x:c r="A20" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B20" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C20" t="s">
+        <x:v>58</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr codeName="Sheet6"/>
+  <x:dimension ref="A1:B10"/>
+  <x:sheetViews>
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="A1" activeCellId="0" sqref="A1:B1"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
+  <x:cols>
+    <x:col min="1" max="1" width="20.375" customWidth="1"/>
+    <x:col min="2" max="2" width="33" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:2">
+      <x:c r="A1" s="1" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B1" s="1" t="s">
+        <x:v>38</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:2">
+      <x:c r="A2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B2" t="s">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:2">
+      <x:c r="A3" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B3" t="s">
+        <x:v>51</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:2">
+      <x:c r="A4" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B4" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:2">
+      <x:c r="A5" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B5" t="s">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:2">
+      <x:c r="A6" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B6" t="s">
+        <x:v>62</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:2">
+      <x:c r="A7" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B7" t="s">
+        <x:v>69</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:2">
+      <x:c r="A8" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B8" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:2">
+      <x:c r="A9" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B9" t="s">
+        <x:v>45</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:2">
+      <x:c r="A10" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B10" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr codeName="Sheet11"/>
+  <x:dimension ref="A1:C3"/>
+  <x:sheetViews>
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="A1" activeCellId="0" sqref="A1:C1"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
+  <x:cols>
+    <x:col min="1" max="1" width="18.375" customWidth="1"/>
+    <x:col min="2" max="2" width="23.625" customWidth="1"/>
+    <x:col min="3" max="3" width="40.625" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:3">
+      <x:c r="A1" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B1" s="1" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C1" s="1" t="s">
+        <x:v>34</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:3">
+      <x:c r="A2" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:3">
+      <x:c r="A3" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B3" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C3" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr codeName="Sheet7"/>
+  <x:dimension ref="A1:B1"/>
+  <x:sheetViews>
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="A1" activeCellId="0" sqref="A1:B1"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
+  <x:cols>
+    <x:col min="1" max="1" width="22.625" customWidth="1"/>
+    <x:col min="2" max="2" width="25.875" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:2">
+      <x:c r="A1" s="1" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B1" s="1" t="s">
+        <x:v>38</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr codeName="Sheet12"/>
+  <x:dimension ref="A1:C1"/>
+  <x:sheetViews>
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="F7" activeCellId="0" sqref="F7:F7"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
+  <x:cols>
+    <x:col min="1" max="1" width="20.125" customWidth="1"/>
+    <x:col min="2" max="2" width="22.875" customWidth="1"/>
+    <x:col min="3" max="3" width="18" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:3">
+      <x:c r="A1" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B1" s="1" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C1" s="1" t="s">
+        <x:v>34</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+</x:worksheet>
 </file>
--- a/4. WindowAPI/Ninja_Baseball_Batman_Project/AniData/AniData.xlsx
+++ b/4. WindowAPI/Ninja_Baseball_Batman_Project/AniData/AniData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="13620" tabRatio="500" activeTab="4"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="17565" windowHeight="6975" tabRatio="500" activeTab="4"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="TitleScene_Sprites" sheetId="1" r:id="rId4"/>
@@ -21,231 +21,298 @@
     <x:sheet name="PlayScene_Animations" sheetId="7" r:id="rId10"/>
     <x:sheet name="EndingScene_Sprites" sheetId="8" r:id="rId11"/>
     <x:sheet name="EndingScene_Animations" sheetId="9" r:id="rId12"/>
+    <x:sheet name="Stage_1" sheetId="10" r:id="rId13"/>
   </x:sheets>
   <x:calcPr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" mc:Ignorable="hs" hs:hclCalcId="904"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="73">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="95">
+  <x:si>
+    <x:t>AniData/UI/playerselect_deco.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Select_background.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_walk.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/Background/Background1.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/UI/PlayerSelect.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_three.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/titlescreen.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Straw_select.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_seven.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Ryno_select.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Roger_tag.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Straw_tag.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/UI/titlescreen.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/Monster/Baseball.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Roger_select.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Jose_select.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/1P_select.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Ryno_selected.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Roger_selected.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/Monster/WindyPlane.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/Background/Background.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Straw_selected.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Jose_selected.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Bat/Bat_hit.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/employed.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Select.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_zero.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/Player/Ryno.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/Monster/Cards.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_four.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_five.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Drafted.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_one.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/Monster/Bat.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Ryno_tag.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Player.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_six.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_two.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Jose_tag.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_nine.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HUD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bat</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound Address</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Title_Screen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Origin Sprite</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Animation Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Title_screen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jose_selected</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Straw_select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound Data Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Player_Select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Straw_selected</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Roger_select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Roger_selected</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_walk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sprite Address</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_selected</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Data Address</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Baseball/Baseball_walk.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/UI/HUD.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Player_select_deco</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/UI/Object.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Select_background</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sprite Data Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_seven</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Roger_tag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Straw_tag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_zero</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jose_tag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jose_select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WindyPlane</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1P_select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Employed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_walk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Background</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Background1</x:t>
+  </x:si>
   <x:si>
     <x:t>Ryno_select</x:t>
   </x:si>
   <x:si>
-    <x:t>Baseball</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_walk</x:t>
-  </x:si>
-  <x:si>
     <x:t>Ryno_tag</x:t>
   </x:si>
   <x:si>
-    <x:t>1P_select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WindyPlane</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Background</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jose_tag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Employed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jose_select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Straw_tag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Background1</x:t>
+    <x:t>Num_five</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_three</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_four</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_eight</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_nine</x:t>
   </x:si>
   <x:si>
     <x:t>Select</x:t>
   </x:si>
   <x:si>
+    <x:t>Bat_hit</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Drafted</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_two</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Object</x:t>
+  </x:si>
+  <x:si>
     <x:t>Cards</x:t>
   </x:si>
   <x:si>
     <x:t>Player</x:t>
   </x:si>
   <x:si>
-    <x:t>Bat_hit</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Object</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Drafted</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/playerselect_deco.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_walk.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/Background/Background1.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Select_background.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HUD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bat</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jose_selected</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Roger_select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Roger_selected</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Title_Screen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Straw_select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Animation Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_selected</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Player_Select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Straw_selected</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Data Address</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Origin Sprite</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_walk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Title_screen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sprite Address</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Bat/Bat_hit.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Straw_selected.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/Monster/WindyPlane.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Ryno_selected.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Jose_selected.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Roger_selected.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/Background/Background.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Baseball/Baseball_walk.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Player_select_deco</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/UI/Object.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Select_background</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sprite Data Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/UI/HUD.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/titlescreen.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Roger_select.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/UI/titlescreen.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Ryno_select.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/Monster/Baseball.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/1P_select.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Straw_tag.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Straw_select.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Jose_select.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/UI/PlayerSelect.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/Monster/Bat.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/Player/Ryno.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Jose_tag.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Ryno_tag.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Select.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Drafted.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/employed.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/Monster/Cards.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Player.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound Data Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound Address</x:t>
+    <x:t>Num_one</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_six</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_eight.txt</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -319,7 +386,22 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="2">
+  <x:cellXfs count="7">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -988,38 +1070,58 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
   <x:cols>
-    <x:col min="1" max="1" width="18.125" customWidth="1"/>
-    <x:col min="2" max="2" width="23.125" customWidth="1"/>
-    <x:col min="3" max="3" width="17.25" customWidth="1"/>
-    <x:col min="4" max="4" width="14.25" customWidth="1"/>
-    <x:col min="5" max="5" width="15.125" customWidth="1"/>
-    <x:col min="6" max="6" width="19.5" customWidth="1"/>
-    <x:col min="7" max="7" width="17" customWidth="1"/>
+    <x:col min="1" max="1" width="18.125" style="5" customWidth="1"/>
+    <x:col min="2" max="2" width="23.125" style="5" customWidth="1"/>
+    <x:col min="3" max="3" width="17.25" style="5" customWidth="1"/>
+    <x:col min="4" max="4" width="14.25" style="5" customWidth="1"/>
+    <x:col min="5" max="5" width="15.125" style="5" customWidth="1"/>
+    <x:col min="6" max="6" width="19.5" style="5" customWidth="1"/>
+    <x:col min="7" max="7" width="17" style="5" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:7">
-      <x:c r="A1" s="1" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="B1" s="1" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="C1" s="1"/>
-      <x:c r="D1" s="1"/>
-      <x:c r="E1" s="1"/>
-      <x:c r="F1" s="1"/>
-      <x:c r="G1" s="1"/>
+      <x:c r="A1" s="6" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="B1" s="6" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C1" s="6"/>
+      <x:c r="D1" s="6"/>
+      <x:c r="E1" s="6"/>
+      <x:c r="F1" s="6"/>
+      <x:c r="G1" s="6"/>
     </x:row>
     <x:row r="2" spans="1:2">
-      <x:c r="A2" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="B2" t="s">
-        <x:v>54</x:v>
+      <x:c r="A2" s="5" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B2" s="5" t="s">
+        <x:v>12</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
+  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr codeName="Sheet1"/>
+  <x:dimension ref="A1:A1"/>
+  <x:sheetViews>
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
+  <x:cols>
+    <x:col min="1" max="1" width="19.125" style="4" customWidth="1"/>
+    <x:col min="2" max="2" width="17.375" style="4" customWidth="1"/>
+  </x:cols>
+  <x:sheetData/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -1035,35 +1137,35 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
   <x:cols>
-    <x:col min="1" max="1" width="18.875" customWidth="1"/>
-    <x:col min="2" max="2" width="18.5" customWidth="1"/>
-    <x:col min="3" max="3" width="23.5" customWidth="1"/>
+    <x:col min="1" max="1" width="18.875" style="5" customWidth="1"/>
+    <x:col min="2" max="2" width="18.5" style="5" customWidth="1"/>
+    <x:col min="3" max="3" width="23.5" style="5" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:3">
-      <x:c r="A1" s="1" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="B1" s="1" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="C1" s="1" t="s">
-        <x:v>34</x:v>
+      <x:c r="A1" s="6" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B1" s="6" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C1" s="6" t="s">
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
-      <x:c r="A2" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="B2" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="C2" t="s">
-        <x:v>52</x:v>
+      <x:c r="A2" s="5" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B2" s="5" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C2" s="5" t="s">
+        <x:v>6</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -1079,20 +1181,20 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
   <x:cols>
-    <x:col min="1" max="1" width="21.25" customWidth="1"/>
-    <x:col min="2" max="2" width="18.625" customWidth="1"/>
+    <x:col min="1" max="1" width="21.25" style="5" customWidth="1"/>
+    <x:col min="2" max="2" width="18.625" style="5" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">
-      <x:c r="A1" s="1" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="B1" s="1" t="s">
-        <x:v>72</x:v>
+      <x:c r="A1" s="6" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B1" s="6" t="s">
+        <x:v>42</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -1100,36 +1202,44 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet5"/>
-  <x:dimension ref="A1:B2"/>
+  <x:dimension ref="A1:B3"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="A2" activeCellId="0" sqref="A2:B2"/>
+      <x:selection activeCell="B3" activeCellId="0" sqref="B3:B3"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
   <x:cols>
-    <x:col min="1" max="1" width="18.75" customWidth="1"/>
-    <x:col min="2" max="2" width="24.375" customWidth="1"/>
+    <x:col min="1" max="1" width="18.75" style="5" customWidth="1"/>
+    <x:col min="2" max="2" width="24.375" style="5" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">
-      <x:c r="A1" s="1" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="B1" s="1" t="s">
-        <x:v>38</x:v>
+      <x:c r="A1" s="6" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="B1" s="6" t="s">
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
-      <x:c r="A2" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="B2" t="s">
-        <x:v>61</x:v>
+      <x:c r="A2" s="5" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B2" s="5" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:2">
+      <x:c r="A3" s="5" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B3" s="5" t="s">
+        <x:v>59</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -1137,241 +1247,362 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet9"/>
-  <x:dimension ref="A1:C20"/>
+  <x:dimension ref="A1:C31"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="G28" activeCellId="0" sqref="G28:G28"/>
+    <x:sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="A31" activeCellId="0" sqref="A31:A31"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
   <x:cols>
-    <x:col min="1" max="1" width="17.625" customWidth="1"/>
-    <x:col min="2" max="2" width="18.625" customWidth="1"/>
-    <x:col min="3" max="3" width="29.875" customWidth="1"/>
+    <x:col min="1" max="1" width="17.625" style="5" customWidth="1"/>
+    <x:col min="2" max="2" width="18.625" style="5" customWidth="1"/>
+    <x:col min="3" max="3" width="29.875" style="5" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:3">
-      <x:c r="A1" s="1" t="s">
+      <x:c r="A1" s="6" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B1" s="6" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C1" s="6" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:3">
+      <x:c r="A2" s="5" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="B2" s="5" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C2" s="5" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:3">
+      <x:c r="A3" s="5" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="B3" s="5" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C3" s="5" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:3">
+      <x:c r="A4" s="5" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="B4" s="5" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C4" s="5" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:3">
+      <x:c r="A5" s="5" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="B5" s="5" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C5" s="5" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:3">
+      <x:c r="A6" s="5" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="B6" s="5" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C6" s="5" t="s">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:3">
+      <x:c r="A7" s="5" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="B7" s="5" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C7" s="5" t="s">
+        <x:v>38</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:3">
+      <x:c r="A8" s="5" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="B8" s="5" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C8" s="5" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:3">
+      <x:c r="A9" s="5" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="B9" s="5" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C9" s="5" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:3">
+      <x:c r="A10" s="5" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="B10" s="5" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C10" s="5" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:3">
+      <x:c r="A11" s="5" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="B11" s="5" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C11" s="5" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:3">
+      <x:c r="A12" s="5" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="B12" s="5" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C12" s="5" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:3" s="3" customFormat="1">
+      <x:c r="A13" s="3" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="B13" s="3" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C13" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:3">
+      <x:c r="A14" s="5" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="B14" s="5" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C14" s="5" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:3">
+      <x:c r="A15" s="5" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B15" s="5" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C15" s="5" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:3">
+      <x:c r="A16" s="5" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="B16" s="5" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C16" s="5" t="s">
+        <x:v>34</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:3">
+      <x:c r="A17" s="5" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="B17" s="5" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C17" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:3">
+      <x:c r="A18" s="5" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="B18" s="5" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C18" s="5" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:3">
+      <x:c r="A19" s="5" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B19" s="5" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C19" s="5" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:3">
+      <x:c r="A20" s="5" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B20" s="5" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C20" s="5" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:3">
+      <x:c r="A21" s="5" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="B21" s="5" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C21" s="5" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:3">
+      <x:c r="A22" s="5" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="B22" s="5" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:3">
+      <x:c r="A23" s="1" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="B23" s="1" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C23" s="1" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:3">
+      <x:c r="A24" s="1" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="B24" s="1" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C24" s="1" t="s">
+        <x:v>37</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:3">
+      <x:c r="A25" s="1" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="B25" s="1" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C25" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:3">
+      <x:c r="A26" s="1" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="B26" s="1" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C26" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:3">
+      <x:c r="A27" s="1" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="B27" s="1" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C27" s="1" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="B1" s="1" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="C1" s="1" t="s">
-        <x:v>34</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:3">
-      <x:c r="A2" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B2" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="C2" t="s">
-        <x:v>57</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:3">
-      <x:c r="A3" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="B3" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="C3" t="s">
-        <x:v>67</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:3">
-      <x:c r="A4" t="s">
+    </x:row>
+    <x:row r="28" spans="1:3">
+      <x:c r="A28" s="1" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="B28" s="1" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C28" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:3">
+      <x:c r="A29" s="1" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="B29" s="1" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C29" s="1" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="B4" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="C4" t="s">
-        <x:v>68</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:3">
-      <x:c r="A5" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B5" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="C5" t="s">
-        <x:v>60</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:3">
-      <x:c r="A6" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="B6" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="C6" t="s">
-        <x:v>43</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:3">
-      <x:c r="A7" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B7" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="C7" t="s">
-        <x:v>64</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:3">
-      <x:c r="A8" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B8" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="C8" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:3">
-      <x:c r="A9" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="B9" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="C9" t="s">
-        <x:v>70</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:3">
-      <x:c r="A10" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="B10" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="C10" t="s">
-        <x:v>19</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:3">
-      <x:c r="A11" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="B11" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="C11" t="s">
-        <x:v>53</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:3">
-      <x:c r="A12" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="B12" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="C12" t="s">
-        <x:v>44</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:3">
-      <x:c r="A13" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B13" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="C13" t="s">
-        <x:v>55</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:3">
-      <x:c r="A14" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="B14" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="C14" t="s">
-        <x:v>42</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:3">
-      <x:c r="A15" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B15" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="C15" t="s">
-        <x:v>65</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:3">
-      <x:c r="A16" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="B16" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="C16" t="s">
-        <x:v>66</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:3">
-      <x:c r="A17" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="B17" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="C17" t="s">
-        <x:v>22</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:3">
-      <x:c r="A18" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="B18" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="C18" t="s">
-        <x:v>59</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:3">
-      <x:c r="A19" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="B19" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="C19" t="s">
+    </x:row>
+    <x:row r="30" spans="1:3">
+      <x:c r="A30" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="B30" t="s">
         <x:v>40</x:v>
       </x:c>
-    </x:row>
-    <x:row r="20" spans="1:3">
-      <x:c r="A20" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B20" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="C20" t="s">
-        <x:v>58</x:v>
+      <x:c r="C30" t="s">
+        <x:v>94</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:3">
+      <x:c r="A31" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="B31" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C31" t="s">
+        <x:v>39</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -1387,92 +1618,92 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
   <x:cols>
-    <x:col min="1" max="1" width="20.375" customWidth="1"/>
-    <x:col min="2" max="2" width="33" customWidth="1"/>
+    <x:col min="1" max="1" width="20.375" style="5" customWidth="1"/>
+    <x:col min="2" max="2" width="33" style="5" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">
-      <x:c r="A1" s="1" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="B1" s="1" t="s">
-        <x:v>38</x:v>
+      <x:c r="A1" s="6" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="B1" s="6" t="s">
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
-      <x:c r="A2" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="B2" t="s">
-        <x:v>48</x:v>
+      <x:c r="A2" s="5" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="B2" s="5" t="s">
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2">
-      <x:c r="A3" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="B3" t="s">
-        <x:v>51</x:v>
+      <x:c r="A3" s="5" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B3" s="5" t="s">
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2">
-      <x:c r="A4" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="B4" t="s">
-        <x:v>63</x:v>
+      <x:c r="A4" s="5" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="B4" s="5" t="s">
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2">
-      <x:c r="A5" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B5" t="s">
-        <x:v>56</x:v>
+      <x:c r="A5" s="5" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="B5" s="5" t="s">
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2">
-      <x:c r="A6" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="B6" t="s">
-        <x:v>62</x:v>
+      <x:c r="A6" s="5" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B6" s="5" t="s">
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2">
-      <x:c r="A7" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="B7" t="s">
-        <x:v>69</x:v>
+      <x:c r="A7" s="5" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="B7" s="5" t="s">
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2">
-      <x:c r="A8" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B8" t="s">
-        <x:v>41</x:v>
+      <x:c r="A8" s="5" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="B8" s="5" t="s">
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2">
-      <x:c r="A9" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B9" t="s">
-        <x:v>45</x:v>
+      <x:c r="A9" s="5" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="B9" s="5" t="s">
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2">
-      <x:c r="A10" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="B10" t="s">
-        <x:v>21</x:v>
+      <x:c r="A10" s="5" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="B10" s="5" t="s">
+        <x:v>3</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -1488,46 +1719,46 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
   <x:cols>
-    <x:col min="1" max="1" width="18.375" customWidth="1"/>
-    <x:col min="2" max="2" width="23.625" customWidth="1"/>
-    <x:col min="3" max="3" width="40.625" customWidth="1"/>
+    <x:col min="1" max="1" width="18.375" style="5" customWidth="1"/>
+    <x:col min="2" max="2" width="23.625" style="5" customWidth="1"/>
+    <x:col min="3" max="3" width="40.625" style="5" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:3">
-      <x:c r="A1" s="1" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="B1" s="1" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="C1" s="1" t="s">
-        <x:v>34</x:v>
+      <x:c r="A1" s="6" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B1" s="6" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C1" s="6" t="s">
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
-      <x:c r="A2" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="B2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C2" t="s">
-        <x:v>46</x:v>
+      <x:c r="A2" s="5" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B2" s="5" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="C2" s="5" t="s">
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
-      <x:c r="A3" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="B3" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C3" t="s">
-        <x:v>39</x:v>
+      <x:c r="A3" s="5" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="B3" s="5" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C3" s="5" t="s">
+        <x:v>23</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -1543,20 +1774,20 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
   <x:cols>
-    <x:col min="1" max="1" width="22.625" customWidth="1"/>
-    <x:col min="2" max="2" width="25.875" customWidth="1"/>
+    <x:col min="1" max="1" width="22.625" style="5" customWidth="1"/>
+    <x:col min="2" max="2" width="25.875" style="5" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">
-      <x:c r="A1" s="1" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="B1" s="1" t="s">
-        <x:v>38</x:v>
+      <x:c r="A1" s="6" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="B1" s="6" t="s">
+        <x:v>55</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -1572,24 +1803,24 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
   <x:cols>
-    <x:col min="1" max="1" width="20.125" customWidth="1"/>
-    <x:col min="2" max="2" width="22.875" customWidth="1"/>
-    <x:col min="3" max="3" width="18" customWidth="1"/>
+    <x:col min="1" max="1" width="20.125" style="5" customWidth="1"/>
+    <x:col min="2" max="2" width="22.875" style="5" customWidth="1"/>
+    <x:col min="3" max="3" width="18" style="5" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:3">
-      <x:c r="A1" s="1" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="B1" s="1" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="C1" s="1" t="s">
-        <x:v>34</x:v>
+      <x:c r="A1" s="6" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B1" s="6" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C1" s="6" t="s">
+        <x:v>57</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
--- a/4. WindowAPI/Ninja_Baseball_Batman_Project/AniData/AniData.xlsx
+++ b/4. WindowAPI/Ninja_Baseball_Batman_Project/AniData/AniData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="17565" windowHeight="6975" tabRatio="500" activeTab="4"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="13620" tabRatio="500" activeTab="6"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="TitleScene_Sprites" sheetId="1" r:id="rId4"/>
@@ -28,291 +28,585 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="95">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="193">
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_born.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_catch.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Data Address</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Animation Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Title_Screen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Straw_selected</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_homerun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_tryspin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sprite Address</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Roger_selected</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Straw_select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Background/stage_5.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/1P_select.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Straw_tag.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Roger_select.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/UI/titlescreen.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Roger_tag.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Jose_select.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Baseball/Baseball_wakeup.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Baseball/Baseball_explode.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Background1_stage1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Baseball/Baseball_ReadyForFight.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Background1/Background1_stage1.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_damaged1.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_homerun.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_idle_stay.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_deadani.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_attack1.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Background/Boss_Transition.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_dynamite.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_attack2.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_tryspin.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_damaged.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_eight.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Ryno_select.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/UI/PlayerSelect.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_seven.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/titlescreen.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/Monster/Baseball.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_three.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Straw_select.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_seven</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Straw_tag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Background1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1P_select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Roger_tag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_eight</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_walk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_five</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_three</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Employed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_zero</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WindyPlane</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jose_select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_four</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jose_tag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_attack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_tag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Background</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Straw_selected.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Jose_selected.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound Data Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound Address</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_walk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jose_selected</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_shock</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Baseball/Baseball_hit_3.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Baseball/Baseball_shock.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_thunderattack.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Baseball/Baseball_Kick.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_bearhandmode.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_gameoversign.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Baseball/Baseball_walk.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Baseball/Baseball_hit_4.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_underattack.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Baseball/Baseball_hit_1.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Baseball/Baseball_hit_2.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Baseball/Baseball_punch.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_catchattack.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Baseball/Baseball_dead.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HUD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bat</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_underattack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_gameoversign</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_bearhandmode</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_thunderattack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Select_background</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/UI/Object.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/UI/HUD.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_catchattack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sprite Data Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Player_select_deco</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_readyforfight</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/Monster/Bat.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_zero.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_five.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Jose_tag.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_six.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Player.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Drafted.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Select.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/Monster/Cards.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_four.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_one.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Ryno_tag.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/Player/Ryno.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_nine.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_two.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/employed.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Bat/Bat_hat.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Background/stage_4.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cards</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_two</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_six</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bat_hit</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Object</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stage_4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Player</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Drafted</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Explode</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bat_hat</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stage_5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_one</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Roger_selected.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Ryno_selected.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Bat/Bat_hit.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/Background/Background.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/Monster/WindyPlane.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_jump</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_run.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_idle.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_spin.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_splash.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Bat/Bat_walk.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_throw.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/Background/Background1.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_knee.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Bat/Bat_idle.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Background/Stage_1_2_3.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_walk.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_jump.txt</x:t>
+  </x:si>
   <x:si>
     <x:t>AniData/UI/playerselect_deco.txt</x:t>
   </x:si>
   <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_dead.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_fly.txt</x:t>
+  </x:si>
+  <x:si>
     <x:t>AniData/UI/Select_background.txt</x:t>
   </x:si>
   <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_walk.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/Background/Background1.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/UI/PlayerSelect.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_three.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/titlescreen.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Straw_select.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_seven.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Ryno_select.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Roger_tag.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Straw_tag.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/UI/titlescreen.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/Monster/Baseball.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Roger_select.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Jose_select.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/1P_select.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Ryno_selected.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Roger_selected.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/Monster/WindyPlane.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/Background/Background.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Straw_selected.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Jose_selected.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Bat/Bat_hit.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/employed.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Select.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_zero.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/Player/Ryno.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/Monster/Cards.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_four.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_five.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Drafted.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_one.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/Monster/Bat.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Ryno_tag.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Player.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_six.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_two.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Jose_tag.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_nine.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HUD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bat</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound Address</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Title_Screen</x:t>
+    <x:t>AniData/Background/stage_6_Boss.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_burn.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_attack.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_win.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_silde.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_hit_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Roger_select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_damaged1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stage_6_boss</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_selected</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_damaged</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Title_screen</x:t>
   </x:si>
   <x:si>
     <x:t>Origin Sprite</x:t>
   </x:si>
   <x:si>
-    <x:t>Animation Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Title_screen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jose_selected</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Straw_select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound Data Name</x:t>
+    <x:t>Baseball_dead</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_hit_2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_attack1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_hit_4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_idle_stay</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_attack2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_wakeup</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_dynamite</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_deadani</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_kick</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_punch</x:t>
   </x:si>
   <x:si>
     <x:t>Player_Select</x:t>
   </x:si>
   <x:si>
-    <x:t>Straw_selected</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Roger_select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Roger_selected</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_walk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sprite Address</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_selected</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Data Address</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Baseball/Baseball_walk.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/UI/HUD.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Player_select_deco</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/UI/Object.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Select_background</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sprite Data Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_seven</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Roger_tag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Straw_tag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_zero</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jose_tag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jose_select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WindyPlane</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1P_select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Employed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_walk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Background</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Background1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_tag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_five</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_three</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_four</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_eight</x:t>
+    <x:t>Baseball_hit_3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Boss_transition</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_win</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_idle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_throw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_knee</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_dead</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_burn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bat_idle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_catch</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_fly</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_splash</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_spin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_run</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stage_1_2_3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_born</x:t>
   </x:si>
   <x:si>
     <x:t>Num_nine</x:t>
   </x:si>
   <x:si>
-    <x:t>Select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bat_hit</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Drafted</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_two</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Object</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cards</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Player</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_one</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_six</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_eight.txt</x:t>
+    <x:t>Ryno_silde</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bat_walk</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -386,7 +680,13 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="7">
+  <x:cellXfs count="9">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -1070,34 +1370,34 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
   <x:cols>
-    <x:col min="1" max="1" width="18.125" style="5" customWidth="1"/>
-    <x:col min="2" max="2" width="23.125" style="5" customWidth="1"/>
-    <x:col min="3" max="3" width="17.25" style="5" customWidth="1"/>
-    <x:col min="4" max="4" width="14.25" style="5" customWidth="1"/>
-    <x:col min="5" max="5" width="15.125" style="5" customWidth="1"/>
-    <x:col min="6" max="6" width="19.5" style="5" customWidth="1"/>
-    <x:col min="7" max="7" width="17" style="5" customWidth="1"/>
+    <x:col min="1" max="1" width="18.125" style="7" customWidth="1"/>
+    <x:col min="2" max="2" width="23.125" style="7" customWidth="1"/>
+    <x:col min="3" max="3" width="17.25" style="7" customWidth="1"/>
+    <x:col min="4" max="4" width="14.25" style="7" customWidth="1"/>
+    <x:col min="5" max="5" width="15.125" style="7" customWidth="1"/>
+    <x:col min="6" max="6" width="19.5" style="7" customWidth="1"/>
+    <x:col min="7" max="7" width="17" style="7" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:7">
-      <x:c r="A1" s="6" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="B1" s="6" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="C1" s="6"/>
-      <x:c r="D1" s="6"/>
-      <x:c r="E1" s="6"/>
-      <x:c r="F1" s="6"/>
-      <x:c r="G1" s="6"/>
+      <x:c r="A1" s="8" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="B1" s="8" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C1" s="8"/>
+      <x:c r="D1" s="8"/>
+      <x:c r="E1" s="8"/>
+      <x:c r="F1" s="8"/>
+      <x:c r="G1" s="8"/>
     </x:row>
     <x:row r="2" spans="1:2">
-      <x:c r="A2" s="5" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="B2" s="5" t="s">
-        <x:v>12</x:v>
+      <x:c r="A2" s="7" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B2" s="7" t="s">
+        <x:v>15</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1117,8 +1417,8 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
   <x:cols>
-    <x:col min="1" max="1" width="19.125" style="4" customWidth="1"/>
-    <x:col min="2" max="2" width="17.375" style="4" customWidth="1"/>
+    <x:col min="1" max="1" width="19.125" style="6" customWidth="1"/>
+    <x:col min="2" max="2" width="17.375" style="6" customWidth="1"/>
   </x:cols>
   <x:sheetData/>
   <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
@@ -1137,31 +1437,31 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
   <x:cols>
-    <x:col min="1" max="1" width="18.875" style="5" customWidth="1"/>
-    <x:col min="2" max="2" width="18.5" style="5" customWidth="1"/>
-    <x:col min="3" max="3" width="23.5" style="5" customWidth="1"/>
+    <x:col min="1" max="1" width="18.875" style="7" customWidth="1"/>
+    <x:col min="2" max="2" width="18.5" style="7" customWidth="1"/>
+    <x:col min="3" max="3" width="23.5" style="7" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:3">
-      <x:c r="A1" s="6" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="B1" s="6" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="C1" s="6" t="s">
-        <x:v>57</x:v>
+      <x:c r="A1" s="8" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B1" s="8" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="C1" s="8" t="s">
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
-      <x:c r="A2" s="5" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="B2" s="5" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="C2" s="5" t="s">
-        <x:v>6</x:v>
+      <x:c r="A2" s="7" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="B2" s="7" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C2" s="7" t="s">
+        <x:v>37</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1181,16 +1481,16 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
   <x:cols>
-    <x:col min="1" max="1" width="21.25" style="5" customWidth="1"/>
-    <x:col min="2" max="2" width="18.625" style="5" customWidth="1"/>
+    <x:col min="1" max="1" width="21.25" style="7" customWidth="1"/>
+    <x:col min="2" max="2" width="18.625" style="7" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">
-      <x:c r="A1" s="6" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="B1" s="6" t="s">
-        <x:v>42</x:v>
+      <x:c r="A1" s="8" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="B1" s="8" t="s">
+        <x:v>64</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1210,32 +1510,32 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
   <x:cols>
-    <x:col min="1" max="1" width="18.75" style="5" customWidth="1"/>
-    <x:col min="2" max="2" width="24.375" style="5" customWidth="1"/>
+    <x:col min="1" max="1" width="18.75" style="7" customWidth="1"/>
+    <x:col min="2" max="2" width="24.375" style="7" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">
-      <x:c r="A1" s="6" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="B1" s="6" t="s">
-        <x:v>55</x:v>
+      <x:c r="A1" s="8" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="B1" s="8" t="s">
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
-      <x:c r="A2" s="5" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="B2" s="5" t="s">
-        <x:v>4</x:v>
+      <x:c r="A2" s="7" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="B2" s="7" t="s">
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2">
-      <x:c r="A3" s="5" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="B3" s="5" t="s">
-        <x:v>59</x:v>
+      <x:c r="A3" s="7" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="B3" s="7" t="s">
+        <x:v>90</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1249,356 +1549,356 @@
   <x:sheetPr codeName="Sheet9"/>
   <x:dimension ref="A1:C31"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <x:selection activeCell="A31" activeCellId="0" sqref="A31:A31"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
   <x:cols>
-    <x:col min="1" max="1" width="17.625" style="5" customWidth="1"/>
-    <x:col min="2" max="2" width="18.625" style="5" customWidth="1"/>
-    <x:col min="3" max="3" width="29.875" style="5" customWidth="1"/>
+    <x:col min="1" max="1" width="17.625" style="7" customWidth="1"/>
+    <x:col min="2" max="2" width="18.625" style="7" customWidth="1"/>
+    <x:col min="3" max="3" width="29.875" style="7" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:3">
-      <x:c r="A1" s="6" t="s">
+      <x:c r="A1" s="8" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B1" s="8" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="C1" s="8" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:3">
+      <x:c r="A2" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B2" s="7" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="C2" s="7" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:3">
+      <x:c r="A3" s="7" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="B3" s="7" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="C3" s="7" t="s">
+        <x:v>101</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:3">
+      <x:c r="A4" s="7" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B4" s="7" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="C4" s="7" t="s">
+        <x:v>110</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:3">
+      <x:c r="A5" s="7" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B5" s="7" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="C5" s="7" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:3">
+      <x:c r="A6" s="7" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="B6" s="7" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="C6" s="7" t="s">
+        <x:v>62</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:3">
+      <x:c r="A7" s="7" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B7" s="7" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="C7" s="7" t="s">
+        <x:v>98</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:3">
+      <x:c r="A8" s="7" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="B8" s="7" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="C8" s="7" t="s">
+        <x:v>143</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:3">
+      <x:c r="A9" s="7" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="B9" s="7" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="C9" s="7" t="s">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:3">
+      <x:c r="A10" s="7" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="B10" s="7" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="C10" s="7" t="s">
+        <x:v>145</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:3">
+      <x:c r="A11" s="7" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="B11" s="7" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="C11" s="7" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:3">
+      <x:c r="A12" s="7" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B12" s="7" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="C12" s="7" t="s">
+        <x:v>127</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:3" s="5" customFormat="1">
+      <x:c r="A13" s="5" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="B1" s="6" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="C1" s="6" t="s">
-        <x:v>57</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:3">
-      <x:c r="A2" s="5" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="B2" s="5" t="s">
+      <x:c r="B13" s="5" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="C13" s="5" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:3">
+      <x:c r="A14" s="7" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="B14" s="7" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="C14" s="7" t="s">
+        <x:v>34</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:3">
+      <x:c r="A15" s="7" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="B15" s="7" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="C15" s="7" t="s">
+        <x:v>128</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:3">
+      <x:c r="A16" s="7" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="B16" s="7" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="C16" s="7" t="s">
+        <x:v>106</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:3">
+      <x:c r="A17" s="7" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="B17" s="7" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="C17" s="7" t="s">
+        <x:v>102</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:3">
+      <x:c r="A18" s="7" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="B18" s="7" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="C18" s="7" t="s">
+        <x:v>148</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:3">
+      <x:c r="A19" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B19" s="7" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="C19" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:3">
+      <x:c r="A20" s="7" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B20" s="7" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="C20" s="7" t="s">
+        <x:v>61</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:3">
+      <x:c r="A21" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B21" s="7" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="C21" s="7" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:3">
+      <x:c r="A22" s="7" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="B22" s="7" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="C22" s="4" t="s">
+        <x:v>96</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:3">
+      <x:c r="A23" s="3" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="B23" s="3" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="C23" s="3" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:3">
+      <x:c r="A24" s="3" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="B24" s="3" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="C24" s="3" t="s">
+        <x:v>109</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:3">
+      <x:c r="A25" s="3" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="C2" s="5" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:3">
-      <x:c r="A3" s="5" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="B3" s="5" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="C3" s="5" t="s">
-        <x:v>31</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:3">
-      <x:c r="A4" s="5" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="B4" s="5" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="C4" s="5" t="s">
-        <x:v>24</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:3">
-      <x:c r="A5" s="5" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="B5" s="5" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="C5" s="5" t="s">
-        <x:v>15</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:3">
-      <x:c r="A6" s="5" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="B6" s="5" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="C6" s="5" t="s">
-        <x:v>22</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:3">
-      <x:c r="A7" s="5" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="B7" s="5" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="C7" s="5" t="s">
-        <x:v>38</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:3">
-      <x:c r="A8" s="5" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="B8" s="5" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="C8" s="5" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:3">
-      <x:c r="A9" s="5" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="B9" s="5" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="C9" s="5" t="s">
-        <x:v>35</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:3">
-      <x:c r="A10" s="5" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="B10" s="5" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="C10" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:3">
-      <x:c r="A11" s="5" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="B11" s="5" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="C11" s="5" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:3">
-      <x:c r="A12" s="5" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="B12" s="5" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="C12" s="5" t="s">
-        <x:v>18</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:3" s="3" customFormat="1">
-      <x:c r="A13" s="3" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="B13" s="3" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="C13" s="3" t="s">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:3">
-      <x:c r="A14" s="5" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="B14" s="5" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="C14" s="5" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:3">
-      <x:c r="A15" s="5" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="B15" s="5" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="C15" s="5" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:3">
-      <x:c r="A16" s="5" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="B16" s="5" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="C16" s="5" t="s">
-        <x:v>34</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:3">
-      <x:c r="A17" s="5" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="B17" s="5" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="C17" s="5" t="s">
-        <x:v>25</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:3">
-      <x:c r="A18" s="5" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="B18" s="5" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="C18" s="5" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:3">
-      <x:c r="A19" s="5" t="s">
+      <x:c r="B25" s="3" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="C25" s="3" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:3">
+      <x:c r="A26" s="3" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="B26" s="3" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="C26" s="3" t="s">
+        <x:v>104</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:3">
+      <x:c r="A27" s="3" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="B19" s="5" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="C19" s="5" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:3">
-      <x:c r="A20" s="5" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="B20" s="5" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="C20" s="5" t="s">
-        <x:v>21</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:3">
-      <x:c r="A21" s="5" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="B21" s="5" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="C21" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:3">
-      <x:c r="A22" s="5" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="B22" s="5" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="C22" s="2" t="s">
-        <x:v>26</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:3">
-      <x:c r="A23" s="1" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="B23" s="1" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="C23" s="1" t="s">
-        <x:v>32</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:3">
-      <x:c r="A24" s="1" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="B24" s="1" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="C24" s="1" t="s">
-        <x:v>37</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="1:3">
-      <x:c r="A25" s="1" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="B25" s="1" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="C25" s="1" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="1:3">
-      <x:c r="A26" s="1" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="B26" s="1" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="C26" s="1" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="1:3">
-      <x:c r="A27" s="1" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="B27" s="1" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="C27" s="1" t="s">
-        <x:v>30</x:v>
+      <x:c r="B27" s="3" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="C27" s="3" t="s">
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:3">
-      <x:c r="A28" s="1" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="B28" s="1" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="C28" s="1" t="s">
+      <x:c r="A28" s="3" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="B28" s="3" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="C28" s="3" t="s">
+        <x:v>99</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:3">
+      <x:c r="A29" s="3" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B29" s="3" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="C29" s="3" t="s">
         <x:v>36</x:v>
       </x:c>
     </x:row>
-    <x:row r="29" spans="1:3">
-      <x:c r="A29" s="1" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="B29" s="1" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="C29" s="1" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
     <x:row r="30" spans="1:3">
-      <x:c r="A30" t="s">
+      <x:c r="A30" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
         <x:v>82</x:v>
       </x:c>
-      <x:c r="B30" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="C30" t="s">
-        <x:v>94</x:v>
+      <x:c r="C30" s="2" t="s">
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:3">
-      <x:c r="A31" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="B31" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="C31" t="s">
-        <x:v>39</x:v>
+      <x:c r="A31" s="2" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
+        <x:v>108</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1613,93 +1913,93 @@
   <x:dimension ref="A1:B10"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="A1" activeCellId="0" sqref="A1:B1"/>
+      <x:selection activeCell="A10" activeCellId="0" sqref="A10:A10"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
   <x:cols>
-    <x:col min="1" max="1" width="20.375" style="5" customWidth="1"/>
-    <x:col min="2" max="2" width="33" style="5" customWidth="1"/>
+    <x:col min="1" max="1" width="20.375" style="7" customWidth="1"/>
+    <x:col min="2" max="2" width="33" style="7" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">
-      <x:c r="A1" s="6" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="B1" s="6" t="s">
-        <x:v>55</x:v>
+      <x:c r="A1" s="8" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="B1" s="8" t="s">
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
-      <x:c r="A2" s="5" t="s">
+      <x:c r="A2" s="7" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="B2" s="7" t="s">
         <x:v>89</x:v>
       </x:c>
-      <x:c r="B2" s="5" t="s">
-        <x:v>61</x:v>
-      </x:c>
     </x:row>
     <x:row r="3" spans="1:2">
-      <x:c r="A3" s="5" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="B3" s="5" t="s">
+      <x:c r="A3" s="7" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="B3" s="7" t="s">
+        <x:v>90</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:2">
+      <x:c r="A4" s="7" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="B4" s="7" t="s">
+        <x:v>107</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:2">
+      <x:c r="A5" s="7" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B5" s="7" t="s">
+        <x:v>38</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:2">
+      <x:c r="A6" s="7" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="B6" s="7" t="s">
+        <x:v>95</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:2">
+      <x:c r="A7" s="7" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="B7" s="7" t="s">
+        <x:v>103</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:2">
+      <x:c r="A8" s="7" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="B8" s="7" t="s">
+        <x:v>131</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:2">
+      <x:c r="A9" s="7" t="s">
         <x:v>59</x:v>
       </x:c>
-    </x:row>
-    <x:row r="4" spans="1:2">
-      <x:c r="A4" s="5" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="B4" s="5" t="s">
-        <x:v>27</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:2">
-      <x:c r="A5" s="5" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="B5" s="5" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:2">
-      <x:c r="A6" s="5" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="B6" s="5" t="s">
-        <x:v>33</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:2">
-      <x:c r="A7" s="5" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="B7" s="5" t="s">
-        <x:v>28</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:2">
-      <x:c r="A8" s="5" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="B8" s="5" t="s">
-        <x:v>19</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:2">
-      <x:c r="A9" s="5" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="B9" s="5" t="s">
-        <x:v>20</x:v>
+      <x:c r="B9" s="7" t="s">
+        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2">
-      <x:c r="A10" s="5" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="B10" s="5" t="s">
-        <x:v>3</x:v>
+      <x:c r="A10" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B10" s="7" t="s">
+        <x:v>139</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1711,53 +2011,627 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet11"/>
-  <x:dimension ref="A1:C3"/>
+  <x:dimension ref="A1:C56"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="A1" activeCellId="0" sqref="A1:C1"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="B7" activeCellId="0" sqref="B7:B7"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
   <x:cols>
-    <x:col min="1" max="1" width="18.375" style="5" customWidth="1"/>
-    <x:col min="2" max="2" width="23.625" style="5" customWidth="1"/>
-    <x:col min="3" max="3" width="40.625" style="5" customWidth="1"/>
+    <x:col min="1" max="1" width="31.25" style="7" customWidth="1"/>
+    <x:col min="2" max="2" width="23.625" style="7" customWidth="1"/>
+    <x:col min="3" max="3" width="40.625" style="7" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:3">
-      <x:c r="A1" s="6" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="B1" s="6" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="C1" s="6" t="s">
+      <x:c r="A1" s="8" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B1" s="8" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="C1" s="8" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:3">
+      <x:c r="A2" s="7" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="B2" s="7" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C2" s="1" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:3">
+      <x:c r="A3" s="1" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="B3" s="1" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C3" s="1" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:3">
+      <x:c r="A4" s="1" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="B4" s="1" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C4" s="1" t="s">
+        <x:v>112</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:3">
+      <x:c r="A5" s="1" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="B5" s="1" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C5" s="1" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:3" customFormat="1">
+      <x:c r="A6" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="B6" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C6" t="s">
+        <x:v>149</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:3" customFormat="1">
+      <x:c r="A7" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C7" t="s">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:3" customFormat="1">
+      <x:c r="A8" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="B8" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C8" t="s">
+        <x:v>74</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:3">
+      <x:c r="A9" s="1" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="B9" s="1" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C9" s="1" t="s">
+        <x:v>81</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:3">
+      <x:c r="A10" s="1" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="B10" s="1" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C10" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:3">
+      <x:c r="A11" s="1" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="B11" s="1" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C11" s="1" t="s">
+        <x:v>77</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:3">
+      <x:c r="A12" s="1" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="B12" s="1" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C12" s="1" t="s">
+        <x:v>78</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:3">
+      <x:c r="A13" s="1" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="B13" s="1" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C13" s="1" t="s">
+        <x:v>68</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:3">
+      <x:c r="A14" s="1" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="B14" s="1" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C14" s="1" t="s">
+        <x:v>75</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:3">
+      <x:c r="A15" s="1" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="B15" s="1" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C15" s="1" t="s">
+        <x:v>71</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:3">
+      <x:c r="A16" s="1" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="B16" s="1" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C16" s="1" t="s">
+        <x:v>79</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:3">
+      <x:c r="A17" s="1" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="B17" s="1" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C17" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:3">
+      <x:c r="A18" s="1" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="B18" s="1" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C18" s="1" t="s">
+        <x:v>69</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:3">
+      <x:c r="A19" s="1" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="B19" s="1" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C19" s="1" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:3">
+      <x:c r="A20" s="1" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="B20" s="1" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C20" s="1" t="s">
+        <x:v>74</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:3">
+      <x:c r="A21" s="1" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="B21" s="1" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C21" s="1" t="s">
+        <x:v>129</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:3">
+      <x:c r="A22" s="1" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="B22" s="1" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C22" s="1" t="s">
+        <x:v>111</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:3">
+      <x:c r="A23" s="1" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B23" s="1" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C23" s="1" t="s">
+        <x:v>141</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:3">
+      <x:c r="A24" s="1" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="B24" s="1" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C24" s="1" t="s">
+        <x:v>137</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:3">
+      <x:c r="A25" s="1" t="s">
         <x:v>57</x:v>
       </x:c>
-    </x:row>
-    <x:row r="2" spans="1:3">
-      <x:c r="A2" s="5" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="B2" s="5" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="C2" s="5" t="s">
-        <x:v>58</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:3">
-      <x:c r="A3" s="5" t="s">
+      <x:c r="B25" s="1" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C25" s="1" t="s">
+        <x:v>151</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:3">
+      <x:c r="A26" s="1" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="B26" s="1" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C26" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:3">
+      <x:c r="A27" s="1" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="B27" s="1" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C27" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:3">
+      <x:c r="A28" s="1" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="B28" s="1" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C28" s="1" t="s">
+        <x:v>72</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:3">
+      <x:c r="A29" s="1" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="B29" s="1" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C29" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:3">
+      <x:c r="A30" s="1" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="B30" s="1" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C30" s="1" t="s">
+        <x:v>150</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:3">
+      <x:c r="A31" s="1" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="B31" s="1" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C31" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:3">
+      <x:c r="A32" s="1" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="B32" s="1" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C32" s="1" t="s">
+        <x:v>80</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:3">
+      <x:c r="A33" s="1" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="B33" s="1" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C33" s="1" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:3">
+      <x:c r="A34" s="1" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="B34" s="1" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C34" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:3">
+      <x:c r="A35" s="1" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="B35" s="1" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C35" s="1" t="s">
+        <x:v>146</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:3">
+      <x:c r="A36" s="1" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="B36" s="1" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C36" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:3">
+      <x:c r="A37" s="1" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="B37" s="1" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C37" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:3">
+      <x:c r="A38" s="1" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="B38" s="1" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C38" s="1" t="s">
+        <x:v>147</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:3">
+      <x:c r="A39" s="1" t="s">
         <x:v>85</x:v>
       </x:c>
-      <x:c r="B3" s="5" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="C3" s="5" t="s">
-        <x:v>23</x:v>
-      </x:c>
+      <x:c r="B39" s="1" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C39" s="1" t="s">
+        <x:v>73</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:3">
+      <x:c r="A40" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B40" s="1" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C40" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:3">
+      <x:c r="A41" s="1" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="B41" s="1" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C41" s="1" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:3">
+      <x:c r="A42" s="1" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="B42" s="1" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C42" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:3">
+      <x:c r="A43" s="1" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="B43" s="1" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C43" s="1" t="s">
+        <x:v>144</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:3">
+      <x:c r="A44" s="1" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="B44" s="1" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C44" s="1" t="s">
+        <x:v>140</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:3">
+      <x:c r="A45" s="1" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="B45" s="1" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C45" s="1" t="s">
+        <x:v>133</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:3">
+      <x:c r="A46" s="1" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="B46" s="1" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C46" s="1" t="s">
+        <x:v>153</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:3">
+      <x:c r="A47" s="1" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="B47" s="1" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C47" s="1" t="s">
+        <x:v>135</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:3">
+      <x:c r="A48" s="1" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="B48" s="1" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C48" s="1" t="s">
+        <x:v>136</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:3">
+      <x:c r="A49" s="1" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="B49" s="1" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C49" s="1" t="s">
+        <x:v>138</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:3">
+      <x:c r="A50" s="1" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="B50" s="1" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C50" s="1" t="s">
+        <x:v>70</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:3">
+      <x:c r="A51" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B51" s="1" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C51" s="1" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:3">
+      <x:c r="A52" s="1" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="B52" s="1" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C52" s="1" t="s">
+        <x:v>76</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:3">
+      <x:c r="A53" s="1" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="B53" s="1" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C53" s="1" t="s">
+        <x:v>143</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:3">
+      <x:c r="A54" s="1" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="B54" s="1" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C54" s="1" t="s">
+        <x:v>152</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:3">
+      <x:c r="A55"/>
+      <x:c r="B55"/>
+      <x:c r="C55"/>
+    </x:row>
+    <x:row r="56" spans="1:3">
+      <x:c r="A56"/>
+      <x:c r="B56"/>
+      <x:c r="C56"/>
     </x:row>
   </x:sheetData>
+  <x:sortState columnSort="0" caseSensitive="0" ref="A2:C55">
+    <x:sortCondition descending="0" sortBy="value" ref="B2:B55"/>
+  </x:sortState>
   <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
@@ -1774,16 +2648,16 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
   <x:cols>
-    <x:col min="1" max="1" width="22.625" style="5" customWidth="1"/>
-    <x:col min="2" max="2" width="25.875" style="5" customWidth="1"/>
+    <x:col min="1" max="1" width="22.625" style="7" customWidth="1"/>
+    <x:col min="2" max="2" width="25.875" style="7" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">
-      <x:c r="A1" s="6" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="B1" s="6" t="s">
-        <x:v>55</x:v>
+      <x:c r="A1" s="8" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="B1" s="8" t="s">
+        <x:v>8</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1803,20 +2677,20 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
   <x:cols>
-    <x:col min="1" max="1" width="20.125" style="5" customWidth="1"/>
-    <x:col min="2" max="2" width="22.875" style="5" customWidth="1"/>
-    <x:col min="3" max="3" width="18" style="5" customWidth="1"/>
+    <x:col min="1" max="1" width="20.125" style="7" customWidth="1"/>
+    <x:col min="2" max="2" width="22.875" style="7" customWidth="1"/>
+    <x:col min="3" max="3" width="18" style="7" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:3">
-      <x:c r="A1" s="6" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="B1" s="6" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="C1" s="6" t="s">
-        <x:v>57</x:v>
+      <x:c r="A1" s="8" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B1" s="8" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="C1" s="8" t="s">
+        <x:v>2</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/4. WindowAPI/Ninja_Baseball_Batman_Project/AniData/AniData.xlsx
+++ b/4. WindowAPI/Ninja_Baseball_Batman_Project/AniData/AniData.xlsx
@@ -18,595 +18,597 @@
     <x:sheet name="SelectScene_Sprites" sheetId="4" r:id="rId7"/>
     <x:sheet name="SelectScene_Animations" sheetId="5" r:id="rId8"/>
     <x:sheet name="PlayScene_Sprites" sheetId="6" r:id="rId9"/>
-    <x:sheet name="PlayScene_Animations" sheetId="7" r:id="rId10"/>
-    <x:sheet name="EndingScene_Sprites" sheetId="8" r:id="rId11"/>
-    <x:sheet name="EndingScene_Animations" sheetId="9" r:id="rId12"/>
-    <x:sheet name="Stage_1" sheetId="10" r:id="rId13"/>
+    <x:sheet name="PlayScene_Animations_Ryno" sheetId="7" r:id="rId10"/>
+    <x:sheet name="PlayScene_Animations_Baseball" sheetId="8" r:id="rId11"/>
+    <x:sheet name="PlayScene_Animations_etc" sheetId="9" r:id="rId12"/>
+    <x:sheet name="EndingScene_Sprites" sheetId="10" r:id="rId13"/>
+    <x:sheet name="EndingScene_Animations" sheetId="11" r:id="rId14"/>
+    <x:sheet name="Stage_1" sheetId="12" r:id="rId15"/>
   </x:sheets>
   <x:calcPr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" mc:Ignorable="hs" hs:hclCalcId="904"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="193">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="193">
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_underattack.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Baseball/Baseball_Kick.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_gameoversign.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_catchattack.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Baseball/Baseball_hit_4.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_bearhandmode.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_knee.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Baseball/Baseball_ReadyForFight.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/Background/Background.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Background/stage_4.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Bat/Bat_hat.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/Monster/WindyPlane.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Roger_selected.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Straw_selected.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Bat/Bat_hit.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Background/stage_5.txt</x:t>
+  </x:si>
   <x:si>
     <x:t>AniData/UI/Jose_selected.txt</x:t>
   </x:si>
   <x:si>
-    <x:t>AniData/Background/stage_4.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Straw_selected.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Bat/Bat_hat.txt</x:t>
-  </x:si>
-  <x:si>
     <x:t>AniData/UI/Ryno_selected.txt</x:t>
   </x:si>
   <x:si>
-    <x:t>AniData/Background/stage_5.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Bat/Bat_hit.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/Background/Background.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/Monster/WindyPlane.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Roger_selected.txt</x:t>
-  </x:si>
-  <x:si>
     <x:t>AniData/Monster/Baseball/Baseball_explode.txt</x:t>
   </x:si>
   <x:si>
     <x:t>AniData/Monster/Baseball/Baseball_wakeup.txt</x:t>
   </x:si>
   <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_gameoversign.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_bearhandmode.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Baseball/Baseball_hit_4.txt</x:t>
+    <x:t>Ryno_idle_stay</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Straw_selected</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_wakeup</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_attack2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Origin Sprite</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound Data Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Animation Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_tryspin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_hit_3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_shock</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_dynamite</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_tryspin.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_attack2.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_deadani.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_damaged1.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_damaged.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_attack1.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_dynamite.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Background/Boss_Transition.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_homerun.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_idle_stay.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_catchattack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_underattack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sprite Data Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/UI/HUD.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_bearhandmode</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Player_select_deco</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Select_background</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_gameoversign</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/UI/Object.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_thunderattack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Background1_stage1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/1P_select.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/titlescreen.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/Monster/Baseball.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Roger_select.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_seven.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Roger_tag.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/UI/PlayerSelect.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Straw_tag.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Jose_select.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Straw_select.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_eight.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/UI/titlescreen.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_three.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Ryno_select.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_two.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Select.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_zero.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/Player/Ryno.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Player.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_readyforfight</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_six.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_one.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_nine.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/employed.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Jose_tag.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Ryno_tag.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/Monster/Bat.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_four.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_five.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Drafted.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/Monster/Cards.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_five</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WindyPlane</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Roger_tag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_three</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Background</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Employed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jose_select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_zero</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_spin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_throw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_four</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_knee</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_win</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_jump</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_idle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_walk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Background1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_attack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_seven</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_eight</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Straw_tag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_tag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jose_tag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_slide</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1P_select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_catch</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_run</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_nine</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bat_walk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_splash</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_born</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stage_1_2_3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_fly</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bat</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HUD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stage_4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Drafted</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_one</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stage_5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bat_hat</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bat_hit</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cards</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Explode</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Player</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_six</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Object</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_two</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_punch</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_selected</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_damaged</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Boss_transition</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_hit_2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_deadani</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound Address</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jose_selected</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_hit_4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_homerun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Data Address</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_kick</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Roger_selected</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_attack1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_hit_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_damaged1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_walk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sprite Address</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Roger_select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Title_Screen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_dead</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Straw_select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Title_screen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stage_6_boss</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Player_Select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_catch.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Select_background.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_run.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Bat/Bat_idle.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Background/stage_6_Boss.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_throw.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_idle.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Background/Stage_1_2_3.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_slide.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_splash.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_fly.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_jump.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/Background/Background1.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Bat/Bat_walk.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_dead.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_win.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_born.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/playerselect_deco.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_spin.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_walk.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_burn.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_attack.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bat_idle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_burn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_dead</x:t>
   </x:si>
   <x:si>
     <x:t>AniData/Player/Ryno/Ryno_thunderattack.txt</x:t>
   </x:si>
   <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_catchattack.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Baseball/Baseball_Kick.txt</x:t>
+    <x:t>AniData/Background1/Background1_stage1.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Baseball/Baseball_shock.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Baseball/Baseball_walk.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Baseball/Baseball_punch.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Baseball/Baseball_hit_2.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Baseball/Baseball_hit_3.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Baseball/Baseball_hit_1.txt</x:t>
   </x:si>
   <x:si>
     <x:t>AniData/Monster/Baseball/Baseball_dead.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Baseball/Baseball_hit_2.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_underattack.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Baseball/Baseball_hit_3.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Baseball/Baseball_walk.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Baseball/Baseball_hit_1.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Baseball/Baseball_shock.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Baseball/Baseball_punch.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Background1/Background1_stage1.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_burn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_dead</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bat_idle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_fly</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_splash</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_spin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_run</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stage_1_2_3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_nine</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bat_walk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_born</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_catch</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Jose_select.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_slide.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Ryno_select.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Straw_tag.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/1P_select.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/Monster/Baseball.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_seven.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Straw_select.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/UI/PlayerSelect.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_eight.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_three.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/UI/titlescreen.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/titlescreen.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Roger_select.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Roger_tag.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Background</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jose_tag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WindyPlane</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jose_select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Roger_tag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_throw</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_knee</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_zero</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_four</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_five</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_three</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_jump</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_win</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_idle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Employed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_slide</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1P_select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_attack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_walk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Straw_tag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Background1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_seven</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_tag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_eight</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_damaged</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_hit_2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_deadani</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_punch</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Boss_transition</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound Address</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_hit_4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_selected</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_throw.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_catch.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/Background/Background1.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Bat/Bat_idle.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_jump.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Select_background.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_run.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_idle.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_burn.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Background/stage_6_Boss.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/playerselect_deco.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_win.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Background/Stage_1_2_3.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_spin.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_attack.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_born.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_knee.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_walk.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_fly.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Bat/Bat_walk.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_splash.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_dead.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Baseball/Baseball_ReadyForFight.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sprite Address</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Straw_select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound Data Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Animation Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Title_Screen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Straw_selected</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_tryspin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Roger_selected</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_homerun</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Data Address</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stage_6_boss</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_hit_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_hit_3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_dead</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_shock</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jose_selected</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_damaged1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_walk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_attack1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Roger_select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_wakeup</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_kick</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Title_screen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_idle_stay</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Player_Select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_dynamite</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Origin Sprite</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_attack2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bat</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HUD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Player_select_deco</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_catchattack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sprite Data Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Background1_stage1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/UI/HUD.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_thunderattack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/UI/Object.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Select_background</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_gameoversign</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_underattack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_bearhandmode</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_attack1.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_homerun.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_attack2.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_dynamite.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_idle_stay.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_damaged.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_tryspin.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Background/Boss_Transition.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_deadani.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_damaged1.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_six</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cards</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bat_hat</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Drafted</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stage_4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stage_5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bat_hit</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Object</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_two</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Explode</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_one</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Player</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_six.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_five.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Ryno_tag.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/employed.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Jose_tag.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Select.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/Monster/Bat.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Drafted.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_one.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_four.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_nine.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_zero.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_readyforfight</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/Player/Ryno.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/Monster/Cards.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Player.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_two.txt</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1384,10 +1386,10 @@
   <x:sheetData>
     <x:row r="1" spans="1:7">
       <x:c r="A1" s="9" t="s">
-        <x:v>143</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B1" s="9" t="s">
-        <x:v>111</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="C1" s="9"/>
       <x:c r="D1" s="9"/>
@@ -1397,10 +1399,10 @@
     </x:row>
     <x:row r="2" spans="1:2">
       <x:c r="A2" s="8" t="s">
-        <x:v>115</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="B2" s="8" t="s">
-        <x:v>50</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1410,6 +1412,68 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr codeName="Sheet7"/>
+  <x:dimension ref="A1:B1"/>
+  <x:sheetViews>
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="A1" activeCellId="0" sqref="A1:B1"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
+  <x:cols>
+    <x:col min="1" max="1" width="22.625" style="8" customWidth="1"/>
+    <x:col min="2" max="2" width="25.875" style="8" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:2">
+      <x:c r="A1" s="9" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B1" s="9" t="s">
+        <x:v>151</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
+  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr codeName="Sheet12"/>
+  <x:dimension ref="A1:C1"/>
+  <x:sheetViews>
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="F7" activeCellId="0" sqref="F7:F7"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
+  <x:cols>
+    <x:col min="1" max="1" width="20.125" style="8" customWidth="1"/>
+    <x:col min="2" max="2" width="22.875" style="8" customWidth="1"/>
+    <x:col min="3" max="3" width="18" style="8" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:3">
+      <x:c r="A1" s="9" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B1" s="9" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C1" s="9" t="s">
+        <x:v>144</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
+  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:A1"/>
@@ -1447,24 +1511,24 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="9" t="s">
-        <x:v>114</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B1" s="9" t="s">
-        <x:v>137</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C1" s="9" t="s">
-        <x:v>120</x:v>
+        <x:v>144</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="8" t="s">
-        <x:v>133</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B2" s="8" t="s">
-        <x:v>115</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="C2" s="8" t="s">
-        <x:v>51</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1490,10 +1554,10 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="9" t="s">
-        <x:v>113</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B1" s="9" t="s">
-        <x:v>85</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1519,26 +1583,26 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="9" t="s">
-        <x:v>143</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B1" s="9" t="s">
-        <x:v>111</x:v>
+        <x:v>151</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
       <x:c r="A2" s="8" t="s">
-        <x:v>135</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B2" s="8" t="s">
-        <x:v>47</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2">
       <x:c r="A3" s="8" t="s">
-        <x:v>140</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="B3" s="8" t="s">
-        <x:v>145</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1565,343 +1629,343 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="9" t="s">
-        <x:v>114</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B1" s="9" t="s">
-        <x:v>137</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C1" s="9" t="s">
-        <x:v>120</x:v>
+        <x:v>144</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="8" t="s">
-        <x:v>71</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="B2" s="8" t="s">
-        <x:v>135</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="C2" s="8" t="s">
-        <x:v>43</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="8" t="s">
-        <x:v>165</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="B3" s="8" t="s">
-        <x:v>135</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="C3" s="8" t="s">
-        <x:v>183</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="8" t="s">
-        <x:v>69</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="B4" s="8" t="s">
-        <x:v>135</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="C4" s="8" t="s">
-        <x:v>179</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
       <x:c r="A5" s="8" t="s">
-        <x:v>57</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="B5" s="8" t="s">
-        <x:v>135</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="C5" s="8" t="s">
-        <x:v>39</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
       <x:c r="A6" s="8" t="s">
-        <x:v>126</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="B6" s="8" t="s">
-        <x:v>135</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="C6" s="8" t="s">
-        <x:v>0</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
       <x:c r="A7" s="8" t="s">
-        <x:v>55</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="B7" s="8" t="s">
-        <x:v>135</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="C7" s="8" t="s">
-        <x:v>180</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
       <x:c r="A8" s="8" t="s">
-        <x:v>74</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B8" s="8" t="s">
-        <x:v>135</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="C8" s="8" t="s">
-        <x:v>105</x:v>
+        <x:v>178</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
       <x:c r="A9" s="8" t="s">
-        <x:v>175</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="B9" s="8" t="s">
-        <x:v>135</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="C9" s="8" t="s">
-        <x:v>191</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
       <x:c r="A10" s="8" t="s">
-        <x:v>141</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="B10" s="8" t="s">
-        <x:v>135</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="C10" s="8" t="s">
-        <x:v>98</x:v>
+        <x:v>176</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
       <x:c r="A11" s="8" t="s">
-        <x:v>130</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="B11" s="8" t="s">
-        <x:v>135</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="C11" s="8" t="s">
-        <x:v>52</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3">
       <x:c r="A12" s="8" t="s">
-        <x:v>118</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B12" s="8" t="s">
-        <x:v>135</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="C12" s="8" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3" s="6" customFormat="1">
       <x:c r="A13" s="6" t="s">
-        <x:v>58</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B13" s="6" t="s">
-        <x:v>135</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="C13" s="6" t="s">
-        <x:v>53</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:3">
       <x:c r="A14" s="8" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="B14" s="8" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="C14" s="8" t="s">
         <x:v>65</x:v>
-      </x:c>
-      <x:c r="B14" s="8" t="s">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="C14" s="8" t="s">
-        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:3">
       <x:c r="A15" s="8" t="s">
-        <x:v>87</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="B15" s="8" t="s">
-        <x:v>135</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="C15" s="8" t="s">
-        <x:v>4</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:3">
       <x:c r="A16" s="8" t="s">
-        <x:v>78</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B16" s="8" t="s">
-        <x:v>135</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="C16" s="8" t="s">
-        <x:v>178</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:3">
       <x:c r="A17" s="8" t="s">
-        <x:v>172</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B17" s="8" t="s">
-        <x:v>135</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="C17" s="8" t="s">
-        <x:v>181</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:3">
       <x:c r="A18" s="8" t="s">
-        <x:v>148</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B18" s="8" t="s">
-        <x:v>135</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="C18" s="8" t="s">
-        <x:v>93</x:v>
+        <x:v>160</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:3">
       <x:c r="A19" s="8" t="s">
-        <x:v>112</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="B19" s="8" t="s">
-        <x:v>135</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="C19" s="8" t="s">
-        <x:v>46</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:3">
       <x:c r="A20" s="8" t="s">
-        <x:v>116</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B20" s="8" t="s">
-        <x:v>135</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="C20" s="8" t="s">
-        <x:v>2</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:3">
       <x:c r="A21" s="8" t="s">
-        <x:v>75</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="B21" s="8" t="s">
-        <x:v>135</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="C21" s="8" t="s">
-        <x:v>42</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:3">
       <x:c r="A22" s="8" t="s">
-        <x:v>61</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="B22" s="8" t="s">
-        <x:v>140</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="C22" s="5" t="s">
-        <x:v>187</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:3">
       <x:c r="A23" s="4" t="s">
-        <x:v>173</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="B23" s="4" t="s">
-        <x:v>140</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="C23" s="4" t="s">
-        <x:v>184</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:3">
       <x:c r="A24" s="4" t="s">
-        <x:v>170</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B24" s="4" t="s">
-        <x:v>140</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="C24" s="4" t="s">
-        <x:v>192</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:3">
       <x:c r="A25" s="4" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="B25" s="4" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="C25" s="4" t="s">
         <x:v>64</x:v>
-      </x:c>
-      <x:c r="B25" s="4" t="s">
-        <x:v>140</x:v>
-      </x:c>
-      <x:c r="C25" s="4" t="s">
-        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:3">
       <x:c r="A26" s="4" t="s">
-        <x:v>62</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B26" s="4" t="s">
-        <x:v>140</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="C26" s="4" t="s">
-        <x:v>185</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:3">
       <x:c r="A27" s="4" t="s">
-        <x:v>63</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B27" s="4" t="s">
-        <x:v>140</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="C27" s="4" t="s">
-        <x:v>177</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:3">
       <x:c r="A28" s="4" t="s">
-        <x:v>162</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B28" s="4" t="s">
-        <x:v>140</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="C28" s="4" t="s">
-        <x:v>176</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:3">
       <x:c r="A29" s="4" t="s">
-        <x:v>77</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B29" s="4" t="s">
-        <x:v>140</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="C29" s="4" t="s">
-        <x:v>45</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:3">
       <x:c r="A30" s="3" t="s">
-        <x:v>79</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B30" s="3" t="s">
-        <x:v>140</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="C30" s="3" t="s">
-        <x:v>48</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:3">
       <x:c r="A31" s="3" t="s">
-        <x:v>35</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="B31" s="3" t="s">
-        <x:v>140</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="C31" s="3" t="s">
-        <x:v>186</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1927,82 +1991,82 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="9" t="s">
-        <x:v>143</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B1" s="9" t="s">
-        <x:v>111</x:v>
+        <x:v>151</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
       <x:c r="A2" s="8" t="s">
-        <x:v>169</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="B2" s="8" t="s">
-        <x:v>147</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2">
       <x:c r="A3" s="8" t="s">
-        <x:v>140</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="B3" s="8" t="s">
-        <x:v>145</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2">
       <x:c r="A4" s="8" t="s">
-        <x:v>174</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B4" s="8" t="s">
-        <x:v>189</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2">
       <x:c r="A5" s="8" t="s">
-        <x:v>73</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B5" s="8" t="s">
-        <x:v>44</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2">
       <x:c r="A6" s="8" t="s">
-        <x:v>139</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B6" s="8" t="s">
-        <x:v>182</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2">
       <x:c r="A7" s="8" t="s">
-        <x:v>163</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B7" s="8" t="s">
-        <x:v>190</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2">
       <x:c r="A8" s="8" t="s">
-        <x:v>56</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="B8" s="8" t="s">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2">
       <x:c r="A9" s="8" t="s">
-        <x:v>54</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B9" s="8" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2">
       <x:c r="A10" s="8" t="s">
-        <x:v>76</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B10" s="8" t="s">
-        <x:v>90</x:v>
+        <x:v>171</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2016,8 +2080,8 @@
   <x:sheetPr codeName="Sheet11"/>
   <x:dimension ref="A1:C56"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="C46" activeCellId="0" sqref="C46:C46"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="I13" activeCellId="0" sqref="I13:I13"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
@@ -2029,230 +2093,230 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="9" t="s">
-        <x:v>114</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B1" s="9" t="s">
-        <x:v>137</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C1" s="9" t="s">
-        <x:v>120</x:v>
+        <x:v>144</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
-      <x:c r="A2" s="8" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="B2" s="8" t="s">
-        <x:v>54</x:v>
+      <x:c r="A2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="B2" t="s">
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>159</x:v>
+        <x:v>180</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C3" s="2" t="s">
-        <x:v>100</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="2" t="s">
-        <x:v>166</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C4" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
       <x:c r="A5" s="2" t="s">
-        <x:v>167</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3" s="1" customFormat="1">
-      <x:c r="A6" s="1" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="B6" s="1" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="C6" s="1" t="s">
-        <x:v>97</x:v>
+      <x:c r="A6" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="B6" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="C6" t="s">
+        <x:v>175</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3" s="1" customFormat="1">
-      <x:c r="A7" s="1" t="s">
-        <x:v>144</x:v>
-      </x:c>
-      <x:c r="B7" s="1" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="C7" s="1" t="s">
-        <x:v>26</x:v>
+      <x:c r="A7" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B7" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="C7" t="s">
+        <x:v>179</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3" s="1" customFormat="1">
-      <x:c r="A8" s="1" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="B8" s="1" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="C8" s="1" t="s">
-        <x:v>22</x:v>
+      <x:c r="A8" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="B8" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="C8" t="s">
+        <x:v>159</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
       <x:c r="A9" s="2" t="s">
-        <x:v>124</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
       <x:c r="A10" s="2" t="s">
-        <x:v>171</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
       <x:c r="A11" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3">
       <x:c r="A12" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>173</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3">
       <x:c r="A13" s="2" t="s">
-        <x:v>123</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:3">
       <x:c r="A14" s="2" t="s">
-        <x:v>86</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:3">
       <x:c r="A15" s="2" t="s">
-        <x:v>132</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>169</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:3">
       <x:c r="A16" s="2" t="s">
-        <x:v>83</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:3">
       <x:c r="A17" s="2" t="s">
-        <x:v>188</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C17" s="2" t="s">
-        <x:v>110</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:3">
       <x:c r="A18" s="2" t="s">
-        <x:v>125</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C18" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>165</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:3">
       <x:c r="A19" s="2" t="s">
-        <x:v>131</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C19" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:3">
       <x:c r="A20" s="2" t="s">
-        <x:v>128</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C20" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>170</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:3">
       <x:c r="A21" s="2" t="s">
-        <x:v>168</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
-        <x:v>139</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C21" s="2" t="s">
         <x:v>6</x:v>
@@ -2260,366 +2324,228 @@
     </x:row>
     <x:row r="22" spans="1:3">
       <x:c r="A22" s="2" t="s">
-        <x:v>164</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
-        <x:v>139</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C22" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>161</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:3">
       <x:c r="A23" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
-        <x:v>139</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C23" s="2" t="s">
-        <x:v>91</x:v>
+        <x:v>167</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:3">
       <x:c r="A24" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
-        <x:v>139</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C24" s="2" t="s">
-        <x:v>107</x:v>
+        <x:v>177</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:3">
       <x:c r="A25" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
-        <x:v>174</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C25" s="2" t="s">
-        <x:v>102</x:v>
+        <x:v>168</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:3">
       <x:c r="A26" s="2" t="s">
-        <x:v>129</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
-        <x:v>174</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C26" s="2" t="s">
-        <x:v>152</x:v>
+        <x:v>164</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:3">
       <x:c r="A27" s="2" t="s">
-        <x:v>138</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
-        <x:v>174</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C27" s="2" t="s">
-        <x:v>154</x:v>
+        <x:v>184</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:3">
       <x:c r="A28" s="2" t="s">
-        <x:v>151</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
-        <x:v>174</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C28" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:3">
       <x:c r="A29" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
-        <x:v>174</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C29" s="2" t="s">
-        <x:v>103</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:3">
       <x:c r="A30" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B30" s="2" t="s">
-        <x:v>174</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C30" s="2" t="s">
-        <x:v>96</x:v>
+        <x:v>178</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:3">
       <x:c r="A31" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
         <x:v>174</x:v>
       </x:c>
-      <x:c r="C31" s="2" t="s">
-        <x:v>89</x:v>
-      </x:c>
     </x:row>
     <x:row r="32" spans="1:3">
-      <x:c r="A32" s="2" t="s">
-        <x:v>142</x:v>
-      </x:c>
-      <x:c r="B32" s="2" t="s">
-        <x:v>174</x:v>
-      </x:c>
-      <x:c r="C32" s="2" t="s">
-        <x:v>16</x:v>
-      </x:c>
+      <x:c r="A32"/>
+      <x:c r="B32"/>
+      <x:c r="C32" s="2"/>
     </x:row>
     <x:row r="33" spans="1:3">
-      <x:c r="A33" s="2" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="B33" s="2" t="s">
-        <x:v>174</x:v>
-      </x:c>
-      <x:c r="C33" s="2" t="s">
-        <x:v>157</x:v>
-      </x:c>
+      <x:c r="A33" s="2"/>
+      <x:c r="B33" s="2"/>
+      <x:c r="C33" s="2"/>
     </x:row>
     <x:row r="34" spans="1:3">
-      <x:c r="A34" s="2" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="B34" s="2" t="s">
-        <x:v>174</x:v>
-      </x:c>
-      <x:c r="C34" s="2" t="s">
-        <x:v>161</x:v>
-      </x:c>
+      <x:c r="A34" s="2"/>
+      <x:c r="B34" s="2"/>
+      <x:c r="C34" s="2"/>
     </x:row>
     <x:row r="35" spans="1:3">
-      <x:c r="A35" s="2" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="B35" s="2" t="s">
-        <x:v>174</x:v>
-      </x:c>
-      <x:c r="C35" s="2" t="s">
-        <x:v>109</x:v>
-      </x:c>
+      <x:c r="A35" s="2"/>
+      <x:c r="B35" s="2"/>
+      <x:c r="C35" s="2"/>
     </x:row>
     <x:row r="36" spans="1:3">
-      <x:c r="A36" s="2" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="B36" s="2" t="s">
-        <x:v>174</x:v>
-      </x:c>
-      <x:c r="C36" s="2" t="s">
-        <x:v>160</x:v>
-      </x:c>
+      <x:c r="A36"/>
+      <x:c r="B36"/>
+      <x:c r="C36"/>
     </x:row>
     <x:row r="37" spans="1:3">
-      <x:c r="A37" s="2" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="B37" s="2" t="s">
-        <x:v>174</x:v>
-      </x:c>
-      <x:c r="C37" s="2" t="s">
-        <x:v>155</x:v>
-      </x:c>
+      <x:c r="A37"/>
+      <x:c r="B37"/>
+      <x:c r="C37"/>
     </x:row>
     <x:row r="38" spans="1:3">
-      <x:c r="A38" s="2" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="B38" s="2" t="s">
-        <x:v>174</x:v>
-      </x:c>
-      <x:c r="C38" s="2" t="s">
-        <x:v>106</x:v>
-      </x:c>
+      <x:c r="A38"/>
+      <x:c r="B38"/>
+      <x:c r="C38"/>
     </x:row>
     <x:row r="39" spans="1:3">
-      <x:c r="A39" s="2" t="s">
-        <x:v>149</x:v>
-      </x:c>
-      <x:c r="B39" s="2" t="s">
-        <x:v>174</x:v>
-      </x:c>
-      <x:c r="C39" s="2" t="s">
-        <x:v>12</x:v>
-      </x:c>
+      <x:c r="A39" s="2"/>
+      <x:c r="B39" s="2"/>
+      <x:c r="C39" s="2"/>
     </x:row>
     <x:row r="40" spans="1:3">
-      <x:c r="A40" s="2" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="B40" s="2" t="s">
-        <x:v>174</x:v>
-      </x:c>
-      <x:c r="C40" s="2" t="s">
-        <x:v>153</x:v>
-      </x:c>
+      <x:c r="A40" s="2"/>
+      <x:c r="B40" s="2"/>
+      <x:c r="C40" s="2"/>
     </x:row>
     <x:row r="41" spans="1:3">
-      <x:c r="A41" s="2" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="B41" s="2" t="s">
-        <x:v>174</x:v>
-      </x:c>
-      <x:c r="C41" s="2" t="s">
-        <x:v>95</x:v>
-      </x:c>
+      <x:c r="A41" s="2"/>
+      <x:c r="B41" s="2"/>
+      <x:c r="C41" s="2"/>
     </x:row>
     <x:row r="42" spans="1:3">
-      <x:c r="A42" s="2" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="B42" s="2" t="s">
-        <x:v>174</x:v>
-      </x:c>
-      <x:c r="C42" s="2" t="s">
-        <x:v>156</x:v>
-      </x:c>
+      <x:c r="A42" s="2"/>
+      <x:c r="B42" s="2"/>
+      <x:c r="C42" s="2"/>
     </x:row>
     <x:row r="43" spans="1:3">
-      <x:c r="A43" s="2" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="B43" s="2" t="s">
-        <x:v>174</x:v>
-      </x:c>
-      <x:c r="C43" s="2" t="s">
-        <x:v>92</x:v>
-      </x:c>
+      <x:c r="A43" s="2"/>
+      <x:c r="B43" s="2"/>
+      <x:c r="C43" s="2"/>
     </x:row>
     <x:row r="44" spans="1:3">
-      <x:c r="A44" s="2" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="B44" s="2" t="s">
-        <x:v>174</x:v>
-      </x:c>
-      <x:c r="C44" s="2" t="s">
-        <x:v>104</x:v>
-      </x:c>
+      <x:c r="A44" s="2"/>
+      <x:c r="B44" s="2"/>
+      <x:c r="C44" s="2"/>
     </x:row>
     <x:row r="45" spans="1:3">
-      <x:c r="A45" s="2" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="B45" s="2" t="s">
-        <x:v>174</x:v>
-      </x:c>
-      <x:c r="C45" s="2" t="s">
-        <x:v>94</x:v>
-      </x:c>
+      <x:c r="A45" s="2"/>
+      <x:c r="B45" s="2"/>
+      <x:c r="C45" s="2"/>
     </x:row>
     <x:row r="46" spans="1:3">
-      <x:c r="A46" s="2" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="B46" s="2" t="s">
-        <x:v>174</x:v>
-      </x:c>
-      <x:c r="C46" s="2" t="s">
-        <x:v>40</x:v>
-      </x:c>
+      <x:c r="A46" s="2"/>
+      <x:c r="B46" s="2"/>
+      <x:c r="C46" s="2"/>
     </x:row>
     <x:row r="47" spans="1:3">
-      <x:c r="A47" s="2" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="B47" s="2" t="s">
-        <x:v>174</x:v>
-      </x:c>
-      <x:c r="C47" s="2" t="s">
-        <x:v>101</x:v>
-      </x:c>
+      <x:c r="A47" s="2"/>
+      <x:c r="B47" s="2"/>
+      <x:c r="C47" s="2"/>
     </x:row>
     <x:row r="48" spans="1:3">
-      <x:c r="A48" s="2" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="B48" s="2" t="s">
-        <x:v>174</x:v>
-      </x:c>
-      <x:c r="C48" s="2" t="s">
-        <x:v>108</x:v>
-      </x:c>
+      <x:c r="A48" s="2"/>
+      <x:c r="B48" s="2"/>
+      <x:c r="C48" s="2"/>
     </x:row>
     <x:row r="49" spans="1:3">
-      <x:c r="A49" s="2" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="B49" s="2" t="s">
-        <x:v>174</x:v>
-      </x:c>
-      <x:c r="C49" s="2" t="s">
-        <x:v>88</x:v>
-      </x:c>
+      <x:c r="A49" s="2"/>
+      <x:c r="B49" s="2"/>
+      <x:c r="C49" s="2"/>
     </x:row>
     <x:row r="50" spans="1:3">
-      <x:c r="A50" s="2" t="s">
-        <x:v>146</x:v>
-      </x:c>
-      <x:c r="B50" s="2" t="s">
-        <x:v>174</x:v>
-      </x:c>
-      <x:c r="C50" s="2" t="s">
-        <x:v>15</x:v>
-      </x:c>
+      <x:c r="A50" s="2"/>
+      <x:c r="B50" s="2"/>
+      <x:c r="C50" s="2"/>
     </x:row>
     <x:row r="51" spans="1:3">
-      <x:c r="A51" s="2" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="B51" s="2" t="s">
-        <x:v>174</x:v>
-      </x:c>
-      <x:c r="C51" s="2" t="s">
-        <x:v>158</x:v>
-      </x:c>
+      <x:c r="A51" s="2"/>
+      <x:c r="B51" s="2"/>
+      <x:c r="C51" s="2"/>
     </x:row>
     <x:row r="52" spans="1:3">
-      <x:c r="A52" s="2" t="s">
-        <x:v>150</x:v>
-      </x:c>
-      <x:c r="B52" s="2" t="s">
-        <x:v>174</x:v>
-      </x:c>
-      <x:c r="C52" s="2" t="s">
-        <x:v>20</x:v>
-      </x:c>
+      <x:c r="A52" s="2"/>
+      <x:c r="B52" s="2"/>
+      <x:c r="C52" s="2"/>
     </x:row>
     <x:row r="53" spans="1:3">
-      <x:c r="A53" s="2" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="B53" s="2" t="s">
-        <x:v>174</x:v>
-      </x:c>
-      <x:c r="C53" s="2" t="s">
-        <x:v>105</x:v>
-      </x:c>
+      <x:c r="A53" s="2"/>
+      <x:c r="B53" s="2"/>
+      <x:c r="C53" s="2"/>
     </x:row>
     <x:row r="54" spans="1:3">
-      <x:c r="A54" s="2" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="B54" s="2" t="s">
-        <x:v>174</x:v>
-      </x:c>
-      <x:c r="C54" s="2" t="s">
-        <x:v>99</x:v>
-      </x:c>
+      <x:c r="A54" s="2"/>
+      <x:c r="B54" s="2"/>
+      <x:c r="C54" s="2"/>
     </x:row>
     <x:row r="55" spans="1:3">
       <x:c r="A55" s="1"/>
@@ -2632,8 +2558,8 @@
       <x:c r="C56" s="1"/>
     </x:row>
   </x:sheetData>
-  <x:sortState columnSort="0" caseSensitive="0" ref="A2:C55">
-    <x:sortCondition descending="0" sortBy="value" ref="B2:B55"/>
+  <x:sortState columnSort="0" caseSensitive="0" ref="A1:C54">
+    <x:sortCondition descending="0" sortBy="value" ref="B1:B54"/>
   </x:sortState>
   <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
@@ -2642,62 +2568,322 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr codeName="Sheet7"/>
-  <x:dimension ref="A1:B1"/>
+  <x:sheetPr codeName="Sheet2"/>
+  <x:dimension ref="A1:C14"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="A1" activeCellId="0" sqref="A1:B1"/>
+      <x:selection activeCell="A2" activeCellId="0" sqref="A2:C14"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
   <x:cols>
-    <x:col min="1" max="1" width="22.625" style="8" customWidth="1"/>
-    <x:col min="2" max="2" width="25.875" style="8" customWidth="1"/>
+    <x:col min="1" max="1" width="36.5" customWidth="1"/>
+    <x:col min="2" max="2" width="20.5" customWidth="1"/>
+    <x:col min="3" max="3" width="50.375" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:2">
+    <x:row r="1" spans="1:3">
       <x:c r="A1" s="9" t="s">
-        <x:v>143</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B1" s="9" t="s">
-        <x:v>111</x:v>
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C1" s="9" t="s">
+        <x:v>144</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:3">
+      <x:c r="A2" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="B2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="C2" t="s">
+        <x:v>187</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:3">
+      <x:c r="A3" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="B3" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="C3" t="s">
+        <x:v>192</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:3">
+      <x:c r="A4" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="B4" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="C4" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:3">
+      <x:c r="A5" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="B5" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="C5" t="s">
+        <x:v>191</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:3">
+      <x:c r="A6" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="B6" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="C6" t="s">
+        <x:v>189</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:3">
+      <x:c r="A7" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B7" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="C7" t="s">
+        <x:v>190</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:3">
+      <x:c r="A8" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="B8" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="C8" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:3">
+      <x:c r="A9" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="B9" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="C9" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:3">
+      <x:c r="A10" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="B10" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="C10" t="s">
+        <x:v>188</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:3">
+      <x:c r="A11" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="B11" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="C11" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:3">
+      <x:c r="A12" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B12" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="C12" t="s">
+        <x:v>186</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:3">
+      <x:c r="A13" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B13" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="C13" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:3">
+      <x:c r="A14" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="B14" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="C14" t="s">
+        <x:v>187</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr codeName="Sheet12"/>
-  <x:dimension ref="A1:C1"/>
+  <x:sheetPr codeName="Sheet3"/>
+  <x:dimension ref="A1:C11"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="F7" activeCellId="0" sqref="F7:F7"/>
+      <x:selection activeCell="J12" activeCellId="0" sqref="J12:J12"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
   <x:cols>
-    <x:col min="1" max="1" width="20.125" style="8" customWidth="1"/>
-    <x:col min="2" max="2" width="22.875" style="8" customWidth="1"/>
-    <x:col min="3" max="3" width="18" style="8" customWidth="1"/>
+    <x:col min="1" max="1" width="22.625" customWidth="1"/>
+    <x:col min="2" max="2" width="20.25" customWidth="1"/>
+    <x:col min="3" max="3" width="41.125" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="9" t="s">
-        <x:v>114</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B1" s="9" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C1" s="9" t="s">
+        <x:v>144</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:3">
+      <x:c r="A2" t="s">
         <x:v>137</x:v>
       </x:c>
-      <x:c r="C1" s="9" t="s">
+      <x:c r="B2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="C2" t="s">
+        <x:v>38</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:3">
+      <x:c r="A3" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="B3" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="C3" t="s">
+        <x:v>166</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:3">
+      <x:c r="A4" t="s">
         <x:v>120</x:v>
       </x:c>
+      <x:c r="B4" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="C4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:3">
+      <x:c r="A5" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="B5" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="C5" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:3">
+      <x:c r="A6" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="B6" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="C6" t="s">
+        <x:v>163</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:3">
+      <x:c r="A7" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B7" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="C7" t="s">
+        <x:v>185</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:3">
+      <x:c r="A8" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="B8" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="C8" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:3">
+      <x:c r="A9" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="B9" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="C9" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:3">
+      <x:c r="A10" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="B10" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="C10" t="s">
+        <x:v>162</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:3">
+      <x:c r="A11" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="B11" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="C11" t="s">
+        <x:v>172</x:v>
+      </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
+  <x:sortState columnSort="0" caseSensitive="0" ref="A2:C24">
+    <x:sortCondition descending="0" sortBy="value" ref="B2:B24"/>
+  </x:sortState>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
--- a/4. WindowAPI/Ninja_Baseball_Batman_Project/AniData/AniData.xlsx
+++ b/4. WindowAPI/Ninja_Baseball_Batman_Project/AniData/AniData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="17565" windowHeight="6975" tabRatio="500" activeTab="5"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="13965" windowHeight="13590" tabRatio="500" activeTab="8"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="TitleScene_Sprites" sheetId="1" r:id="rId4"/>
@@ -30,11 +30,365 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="196">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="214">
+  <x:si>
+    <x:t>AniData/UI/Player_hpbar_full.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Player_picture_hurt.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Player_hpbar_empty.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Player_picture_normal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Player_picture_frame</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pointnum_one</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Player_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UI_restword</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/1P_sign.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Player_picture.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/1P_select.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Baseball/Baseball_wakeup.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Baseball/Baseball_explode.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Jose_select.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_seven.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Straw_select.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Roger_tag.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/UI/titlescreen.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Straw_tag.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/titlescreen.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Ryno_select.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_three.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/Monster/Baseball.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/UI/PlayerSelect.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_catch.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_splash.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/UI_restword.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Baseball/Baseball_ReadyForFight.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1P_sign</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_dynamite_ball.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Baseball/Baseball_hit_1.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_catchattack.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_underattack.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_gameoversign.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Baseball/Baseball_dead.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Baseball/Baseball_walk.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Baseball/Baseball_hit_4.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Background1/Background1_stage1.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Baseball/Baseball_shock.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Baseball/Baseball_punch.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Baseball/Baseball_hit_2.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Baseball/Baseball_hit_3.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_bearhandmode.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_thunderattack.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Baseball/Baseball_Kick.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_homerun.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_damaged1.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Background/Boss_Transition.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_deadani.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_attack2.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_damaged.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_idle_stay.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_dynamite.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_attack1.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_tryspin.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stage_4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Drafted</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bat_hit</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bat_hat</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Object</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stage_5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Explode</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_one</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_two</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_attack.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Bat/Bat_idle.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_jump.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_knee.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/Player/Ryno_dynamite_ball.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_walk.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_fly.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Background/stage_6_Boss.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_run.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_throw.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_burn.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Select_background.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_slide.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Background/Stage_1_2_3.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_win.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_spin.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Bat/Bat_walk.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_idle.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/playerselect_deco.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/Background/Background1.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_dead.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_born.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Player_hpbar_full</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Player_picture_hurt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Player_hpbar_empty</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stage_1_2_3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_idle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bat_idle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_fly</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_run</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bat_walk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_attack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_splash</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_born</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_nine</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Roger_selected.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Bat/Bat_hat.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Bat/Bat_hit.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Straw_selected.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Jose_selected.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/Background/Background.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Ryno_selected.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Background/stage_4.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/Monster/WindyPlane.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Background/stage_5.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_dynamite_ball</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_thunderattack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Player_select_deco</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Background1_stage1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_bearhandmode</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_underattack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_gameoversign</x:t>
+  </x:si>
   <x:si>
     <x:t>Ryno_catchattack</x:t>
   </x:si>
   <x:si>
+    <x:t>Image/UI/Object.bmp</x:t>
+  </x:si>
+  <x:si>
     <x:t>Select_background</x:t>
   </x:si>
   <x:si>
@@ -44,232 +398,193 @@
     <x:t>Sprite Data Name</x:t>
   </x:si>
   <x:si>
-    <x:t>Image/UI/Object.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_underattack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_bearhandmode</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_gameoversign</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Player_select_deco</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Background1_stage1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_dynamite_ball</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_thunderattack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_underattack.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_gameoversign.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Baseball/Baseball_Kick.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_bearhandmode.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_dynamite_ball.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_thunderattack.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_catchattack.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/playerselect_deco.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_three.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Jose_select.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/titlescreen.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Roger_tag.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/UI/titlescreen.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Straw_select.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Straw_tag.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Ryno_select.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/Monster/Baseball.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/UI/PlayerSelect.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_seven.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/1P_select.txt</x:t>
+    <x:t>Image/Monster/Bat.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_nine.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_one.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/Player/Ryno.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_six.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Select.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/Monster/Cards.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Player.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/employed.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Drafted.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Ryno_tag.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_five.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_two.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_readyforfight</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Jose_tag.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_zero.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_four.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bat</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HUD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_win</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_spin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Background</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_three</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_throw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jose_select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_eight.txt</x:t>
   </x:si>
   <x:si>
     <x:t>AniData/UI/Roger_select.txt</x:t>
   </x:si>
   <x:si>
-    <x:t>AniData/UI/Num_eight.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/Monster/WindyPlane.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Jose_selected.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Roger_selected.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/Background/Background.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Background/stage_4.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Straw_selected.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Bat/Bat_hat.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Ryno_selected.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Bat/Bat_hit.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Background/stage_5.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Baseball/Baseball_hit_4.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Baseball/Baseball_wakeup.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Baseball/Baseball_explode.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_homerun.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_attack1.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_damaged1.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Background/Boss_Transition.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_tryspin.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_deadani.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_attack2.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_damaged.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_idle_stay.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_dynamite.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Baseball/Baseball_ReadyForFight.txt</x:t>
+    <x:t>Cards</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Player</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_six</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_selected</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_hit_3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Roger_selected</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_deadani</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_punch</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_hit_4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_shock</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_hit_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_hit_2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Straw_selected</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_kick</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_attack2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_idle_stay</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound Data Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_tryspin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_dead</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_damaged</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_homerun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound Address</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_dynamite</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_attack1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Title_Screen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Animation Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Boss_transition</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Straw_select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Title_screen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Data Address</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Roger_select</x:t>
   </x:si>
   <x:si>
     <x:t>Ryno_damaged1</x:t>
   </x:si>
   <x:si>
-    <x:t>Ryno_homerun</x:t>
-  </x:si>
-  <x:si>
     <x:t>Jose_selected</x:t>
   </x:si>
   <x:si>
-    <x:t>Data Address</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_dynamite</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound Address</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_attack1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Boss_transition</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Background</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_spin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_win</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_three</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_throw</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jose_select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_slide.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_walk.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Title_Screen</x:t>
-  </x:si>
-  <x:si>
     <x:t>Baseball_wakeup</x:t>
   </x:si>
   <x:si>
-    <x:t>Title_screen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Straw_select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Roger_select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Animation Name</x:t>
+    <x:t>Origin Sprite</x:t>
   </x:si>
   <x:si>
     <x:t>Stage_6_boss</x:t>
@@ -278,346 +593,85 @@
     <x:t>Sprite Address</x:t>
   </x:si>
   <x:si>
-    <x:t>Origin Sprite</x:t>
-  </x:si>
-  <x:si>
     <x:t>Player_Select</x:t>
   </x:si>
   <x:si>
     <x:t>Baseball_walk</x:t>
   </x:si>
   <x:si>
-    <x:t>Baseball_shock</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound Data Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_dead</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_hit_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_attack2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_tryspin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_hit_2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_damaged</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_selected</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_idle_stay</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_hit_3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_hit_4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_deadani</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_kick</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Roger_selected</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Straw_selected</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_punch</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cards</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_six</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Player</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bat_hat</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stage_4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bat_hit</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Drafted</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stage_5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Object</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Explode</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_two</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_one</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_born.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_attack.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Bat/Bat_idle.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_jump.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_knee.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_win.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_fly.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/Player/Ryno_dynamite_ball.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Background/stage_6_Boss.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_spin.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_run.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Background/Stage_1_2_3.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Bat/Bat_walk.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_idle.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_throw.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/Background/Background1.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_burn.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_dead.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Select_background.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_catch.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_splash.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Baseball/Baseball_dead.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Background1/Background1_stage1.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Baseball/Baseball_hit_1.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Baseball/Baseball_walk.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Baseball/Baseball_shock.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Baseball/Baseball_punch.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Baseball/Baseball_hit_2.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Baseball/Baseball_hit_3.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Player.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/Monster/Bat.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Drafted.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_nine.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Select.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Jose_tag.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/employed.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Ryno_tag.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_zero.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_five.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_six.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_four.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_two.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_one.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_readyforfight</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/Monster/Cards.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/Player/Ryno.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bat</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HUD</x:t>
+    <x:t>1P_select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_four</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_five</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_knee</x:t>
   </x:si>
   <x:si>
     <x:t>Employed</x:t>
   </x:si>
   <x:si>
-    <x:t>1P_select</x:t>
-  </x:si>
-  <x:si>
     <x:t>Ryno_select</x:t>
   </x:si>
   <x:si>
     <x:t>Num_zero</x:t>
   </x:si>
   <x:si>
-    <x:t>Num_four</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_five</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_knee</x:t>
+    <x:t>Ryno_walk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Background1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_dead</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_slide</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_tag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_catch</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_seven</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_eight</x:t>
   </x:si>
   <x:si>
     <x:t>Jose_tag</x:t>
   </x:si>
   <x:si>
-    <x:t>Baseball</x:t>
+    <x:t>Roger_tag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_jump</x:t>
   </x:si>
   <x:si>
     <x:t>WindyPlane</x:t>
   </x:si>
   <x:si>
-    <x:t>Num_seven</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Background1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_walk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_slide</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Roger_tag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_jump</x:t>
+    <x:t>Straw_tag</x:t>
   </x:si>
   <x:si>
     <x:t>Ryno_burn</x:t>
   </x:si>
   <x:si>
-    <x:t>Ryno_dead</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Straw_tag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_eight</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_tag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_catch</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stage_1_2_3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_fly</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_born</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_attack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_run</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_idle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bat_walk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_splash</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_nine</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bat_idle</x:t>
+    <x:t>AniData/UI/Pointnum_one.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Player_name.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Player_picture_normal.txt</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1398,10 +1452,10 @@
   <x:sheetData>
     <x:row r="1" spans="1:7">
       <x:c r="A1" s="10" t="s">
-        <x:v>3</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="B1" s="10" t="s">
-        <x:v>81</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="C1" s="10"/>
       <x:c r="D1" s="10"/>
@@ -1411,10 +1465,10 @@
     </x:row>
     <x:row r="2" spans="1:2">
       <x:c r="A2" s="9" t="s">
-        <x:v>74</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="B2" s="9" t="s">
-        <x:v>24</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1440,10 +1494,10 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="10" t="s">
-        <x:v>3</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="B1" s="10" t="s">
-        <x:v>81</x:v>
+        <x:v>186</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1470,13 +1524,13 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="10" t="s">
-        <x:v>79</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="B1" s="10" t="s">
-        <x:v>82</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="C1" s="10" t="s">
-        <x:v>61</x:v>
+        <x:v>179</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1523,24 +1577,24 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="10" t="s">
-        <x:v>79</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="B1" s="10" t="s">
-        <x:v>82</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="C1" s="10" t="s">
-        <x:v>61</x:v>
+        <x:v>179</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="9" t="s">
-        <x:v>76</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="B2" s="9" t="s">
-        <x:v>74</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="C2" s="9" t="s">
-        <x:v>22</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1566,10 +1620,10 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="10" t="s">
-        <x:v>86</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="B1" s="10" t="s">
-        <x:v>63</x:v>
+        <x:v>171</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1595,26 +1649,26 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="10" t="s">
-        <x:v>3</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="B1" s="10" t="s">
-        <x:v>81</x:v>
+        <x:v>186</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
       <x:c r="A2" s="9" t="s">
-        <x:v>83</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="B2" s="9" t="s">
-        <x:v>29</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2">
       <x:c r="A3" s="9" t="s">
-        <x:v>163</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B3" s="9" t="s">
-        <x:v>2</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1641,343 +1695,343 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="10" t="s">
-        <x:v>79</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="B1" s="10" t="s">
-        <x:v>82</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="C1" s="10" t="s">
-        <x:v>61</x:v>
+        <x:v>179</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="9" t="s">
-        <x:v>165</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="B2" s="9" t="s">
-        <x:v>83</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="C2" s="9" t="s">
-        <x:v>31</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="9" t="s">
-        <x:v>109</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B3" s="9" t="s">
-        <x:v>83</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="C3" s="9" t="s">
-        <x:v>147</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="9" t="s">
-        <x:v>164</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="B4" s="9" t="s">
-        <x:v>83</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="C4" s="9" t="s">
-        <x:v>151</x:v>
+        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
       <x:c r="A5" s="9" t="s">
-        <x:v>71</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B5" s="9" t="s">
-        <x:v>83</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="C5" s="9" t="s">
-        <x:v>21</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
       <x:c r="A6" s="9" t="s">
-        <x:v>60</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="B6" s="9" t="s">
-        <x:v>83</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="C6" s="9" t="s">
-        <x:v>35</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
       <x:c r="A7" s="9" t="s">
-        <x:v>171</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="B7" s="9" t="s">
-        <x:v>83</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="C7" s="9" t="s">
-        <x:v>150</x:v>
+        <x:v>136</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
       <x:c r="A8" s="9" t="s">
-        <x:v>176</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="B8" s="9" t="s">
-        <x:v>83</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="C8" s="9" t="s">
-        <x:v>73</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
       <x:c r="A9" s="9" t="s">
-        <x:v>104</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="B9" s="9" t="s">
-        <x:v>83</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="C9" s="9" t="s">
-        <x:v>145</x:v>
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
       <x:c r="A10" s="9" t="s">
-        <x:v>8</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="B10" s="9" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="C10" s="9" t="s">
         <x:v>83</x:v>
-      </x:c>
-      <x:c r="C10" s="9" t="s">
-        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
       <x:c r="A11" s="9" t="s">
-        <x:v>78</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="B11" s="9" t="s">
-        <x:v>83</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="C11" s="9" t="s">
-        <x:v>32</x:v>
+        <x:v>148</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3">
       <x:c r="A12" s="9" t="s">
-        <x:v>99</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="B12" s="9" t="s">
-        <x:v>83</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="C12" s="9" t="s">
-        <x:v>36</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3" s="7" customFormat="1">
       <x:c r="A13" s="7" t="s">
-        <x:v>178</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="B13" s="7" t="s">
-        <x:v>83</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="C13" s="7" t="s">
-        <x:v>23</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:3">
       <x:c r="A14" s="9" t="s">
-        <x:v>166</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="B14" s="9" t="s">
-        <x:v>83</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="C14" s="9" t="s">
-        <x:v>27</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:3">
       <x:c r="A15" s="9" t="s">
-        <x:v>93</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="B15" s="9" t="s">
-        <x:v>83</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="C15" s="9" t="s">
-        <x:v>41</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:3">
       <x:c r="A16" s="9" t="s">
-        <x:v>184</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="B16" s="9" t="s">
-        <x:v>83</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="C16" s="9" t="s">
-        <x:v>152</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:3">
       <x:c r="A17" s="9" t="s">
-        <x:v>115</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B17" s="9" t="s">
-        <x:v>83</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="C17" s="9" t="s">
-        <x:v>149</x:v>
+        <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:3">
       <x:c r="A18" s="9" t="s">
-        <x:v>1</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="B18" s="9" t="s">
-        <x:v>83</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="C18" s="9" t="s">
-        <x:v>134</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:3">
       <x:c r="A19" s="9" t="s">
-        <x:v>77</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="B19" s="9" t="s">
-        <x:v>83</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="C19" s="9" t="s">
-        <x:v>25</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:3">
       <x:c r="A20" s="9" t="s">
-        <x:v>100</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="B20" s="9" t="s">
-        <x:v>83</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="C20" s="9" t="s">
-        <x:v>39</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:3">
       <x:c r="A21" s="9" t="s">
-        <x:v>182</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B21" s="9" t="s">
-        <x:v>83</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="C21" s="9" t="s">
-        <x:v>26</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:3">
       <x:c r="A22" s="9" t="s">
-        <x:v>167</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="B22" s="9" t="s">
-        <x:v>163</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="C22" s="6" t="s">
-        <x:v>153</x:v>
+        <x:v>137</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:3">
       <x:c r="A23" s="5" t="s">
-        <x:v>114</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B23" s="5" t="s">
-        <x:v>163</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="C23" s="5" t="s">
-        <x:v>158</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:3">
       <x:c r="A24" s="5" t="s">
-        <x:v>113</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B24" s="5" t="s">
-        <x:v>163</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="C24" s="5" t="s">
-        <x:v>157</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:3">
       <x:c r="A25" s="5" t="s">
-        <x:v>69</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="B25" s="5" t="s">
-        <x:v>163</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="C25" s="5" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:3">
       <x:c r="A26" s="5" t="s">
-        <x:v>168</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B26" s="5" t="s">
-        <x:v>163</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="C26" s="5" t="s">
-        <x:v>156</x:v>
+        <x:v>138</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:3">
       <x:c r="A27" s="5" t="s">
-        <x:v>169</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="B27" s="5" t="s">
-        <x:v>163</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="C27" s="5" t="s">
-        <x:v>154</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:3">
       <x:c r="A28" s="5" t="s">
-        <x:v>103</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="B28" s="5" t="s">
-        <x:v>163</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="C28" s="5" t="s">
-        <x:v>155</x:v>
+        <x:v>126</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:3">
       <x:c r="A29" s="5" t="s">
-        <x:v>174</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="B29" s="5" t="s">
-        <x:v>163</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="C29" s="5" t="s">
-        <x:v>30</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:3">
       <x:c r="A30" s="4" t="s">
-        <x:v>183</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="B30" s="4" t="s">
-        <x:v>163</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="C30" s="4" t="s">
-        <x:v>33</x:v>
+        <x:v>147</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:3">
       <x:c r="A31" s="4" t="s">
-        <x:v>194</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B31" s="4" t="s">
-        <x:v>163</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="C31" s="4" t="s">
-        <x:v>148</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1991,8 +2045,8 @@
   <x:sheetPr codeName="Sheet6"/>
   <x:dimension ref="A1:B11"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="B11" activeCellId="0" sqref="B11:B11"/>
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="B3" activeCellId="0" sqref="B3:B3"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
@@ -2003,90 +2057,90 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="10" t="s">
-        <x:v>3</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="B1" s="10" t="s">
-        <x:v>81</x:v>
+        <x:v>186</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
       <x:c r="A2" s="9" t="s">
-        <x:v>111</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B2" s="9" t="s">
-        <x:v>4</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2">
       <x:c r="A3" s="9" t="s">
-        <x:v>163</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B3" s="9" t="s">
-        <x:v>2</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2">
       <x:c r="A4" s="9" t="s">
-        <x:v>105</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="B4" s="9" t="s">
-        <x:v>161</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2">
       <x:c r="A5" s="9" t="s">
-        <x:v>172</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="B5" s="9" t="s">
-        <x:v>28</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2">
       <x:c r="A6" s="9" t="s">
-        <x:v>162</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B6" s="9" t="s">
-        <x:v>146</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2">
       <x:c r="A7" s="9" t="s">
-        <x:v>102</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B7" s="9" t="s">
-        <x:v>160</x:v>
+        <x:v>128</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2">
       <x:c r="A8" s="9" t="s">
-        <x:v>173</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="B8" s="9" t="s">
-        <x:v>34</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2">
       <x:c r="A9" s="9" t="s">
-        <x:v>66</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="B9" s="9" t="s">
-        <x:v>37</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2">
       <x:c r="A10" s="9" t="s">
-        <x:v>175</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="B10" s="9" t="s">
-        <x:v>131</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2">
       <x:c r="A11" s="9" t="s">
-        <x:v>10</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B11" s="9" t="s">
-        <x:v>123</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2113,354 +2167,354 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="10" t="s">
-        <x:v>79</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="B1" s="10" t="s">
-        <x:v>82</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="C1" s="10" t="s">
-        <x:v>61</x:v>
+        <x:v>179</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="1" t="s">
-        <x:v>189</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B2" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C2" s="3" t="s">
-        <x:v>117</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="3" t="s">
-        <x:v>64</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="B3" s="3" t="s">
-        <x:v>105</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C3" s="3" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="3" t="s">
-        <x:v>89</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="B4" s="3" t="s">
-        <x:v>105</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C4" s="3" t="s">
-        <x:v>53</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
       <x:c r="A5" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>105</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
-        <x:v>15</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3" s="2" customFormat="1">
       <x:c r="A6" s="1" t="s">
-        <x:v>188</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C6" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3" s="2" customFormat="1">
       <x:c r="A7" s="1" t="s">
-        <x:v>180</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3" s="2" customFormat="1">
       <x:c r="A8" s="1" t="s">
-        <x:v>185</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="B8" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C8" s="1" t="s">
-        <x:v>135</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
       <x:c r="A9" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B9" s="3" t="s">
-        <x:v>105</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C9" s="3" t="s">
-        <x:v>18</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
       <x:c r="A10" s="3" t="s">
-        <x:v>92</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="B10" s="3" t="s">
-        <x:v>105</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C10" s="3" t="s">
-        <x:v>54</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
       <x:c r="A11" s="3" t="s">
-        <x:v>58</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B11" s="3" t="s">
-        <x:v>105</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C11" s="3" t="s">
-        <x:v>49</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3">
       <x:c r="A12" s="3" t="s">
-        <x:v>181</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="B12" s="3" t="s">
-        <x:v>105</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C12" s="3" t="s">
-        <x:v>133</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3">
       <x:c r="A13" s="3" t="s">
-        <x:v>97</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B13" s="3" t="s">
-        <x:v>105</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C13" s="3" t="s">
-        <x:v>52</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:3">
       <x:c r="A14" s="3" t="s">
-        <x:v>62</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="B14" s="3" t="s">
-        <x:v>105</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C14" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:3">
       <x:c r="A15" s="3" t="s">
-        <x:v>187</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B15" s="3" t="s">
-        <x:v>105</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C15" s="3" t="s">
-        <x:v>122</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:3">
       <x:c r="A16" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B16" s="3" t="s">
-        <x:v>105</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C16" s="3" t="s">
-        <x:v>13</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:3">
       <x:c r="A17" s="3" t="s">
-        <x:v>59</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="B17" s="3" t="s">
-        <x:v>105</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C17" s="3" t="s">
-        <x:v>47</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:3">
       <x:c r="A18" s="3" t="s">
-        <x:v>191</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B18" s="3" t="s">
-        <x:v>105</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C18" s="3" t="s">
-        <x:v>129</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:3">
       <x:c r="A19" s="3" t="s">
-        <x:v>94</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="B19" s="3" t="s">
-        <x:v>105</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C19" s="3" t="s">
-        <x:v>55</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:3">
       <x:c r="A20" s="3" t="s">
-        <x:v>179</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="B20" s="3" t="s">
-        <x:v>105</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C20" s="3" t="s">
-        <x:v>119</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:3">
       <x:c r="A21" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="B21" s="3" t="s">
-        <x:v>105</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C21" s="3" t="s">
-        <x:v>120</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:3">
       <x:c r="A22" s="3" t="s">
-        <x:v>190</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B22" s="3" t="s">
-        <x:v>105</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C22" s="3" t="s">
-        <x:v>126</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:3">
       <x:c r="A23" s="3" t="s">
-        <x:v>177</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B23" s="3" t="s">
-        <x:v>105</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C23" s="3" t="s">
-        <x:v>72</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:3">
       <x:c r="A24" s="3" t="s">
-        <x:v>67</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B24" s="3" t="s">
-        <x:v>105</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C24" s="3" t="s">
-        <x:v>125</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:3">
       <x:c r="A25" s="3" t="s">
-        <x:v>193</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B25" s="3" t="s">
-        <x:v>105</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C25" s="3" t="s">
-        <x:v>136</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:3">
       <x:c r="A26" s="3" t="s">
-        <x:v>70</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="B26" s="3" t="s">
-        <x:v>105</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C26" s="3" t="s">
-        <x:v>130</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:3">
       <x:c r="A27" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B27" s="3" t="s">
-        <x:v>105</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C27" s="3" t="s">
-        <x:v>17</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:3">
       <x:c r="A28" s="3" t="s">
-        <x:v>90</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="B28" s="3" t="s">
-        <x:v>105</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C28" s="3" t="s">
-        <x:v>51</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:3">
       <x:c r="A29" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B29" s="3" t="s">
-        <x:v>105</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C29" s="3" t="s">
-        <x:v>12</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:3">
       <x:c r="A30" s="3" t="s">
-        <x:v>176</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="B30" s="3" t="s">
-        <x:v>105</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C30" s="3" t="s">
-        <x:v>73</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:3">
       <x:c r="A31" s="3" t="s">
-        <x:v>68</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="B31" s="3" t="s">
-        <x:v>105</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C31" s="3" t="s">
-        <x:v>121</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:3">
       <x:c r="A32" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B32" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="C32" s="3" t="s">
-        <x:v>16</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:3">
@@ -2610,156 +2664,156 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="10" t="s">
-        <x:v>79</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="B1" s="10" t="s">
-        <x:v>82</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="C1" s="10" t="s">
-        <x:v>61</x:v>
+        <x:v>179</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="B2" s="1" t="s">
-        <x:v>172</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="C2" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="1" t="s">
-        <x:v>87</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
-        <x:v>172</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="C3" s="1" t="s">
-        <x:v>137</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
-        <x:v>172</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="C4" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
       <x:c r="A5" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>172</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
-        <x:v>139</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
       <x:c r="A6" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
-        <x:v>172</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="C6" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
       <x:c r="A7" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
-        <x:v>172</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
-        <x:v>144</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
       <x:c r="A8" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B8" s="1" t="s">
-        <x:v>172</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="C8" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
       <x:c r="A9" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="B9" s="1" t="s">
-        <x:v>172</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="C9" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
       <x:c r="A10" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="B10" s="1" t="s">
-        <x:v>172</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="C10" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
       <x:c r="A11" s="1" t="s">
-        <x:v>159</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="B11" s="1" t="s">
-        <x:v>172</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="C11" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3">
       <x:c r="A12" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B12" s="1" t="s">
-        <x:v>172</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="C12" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3">
       <x:c r="A13" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="B13" s="1" t="s">
-        <x:v>172</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="C13" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:3">
       <x:c r="A14" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="B14" s="1" t="s">
-        <x:v>172</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="C14" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2771,10 +2825,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet3"/>
-  <x:dimension ref="A1:C11"/>
+  <x:dimension ref="A1:C20"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="J12" activeCellId="0" sqref="J12:J12"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="C30" activeCellId="0" sqref="C30:C30"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
@@ -2786,123 +2840,222 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="10" t="s">
-        <x:v>79</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="B1" s="10" t="s">
-        <x:v>82</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="C1" s="10" t="s">
-        <x:v>61</x:v>
+        <x:v>179</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="B2" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="C2" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="1" t="s">
-        <x:v>186</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="C3" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="1" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="B4" s="1" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="C4" s="1" t="s">
         <x:v>107</x:v>
-      </x:c>
-      <x:c r="B4" s="1" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="C4" s="1" t="s">
-        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
       <x:c r="A5" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
       <x:c r="A6" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="C6" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
       <x:c r="A7" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
-        <x:v>175</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
-        <x:v>138</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
       <x:c r="A8" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B8" s="1" t="s">
-        <x:v>162</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="C8" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
       <x:c r="A9" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B9" s="1" t="s">
-        <x:v>162</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="C9" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
       <x:c r="A10" s="1" t="s">
-        <x:v>195</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B10" s="1" t="s">
-        <x:v>162</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="C10" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
       <x:c r="A11" s="1" t="s">
-        <x:v>192</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B11" s="1" t="s">
-        <x:v>162</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="C11" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>81</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:3">
+      <x:c r="A12" s="1" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B12" s="1" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="C12" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:3">
+      <x:c r="A13" s="1" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="B13" s="1" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="C13" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:3">
+      <x:c r="A14" s="1" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="B14" s="1" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="C14" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:3">
+      <x:c r="A15" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B15" s="1" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="C15" t="s">
+        <x:v>212</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:3">
+      <x:c r="A16" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B16" s="1" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="C16" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:3">
+      <x:c r="A17" s="1" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="B17" s="1" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="C17" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:3">
+      <x:c r="A18" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B18" s="1" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="C18" t="s">
+        <x:v>213</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:3">
+      <x:c r="A19" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B19" s="1" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="C19" s="1" t="s">
+        <x:v>211</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:3">
+      <x:c r="A20" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B20" s="1" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="C20" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/4. WindowAPI/Ninja_Baseball_Batman_Project/AniData/AniData.xlsx
+++ b/4. WindowAPI/Ninja_Baseball_Batman_Project/AniData/AniData.xlsx
@@ -32,439 +32,640 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="216">
   <x:si>
+    <x:t>AniData/Monster/Baseball/Baseball_dead.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Baseball/Baseball_Kick.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Baseball/Baseball_shock.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/Background/Background1.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_win.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/playerselect_deco.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_jump</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_five</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1P_select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_spin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_idle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Background</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_attack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stage_1_2_3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_three</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bat_walk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_throw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_burn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WindyPlane</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_knee</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_nine</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Straw_tag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bat_idle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_born</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_seven</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_run</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jose_select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_splash</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_win</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_fly</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_walk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Background1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UI_restword</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Employed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Player_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_zero</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_four</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_slide</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_catch</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_eight</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jose_tag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_tag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Roger_tag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_dead</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bat_hit</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Player</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_two</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cards</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Drafted</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Object</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_six</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_one</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stage_5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bat_hat</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Explode</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stage_4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1P_sign</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_burn.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Background/stage_6_Boss.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_knee.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Bat/Bat_walk.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_eight.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Straw_tag.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_three.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/UI/PlayerSelect.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Roger_select.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/Monster/Baseball.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Ryno_select.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Jose_tag.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Background1_BackStage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_two.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_zero.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Player_picture_frame</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/1P_sign.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Player.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_six.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/Monster/Bat.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/employed.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_four.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_five.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Drafted.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/Player/Ryno.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Player_picture_normal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Ryno_tag.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/Monster/Cards.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_nine.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_one.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_readyforfight</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Select.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Select_background</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sprite Data Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_catchattack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Player_hpbar_empty</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_dynamite_ball</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/UI/Object.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_underattack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Player_select_deco</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_thunderattack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Background1_stage1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/UI/HUD.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Player_picture_hurt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_gameoversign</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Player_hpbar_full</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_bearhandmode</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_seven.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/UI/titlescreen.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Player_Select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_attack2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Data Address</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Boss_transition</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_attack1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_idle_stay</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_hit_4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_dead</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_dynamite</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Straw_select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sprite Address</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Title_Screen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Origin Sprite</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jose_selected</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_hit_2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_walk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Straw_selected</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pointnum_one</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_damaged1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Title_screen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_deadani</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Roger_select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_wakeup</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_homerun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Animation Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound Data Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Roger_selected</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_kick</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_selected</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_tryspin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stage_6_boss</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_hit_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_punch</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_damaged</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound Address</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_hit_3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_shock</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Baseball/Baseball_hit_3.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_underattack.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Baseball/Baseball_hit_2.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_gameoversign.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_thunderattack.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Baseball/Baseball_walk.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_catchattack.txt</x:t>
+  </x:si>
+  <x:si>
     <x:t>AniData/Monster/Baseball/Baseball_punch.txt</x:t>
   </x:si>
   <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_catchattack.txt</x:t>
-  </x:si>
-  <x:si>
     <x:t>AniData/Player/Ryno/Ryno_bearhandmode.txt</x:t>
   </x:si>
   <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_burn.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Background/stage_6_Boss.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_knee.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_thunderattack.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Baseball/Baseball_walk.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Baseball/Baseball_hit_2.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_gameoversign.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Player_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Employed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UI_restword</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_walk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Background1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_zero</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_four</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_slide</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jose_tag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_catch</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_eight</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Roger_tag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_tag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_dead</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_five</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1P_select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_jump</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_burn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Straw_tag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_throw</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_spin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stage_1_2_3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_idle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bat_walk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WindyPlane</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_knee</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_nine</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Background</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_attack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_three</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_born</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jose_select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_fly</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_run</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_win</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bat_idle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_seven</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_splash</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stage_5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bat_hit</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bat_hat</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_one</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_two</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Drafted</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Object</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Player</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_six</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cards</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stage_4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Explode</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1P_sign</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Bat/Bat_walk.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/playerselect_deco.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/Background/Background1.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_win.txt</x:t>
+    <x:t>Image/Monster/WindyPlane.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Ryno_selected.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Straw_selected.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Background/stage_5.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Bat/Bat_hat.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Bat/Bat_hit.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Background/stage_4.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_attack.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_catch.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Background/Stage_1_2_3.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_idle.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_born.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_spin.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Player_picture_hurt.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Bat/Bat_idle.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_splash.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_throw.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Player_hpbar_full.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Player_hpbar_empty.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_fly.txt</x:t>
   </x:si>
   <x:si>
     <x:t>AniData/Player/Ryno/Ryno_walk.txt</x:t>
   </x:si>
   <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_idle.txt</x:t>
+    <x:t>AniData/UI/Select_background.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_jump.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_run.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_slide.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_dead.txt</x:t>
   </x:si>
   <x:si>
     <x:t>Image/Player/Ryno_dynamite_ball.bmp</x:t>
   </x:si>
   <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_throw.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_spin.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_jump.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_slide.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_catch.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Player_hpbar_empty.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Select_background.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Background/Stage_1_2_3.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_born.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Player_picture_hurt.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_fly.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_run.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_dead.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Bat/Bat_idle.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_attack.txt</x:t>
+    <x:t>AniData/Monster/Baseball/Baseball_wakeup.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Background1/Background1_BackStage.txt</x:t>
   </x:si>
   <x:si>
     <x:t>AniData/Monster/Baseball/Baseball_explode.txt</x:t>
   </x:si>
   <x:si>
-    <x:t>AniData/Monster/Baseball/Baseball_wakeup.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/Player/Ryno.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Player.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_one.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Jose_tag.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/Monster/Bat.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Drafted.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Player_picture_normal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_readyforfight</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_two.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_six.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_zero.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/employed.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Select.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/1P_sign.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/Monster/Cards.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Ryno_tag.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Player_picture_frame</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_four.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_five.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Background1_BackStage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_nine.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Background1/Background1_BackStage.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/UI/PlayerSelect.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_eight.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Straw_tag.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/Monster/Baseball.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_three.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Roger_select.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Ryno_select.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_seven.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/UI/titlescreen.bmp</x:t>
+    <x:t>Image/Background/Background.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Player_picture.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Roger_selected.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Jose_selected.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/titlescreen.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/1P_select.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Jose_select.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Pointnum_one.txt</x:t>
   </x:si>
   <x:si>
     <x:t>AniData/UI/Player_name.txt</x:t>
   </x:si>
   <x:si>
-    <x:t>AniData/UI/Pointnum_one.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/titlescreen.txt</x:t>
+    <x:t>AniData/UI/UI_restword.txt</x:t>
   </x:si>
   <x:si>
     <x:t>AniData/UI/Straw_select.txt</x:t>
   </x:si>
   <x:si>
-    <x:t>AniData/UI/UI_restword.txt</x:t>
-  </x:si>
-  <x:si>
     <x:t>AniData/UI/Roger_tag.txt</x:t>
   </x:si>
   <x:si>
-    <x:t>AniData/UI/1P_select.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Jose_select.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Player_picture.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Roger_selected.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Jose_selected.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/Background/Background.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/Monster/WindyPlane.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Background/stage_4.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Background/stage_5.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Bat/Bat_hat.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Bat/Bat_hit.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Straw_selected.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Ryno_selected.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_underattack.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Baseball/Baseball_hit_3.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Baseball/Baseball_shock.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Baseball/Baseball_Kick.txt</x:t>
-  </x:si>
-  <x:si>
     <x:t>AniData/Monster/Baseball/Baseball_ReadyForFight.txt</x:t>
   </x:si>
   <x:si>
-    <x:t>AniData/Monster/Baseball/Baseball_dead.txt</x:t>
+    <x:t>AniData/Player/Ryno/Ryno_damaged1.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_attack2.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_deadani.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Background/Boss_Transition.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_idle_stay.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_attack1.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_homerun.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_tryspin.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_dynamite.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Player_picture_normal.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_damaged.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bat</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HUD</x:t>
   </x:si>
   <x:si>
     <x:t>AniData/Monster/Baseball/Baseball_hit_1.txt</x:t>
@@ -477,207 +678,6 @@
   </x:si>
   <x:si>
     <x:t>AniData/Monster/Baseball/Baseball_hit_4.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Player_select_deco</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Background1_stage1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_thunderattack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/UI/Object.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/UI/HUD.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Player_hpbar_full</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_gameoversign</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Player_picture_hurt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_catchattack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Player_hpbar_empty</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_bearhandmode</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sprite Data Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Select_background</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_dynamite_ball</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_underattack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HUD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bat</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Player_hpbar_full.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_splash.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_damaged1.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_deadani.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_attack2.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_tryspin.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_damaged.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Background/Boss_Transition.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_idle_stay.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_attack1.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_homerun.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Player_picture_normal.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_dynamite.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Data Address</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Straw_select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_dead</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Title_Screen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_attack1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sprite Address</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jose_selected</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Player_Select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Boss_transition</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_attack2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_hit_4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_idle_stay</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Origin Sprite</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_dynamite</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_hit_2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_hit_3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_kick</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_punch</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stage_6_boss</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_wakeup</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Roger_selected</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_walk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Straw_selected</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_hit_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Roger_select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_damaged1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound Address</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound Data Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_deadani</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_selected</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pointnum_one</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Title_screen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_damaged</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_tryspin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_homerun</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Animation Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_shock</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1464,10 +1464,10 @@
   <x:sheetData>
     <x:row r="1" spans="1:7">
       <x:c r="A1" s="12" t="s">
-        <x:v>160</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B1" s="12" t="s">
-        <x:v>184</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="C1" s="12"/>
       <x:c r="D1" s="12"/>
@@ -1477,10 +1477,10 @@
     </x:row>
     <x:row r="2" spans="1:2">
       <x:c r="A2" s="11" t="s">
-        <x:v>182</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="B2" s="11" t="s">
-        <x:v>119</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1506,10 +1506,10 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="12" t="s">
-        <x:v>160</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B1" s="12" t="s">
-        <x:v>184</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1536,13 +1536,13 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="12" t="s">
-        <x:v>214</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="B1" s="12" t="s">
-        <x:v>191</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="C1" s="12" t="s">
-        <x:v>179</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1589,24 +1589,24 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="12" t="s">
-        <x:v>214</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="B1" s="12" t="s">
-        <x:v>191</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="C1" s="12" t="s">
-        <x:v>179</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="11" t="s">
-        <x:v>210</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B2" s="11" t="s">
-        <x:v>182</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="C2" s="11" t="s">
-        <x:v>122</x:v>
+        <x:v>190</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1632,10 +1632,10 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="12" t="s">
-        <x:v>206</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="B1" s="12" t="s">
-        <x:v>205</x:v>
+        <x:v>144</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1661,26 +1661,26 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="12" t="s">
-        <x:v>160</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B1" s="12" t="s">
-        <x:v>184</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
       <x:c r="A2" s="11" t="s">
-        <x:v>186</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B2" s="11" t="s">
-        <x:v>111</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2">
       <x:c r="A3" s="11" t="s">
-        <x:v>164</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="B3" s="11" t="s">
-        <x:v>153</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1707,343 +1707,343 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="12" t="s">
-        <x:v>214</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="B1" s="12" t="s">
-        <x:v>191</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="C1" s="12" t="s">
-        <x:v>179</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="11" t="s">
-        <x:v>27</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B2" s="11" t="s">
-        <x:v>186</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="C2" s="11" t="s">
-        <x:v>126</x:v>
+        <x:v>191</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="11" t="s">
-        <x:v>56</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B3" s="11" t="s">
-        <x:v>186</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="C3" s="11" t="s">
-        <x:v>94</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="11" t="s">
-        <x:v>11</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B4" s="11" t="s">
-        <x:v>186</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="C4" s="11" t="s">
-        <x:v>100</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
       <x:c r="A5" s="11" t="s">
-        <x:v>43</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B5" s="11" t="s">
-        <x:v>186</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="C5" s="11" t="s">
-        <x:v>127</x:v>
+        <x:v>192</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
       <x:c r="A6" s="11" t="s">
-        <x:v>185</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B6" s="11" t="s">
-        <x:v>186</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="C6" s="11" t="s">
-        <x:v>130</x:v>
+        <x:v>189</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
       <x:c r="A7" s="11" t="s">
-        <x:v>18</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B7" s="11" t="s">
-        <x:v>186</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="C7" s="11" t="s">
-        <x:v>92</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
       <x:c r="A8" s="11" t="s">
-        <x:v>13</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B8" s="11" t="s">
-        <x:v>186</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="C8" s="11" t="s">
-        <x:v>69</x:v>
+        <x:v>176</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
       <x:c r="A9" s="11" t="s">
-        <x:v>59</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B9" s="11" t="s">
-        <x:v>186</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="C9" s="11" t="s">
-        <x:v>90</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
       <x:c r="A10" s="11" t="s">
-        <x:v>149</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B10" s="11" t="s">
-        <x:v>186</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="C10" s="11" t="s">
-        <x:v>66</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
       <x:c r="A11" s="11" t="s">
-        <x:v>203</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B11" s="11" t="s">
-        <x:v>186</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="C11" s="11" t="s">
-        <x:v>116</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3">
       <x:c r="A12" s="11" t="s">
-        <x:v>199</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B12" s="11" t="s">
-        <x:v>186</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="C12" s="11" t="s">
-        <x:v>129</x:v>
+        <x:v>188</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3" s="9" customFormat="1">
       <x:c r="A13" s="9" t="s">
-        <x:v>22</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B13" s="9" t="s">
-        <x:v>186</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="C13" s="9" t="s">
-        <x:v>125</x:v>
+        <x:v>197</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:3">
       <x:c r="A14" s="11" t="s">
-        <x:v>25</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B14" s="11" t="s">
-        <x:v>186</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="C14" s="11" t="s">
-        <x:v>117</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:3">
       <x:c r="A15" s="11" t="s">
-        <x:v>208</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B15" s="11" t="s">
-        <x:v>186</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="C15" s="11" t="s">
-        <x:v>138</x:v>
+        <x:v>157</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:3">
       <x:c r="A16" s="11" t="s">
-        <x:v>23</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B16" s="11" t="s">
-        <x:v>186</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="C16" s="11" t="s">
-        <x:v>104</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:3">
       <x:c r="A17" s="11" t="s">
-        <x:v>57</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="B17" s="11" t="s">
-        <x:v>186</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="C17" s="11" t="s">
-        <x:v>101</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:3">
       <x:c r="A18" s="11" t="s">
-        <x:v>161</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B18" s="11" t="s">
-        <x:v>186</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="C18" s="11" t="s">
-        <x:v>78</x:v>
+        <x:v>177</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:3">
       <x:c r="A19" s="11" t="s">
-        <x:v>180</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="B19" s="11" t="s">
-        <x:v>186</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="C19" s="11" t="s">
-        <x:v>123</x:v>
+        <x:v>196</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:3">
       <x:c r="A20" s="11" t="s">
-        <x:v>201</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B20" s="11" t="s">
-        <x:v>186</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="C20" s="11" t="s">
-        <x:v>137</x:v>
+        <x:v>158</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:3">
       <x:c r="A21" s="11" t="s">
-        <x:v>30</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B21" s="11" t="s">
-        <x:v>186</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="C21" s="11" t="s">
-        <x:v>113</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:3">
       <x:c r="A22" s="11" t="s">
-        <x:v>15</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B22" s="11" t="s">
-        <x:v>164</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="C22" s="8" t="s">
-        <x:v>99</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:3">
       <x:c r="A23" s="7" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B23" s="7" t="s">
-        <x:v>164</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="C23" s="7" t="s">
-        <x:v>91</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:3">
       <x:c r="A24" s="7" t="s">
-        <x:v>55</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B24" s="7" t="s">
-        <x:v>164</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="C24" s="7" t="s">
-        <x:v>97</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:3">
       <x:c r="A25" s="7" t="s">
-        <x:v>41</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B25" s="7" t="s">
-        <x:v>164</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="C25" s="7" t="s">
-        <x:v>115</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:3">
       <x:c r="A26" s="7" t="s">
-        <x:v>16</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="B26" s="7" t="s">
-        <x:v>164</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="C26" s="7" t="s">
-        <x:v>106</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:3">
       <x:c r="A27" s="7" t="s">
-        <x:v>26</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B27" s="7" t="s">
-        <x:v>164</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="C27" s="7" t="s">
-        <x:v>107</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:3">
       <x:c r="A28" s="7" t="s">
-        <x:v>60</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B28" s="7" t="s">
-        <x:v>164</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="C28" s="7" t="s">
-        <x:v>98</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:3">
       <x:c r="A29" s="7" t="s">
-        <x:v>48</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B29" s="7" t="s">
-        <x:v>164</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="C29" s="7" t="s">
-        <x:v>118</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:3">
       <x:c r="A30" s="6" t="s">
-        <x:v>20</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B30" s="6" t="s">
-        <x:v>164</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="C30" s="6" t="s">
-        <x:v>112</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:3">
       <x:c r="A31" s="6" t="s">
-        <x:v>38</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B31" s="6" t="s">
-        <x:v>164</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="C31" s="6" t="s">
-        <x:v>109</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2069,90 +2069,90 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="12" t="s">
-        <x:v>160</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B1" s="12" t="s">
-        <x:v>184</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
       <x:c r="A2" s="11" t="s">
-        <x:v>58</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B2" s="11" t="s">
-        <x:v>152</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2">
       <x:c r="A3" s="11" t="s">
-        <x:v>164</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="B3" s="11" t="s">
-        <x:v>153</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2">
       <x:c r="A4" s="11" t="s">
-        <x:v>52</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B4" s="11" t="s">
-        <x:v>89</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2">
       <x:c r="A5" s="11" t="s">
-        <x:v>21</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="B5" s="11" t="s">
-        <x:v>114</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2">
       <x:c r="A6" s="11" t="s">
-        <x:v>165</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B6" s="11" t="s">
-        <x:v>93</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2">
       <x:c r="A7" s="11" t="s">
-        <x:v>61</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B7" s="11" t="s">
-        <x:v>103</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2">
       <x:c r="A8" s="11" t="s">
-        <x:v>36</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B8" s="11" t="s">
-        <x:v>132</x:v>
+        <x:v>156</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2">
       <x:c r="A9" s="11" t="s">
-        <x:v>39</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B9" s="11" t="s">
-        <x:v>131</x:v>
+        <x:v>186</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2">
       <x:c r="A10" s="11" t="s">
-        <x:v>14</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B10" s="11" t="s">
-        <x:v>67</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2">
       <x:c r="A11" s="11" t="s">
-        <x:v>162</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B11" s="11" t="s">
-        <x:v>71</x:v>
+        <x:v>182</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2179,354 +2179,354 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="12" t="s">
-        <x:v>214</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="B1" s="12" t="s">
-        <x:v>191</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="C1" s="12" t="s">
-        <x:v>179</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="3" t="s">
-        <x:v>40</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B2" s="3" t="s">
-        <x:v>52</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C2" s="5" t="s">
-        <x:v>86</x:v>
+        <x:v>163</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="5" t="s">
-        <x:v>183</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B3" s="5" t="s">
-        <x:v>52</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C3" s="5" t="s">
-        <x:v>175</x:v>
+        <x:v>204</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="5" t="s">
-        <x:v>188</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B4" s="5" t="s">
-        <x:v>52</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C4" s="5" t="s">
-        <x:v>170</x:v>
+        <x:v>200</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
       <x:c r="A5" s="5" t="s">
-        <x:v>159</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="B5" s="5" t="s">
-        <x:v>52</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C5" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>155</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3" s="4" customFormat="1">
       <x:c r="A6" s="3" t="s">
-        <x:v>42</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B6" s="3" t="s">
-        <x:v>52</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C6" s="3" t="s">
-        <x:v>80</x:v>
+        <x:v>167</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3" s="4" customFormat="1">
       <x:c r="A7" s="3" t="s">
-        <x:v>29</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B7" s="3" t="s">
-        <x:v>52</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C7" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3" s="4" customFormat="1">
       <x:c r="A8" s="3" t="s">
-        <x:v>19</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B8" s="3" t="s">
-        <x:v>52</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C8" s="3" t="s">
-        <x:v>76</x:v>
+        <x:v>164</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
       <x:c r="A9" s="5" t="s">
-        <x:v>157</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B9" s="5" t="s">
-        <x:v>52</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C9" s="5" t="s">
-        <x:v>1</x:v>
+        <x:v>153</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
       <x:c r="A10" s="5" t="s">
-        <x:v>211</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="B10" s="5" t="s">
-        <x:v>52</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C10" s="5" t="s">
-        <x:v>172</x:v>
+        <x:v>209</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
       <x:c r="A11" s="5" t="s">
-        <x:v>204</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B11" s="5" t="s">
-        <x:v>52</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C11" s="5" t="s">
-        <x:v>168</x:v>
+        <x:v>199</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3">
       <x:c r="A12" s="5" t="s">
-        <x:v>24</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B12" s="5" t="s">
-        <x:v>52</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C12" s="5" t="s">
-        <x:v>84</x:v>
+        <x:v>181</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3">
       <x:c r="A13" s="5" t="s">
-        <x:v>207</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="B13" s="5" t="s">
-        <x:v>52</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C13" s="5" t="s">
-        <x:v>169</x:v>
+        <x:v>201</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:3">
       <x:c r="A14" s="5" t="s">
-        <x:v>192</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B14" s="5" t="s">
-        <x:v>52</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C14" s="5" t="s">
-        <x:v>178</x:v>
+        <x:v>207</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:3">
       <x:c r="A15" s="5" t="s">
-        <x:v>44</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B15" s="5" t="s">
-        <x:v>52</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C15" s="5" t="s">
-        <x:v>82</x:v>
+        <x:v>175</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:3">
       <x:c r="A16" s="5" t="s">
-        <x:v>155</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B16" s="5" t="s">
-        <x:v>52</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C16" s="5" t="s">
-        <x:v>9</x:v>
+        <x:v>150</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:3">
       <x:c r="A17" s="5" t="s">
-        <x:v>213</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B17" s="5" t="s">
-        <x:v>52</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C17" s="5" t="s">
-        <x:v>176</x:v>
+        <x:v>205</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:3">
       <x:c r="A18" s="5" t="s">
-        <x:v>34</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B18" s="5" t="s">
-        <x:v>52</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C18" s="5" t="s">
-        <x:v>70</x:v>
+        <x:v>166</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:3">
       <x:c r="A19" s="5" t="s">
-        <x:v>190</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B19" s="5" t="s">
-        <x:v>52</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C19" s="5" t="s">
-        <x:v>174</x:v>
+        <x:v>203</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:3">
       <x:c r="A20" s="5" t="s">
-        <x:v>28</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B20" s="5" t="s">
-        <x:v>52</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C20" s="5" t="s">
-        <x:v>74</x:v>
+        <x:v>178</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:3">
       <x:c r="A21" s="5" t="s">
-        <x:v>37</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B21" s="5" t="s">
-        <x:v>52</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C21" s="5" t="s">
-        <x:v>5</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:3">
       <x:c r="A22" s="5" t="s">
-        <x:v>45</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B22" s="5" t="s">
-        <x:v>52</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C22" s="5" t="s">
-        <x:v>83</x:v>
+        <x:v>179</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:3">
       <x:c r="A23" s="5" t="s">
-        <x:v>17</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="B23" s="5" t="s">
-        <x:v>52</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C23" s="5" t="s">
-        <x:v>75</x:v>
+        <x:v>180</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:3">
       <x:c r="A24" s="5" t="s">
-        <x:v>32</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B24" s="5" t="s">
-        <x:v>52</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C24" s="5" t="s">
-        <x:v>73</x:v>
+        <x:v>168</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:3">
       <x:c r="A25" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B25" s="5" t="s">
-        <x:v>52</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C25" s="5" t="s">
-        <x:v>167</x:v>
+        <x:v>171</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:3">
       <x:c r="A26" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B26" s="5" t="s">
-        <x:v>52</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C26" s="5" t="s">
-        <x:v>72</x:v>
+        <x:v>172</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:3">
       <x:c r="A27" s="5" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="B27" s="5" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C27" s="5" t="s">
         <x:v>151</x:v>
-      </x:c>
-      <x:c r="B27" s="5" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="C27" s="5" t="s">
-        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:3">
       <x:c r="A28" s="5" t="s">
-        <x:v>212</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B28" s="5" t="s">
-        <x:v>52</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C28" s="5" t="s">
-        <x:v>171</x:v>
+        <x:v>206</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:3">
       <x:c r="A29" s="5" t="s">
-        <x:v>163</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B29" s="5" t="s">
-        <x:v>52</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C29" s="5" t="s">
-        <x:v>139</x:v>
+        <x:v>148</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:3">
       <x:c r="A30" s="5" t="s">
-        <x:v>13</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B30" s="5" t="s">
-        <x:v>52</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C30" s="5" t="s">
-        <x:v>69</x:v>
+        <x:v>176</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:3">
       <x:c r="A31" s="5" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B31" s="5" t="s">
-        <x:v>52</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C31" s="5" t="s">
-        <x:v>68</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:3">
       <x:c r="A32" s="3" t="s">
-        <x:v>162</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B32" s="3" t="s">
-        <x:v>162</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C32" s="5" t="s">
-        <x:v>146</x:v>
+        <x:v>213</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:3">
@@ -2676,156 +2676,156 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="12" t="s">
-        <x:v>214</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="B1" s="12" t="s">
-        <x:v>191</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="C1" s="12" t="s">
-        <x:v>179</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="3" t="s">
-        <x:v>200</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B2" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C2" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="3" t="s">
-        <x:v>181</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B3" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C3" s="3" t="s">
-        <x:v>144</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="3" t="s">
-        <x:v>63</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B4" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C4" s="3" t="s">
-        <x:v>87</x:v>
+        <x:v>185</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
       <x:c r="A5" s="3" t="s">
-        <x:v>202</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
-        <x:v>145</x:v>
+        <x:v>212</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
       <x:c r="A6" s="3" t="s">
-        <x:v>193</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B6" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C6" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>149</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
       <x:c r="A7" s="3" t="s">
-        <x:v>194</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="B7" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C7" s="3" t="s">
-        <x:v>140</x:v>
+        <x:v>147</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
       <x:c r="A8" s="3" t="s">
-        <x:v>189</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B8" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C8" s="3" t="s">
-        <x:v>148</x:v>
+        <x:v>215</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
       <x:c r="A9" s="3" t="s">
-        <x:v>195</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="B9" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C9" s="3" t="s">
-        <x:v>142</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
       <x:c r="A10" s="3" t="s">
-        <x:v>196</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B10" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C10" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>154</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
       <x:c r="A11" s="3" t="s">
-        <x:v>96</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B11" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C11" s="3" t="s">
-        <x:v>143</x:v>
+        <x:v>198</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3">
       <x:c r="A12" s="3" t="s">
-        <x:v>215</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B12" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C12" s="3" t="s">
-        <x:v>141</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3">
       <x:c r="A13" s="3" t="s">
-        <x:v>198</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="B13" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C13" s="3" t="s">
-        <x:v>88</x:v>
+        <x:v>183</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:3">
       <x:c r="A14" s="3" t="s">
-        <x:v>200</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B14" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C14" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2840,7 +2840,7 @@
   <x:dimension ref="A1:C21"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="J5" activeCellId="0" sqref="J5:J5"/>
+      <x:selection activeCell="A21" activeCellId="0" sqref="A21:A21"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
@@ -2852,233 +2852,233 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="12" t="s">
-        <x:v>214</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="B1" s="12" t="s">
-        <x:v>191</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="C1" s="12" t="s">
-        <x:v>179</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="3" t="s">
-        <x:v>187</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B2" s="3" t="s">
-        <x:v>39</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C2" s="3" t="s">
-        <x:v>173</x:v>
+        <x:v>202</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="3" t="s">
-        <x:v>33</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B3" s="3" t="s">
-        <x:v>39</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C3" s="3" t="s">
-        <x:v>79</x:v>
+        <x:v>165</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="3" t="s">
-        <x:v>62</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B4" s="3" t="s">
-        <x:v>39</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C4" s="3" t="s">
-        <x:v>133</x:v>
+        <x:v>162</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
       <x:c r="A5" s="3" t="s">
-        <x:v>50</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>39</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
-        <x:v>134</x:v>
+        <x:v>159</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
       <x:c r="A6" s="3" t="s">
-        <x:v>197</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B6" s="3" t="s">
-        <x:v>39</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C6" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3" s="1" customFormat="1">
       <x:c r="A7" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>184</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
       <x:c r="A8" s="3" t="s">
-        <x:v>150</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B8" s="3" t="s">
-        <x:v>14</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C8" s="3" t="s">
-        <x:v>147</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
       <x:c r="A9" s="3" t="s">
-        <x:v>51</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B9" s="3" t="s">
-        <x:v>165</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="C9" s="3" t="s">
-        <x:v>136</x:v>
+        <x:v>161</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
       <x:c r="A10" s="3" t="s">
-        <x:v>53</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B10" s="3" t="s">
-        <x:v>165</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="C10" s="3" t="s">
-        <x:v>135</x:v>
+        <x:v>160</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
       <x:c r="A11" s="3" t="s">
-        <x:v>47</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B11" s="3" t="s">
-        <x:v>165</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="C11" s="3" t="s">
-        <x:v>85</x:v>
+        <x:v>170</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3">
       <x:c r="A12" s="3" t="s">
-        <x:v>35</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B12" s="3" t="s">
-        <x:v>165</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="C12" s="3" t="s">
-        <x:v>65</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3">
       <x:c r="A13" s="3" t="s">
-        <x:v>64</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B13" s="3" t="s">
-        <x:v>164</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>102</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:3">
       <x:c r="A14" s="3" t="s">
-        <x:v>158</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B14" s="3" t="s">
-        <x:v>164</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>174</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:3">
       <x:c r="A15" s="3" t="s">
-        <x:v>154</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B15" s="3" t="s">
-        <x:v>164</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>166</x:v>
+        <x:v>173</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:3">
       <x:c r="A16" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B16" s="3" t="s">
-        <x:v>164</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>120</x:v>
+        <x:v>194</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:3">
       <x:c r="A17" s="3" t="s">
-        <x:v>105</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B17" s="3" t="s">
-        <x:v>164</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="C17" s="2" t="s">
-        <x:v>128</x:v>
+        <x:v>187</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:3">
       <x:c r="A18" s="3" t="s">
-        <x:v>156</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="B18" s="3" t="s">
-        <x:v>164</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="C18" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>169</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:3">
       <x:c r="A19" s="3" t="s">
-        <x:v>95</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="B19" s="3" t="s">
-        <x:v>164</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="C19" s="2" t="s">
-        <x:v>177</x:v>
+        <x:v>208</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:3">
       <x:c r="A20" s="3" t="s">
-        <x:v>209</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="B20" s="3" t="s">
-        <x:v>164</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="C20" s="3" t="s">
-        <x:v>121</x:v>
+        <x:v>193</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:3">
       <x:c r="A21" s="3" t="s">
-        <x:v>12</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B21" s="3" t="s">
-        <x:v>164</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="C21" s="2" t="s">
-        <x:v>124</x:v>
+        <x:v>195</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/4. WindowAPI/Ninja_Baseball_Batman_Project/AniData/AniData.xlsx
+++ b/4. WindowAPI/Ninja_Baseball_Batman_Project/AniData/AniData.xlsx
@@ -30,654 +30,534 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="216">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="176">
+  <x:si>
+    <x:t>AniData/UI/Straw_selected.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/Monster/Cards.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_one.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Player_picture_frame</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Ryno_tag.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_zero.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_five.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Player_picture_normal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_readyforfight</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/employed.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Background1_BackStage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/Monster/Bat.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Drafted.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_six.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/Player/Ryno.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_four.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Jose_tag.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_two.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_nine.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Player.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Select.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_six</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_two</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_one</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Player</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Drafted</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Object</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cards</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sprite Data Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Player_hpbar_full</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Player_hpbar_empty</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/UI/Object.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_dynamite_ball</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Player_picture_hurt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_underattack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/UI/HUD.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Select_background</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Player_select_deco</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pointnum_zreo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jose_selected</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_hit_3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Title_Screen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_hit_2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pointnum_six</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pointnum_eight</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_damaged1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Roger_select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_idle_stay</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Data Address</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_kick</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_damaged</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pointnum_one</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_hit_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_dynamite</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Title_screen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pointnum_four</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_homerun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_dead</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Animation Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sprite Address</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pointnum_two</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pointnum_three</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pointnum_seven</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pointnum_five</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stage_6_boss</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Straw_selected</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_hit_4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Straw_select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Player_Select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Roger_selected</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pointnum_nine</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound Data Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound Address</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_selected</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Origin Sprite</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_tryspin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_punch</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bat</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HUD</x:t>
+  </x:si>
   <x:si>
     <x:t>AniData/Monster/Baseball/Baseball_dead.txt</x:t>
   </x:si>
   <x:si>
+    <x:t>AniData/Monster/Baseball/Baseball_punch.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Baseball/Baseball_hit_2.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_dynamite_ball.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Baseball/Baseball_hit_1.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_underattack.txt</x:t>
+  </x:si>
+  <x:si>
     <x:t>AniData/Monster/Baseball/Baseball_Kick.txt</x:t>
   </x:si>
   <x:si>
-    <x:t>AniData/Monster/Baseball/Baseball_shock.txt</x:t>
+    <x:t>AniData/Monster/Baseball/Baseball_hit_3.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Baseball/Baseball_hit_4.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Jose_selected.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Player_picture.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/Background/Background.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Roger_selected.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Background1/Background1_BackStage.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Baseball/Baseball_ReadyForFight.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_three</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_attack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jose_select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_seven</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_nine</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_win</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_spin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_run</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_five</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WindyPlane</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_jump</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_fly</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Background</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_idle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1P_select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_four</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Employed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_walk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_zero</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Background1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Roger_tag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Straw_tag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Player_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_dead</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_eight</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_tag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jose_tag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_run.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/Player/Ryno_dynamite_ball.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Background/stage_6_Boss.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_dead.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_walk.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_win.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/playerselect_deco.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_idle.txt</x:t>
   </x:si>
   <x:si>
     <x:t>Image/Background/Background1.bmp</x:t>
   </x:si>
   <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_win.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/playerselect_deco.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_jump</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_five</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1P_select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_spin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_idle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Background</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_attack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stage_1_2_3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_three</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bat_walk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_throw</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_burn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WindyPlane</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_knee</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_nine</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Straw_tag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bat_idle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_born</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_seven</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_run</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jose_select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_splash</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_win</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_fly</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_walk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Background1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UI_restword</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Employed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Player_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_zero</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_four</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_slide</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_catch</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_eight</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jose_tag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_tag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Roger_tag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_dead</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bat_hit</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Player</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_two</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cards</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Drafted</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Object</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_six</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_one</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stage_5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bat_hat</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Explode</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stage_4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1P_sign</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_burn.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Background/stage_6_Boss.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_knee.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Bat/Bat_walk.txt</x:t>
+    <x:t>AniData/UI/Player_picture_hurt.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Select_background.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_attack.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Player_hpbar_full.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_jump.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_fly.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_spin.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Player_hpbar_empty.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_homerun.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_tryspin.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Player_picture_normal.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_dynamite.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_idle_stay.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_damaged.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_damaged1.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/Monster/WindyPlane.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Ryno_selected.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Pointnum_one.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Jose_select.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Roger_tag.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/1P_select.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Straw_tag.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/Monster/Baseball.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/UI/titlescreen.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Straw_select.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Ryno_select.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Roger_select.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Player_name.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/titlescreen.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_three.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/UI/PlayerSelect.bmp</x:t>
   </x:si>
   <x:si>
     <x:t>AniData/UI/Num_eight.txt</x:t>
   </x:si>
   <x:si>
-    <x:t>AniData/UI/Straw_tag.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_three.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/UI/PlayerSelect.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Roger_select.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/Monster/Baseball.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Ryno_select.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Jose_tag.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Background1_BackStage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_two.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_zero.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Player_picture_frame</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/1P_sign.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Player.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_six.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/Monster/Bat.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/employed.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_four.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_five.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Drafted.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/Player/Ryno.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Player_picture_normal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Ryno_tag.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/Monster/Cards.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_nine.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_one.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_readyforfight</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Select.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Select_background</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sprite Data Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_catchattack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Player_hpbar_empty</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_dynamite_ball</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/UI/Object.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_underattack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Player_select_deco</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_thunderattack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Background1_stage1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/UI/HUD.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Player_picture_hurt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_gameoversign</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Player_hpbar_full</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_bearhandmode</x:t>
+    <x:t>AniData/UI/Pointnum_six.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Pointnum_two.txt</x:t>
   </x:si>
   <x:si>
     <x:t>AniData/UI/Num_seven.txt</x:t>
   </x:si>
   <x:si>
-    <x:t>Image/UI/titlescreen.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Player_Select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_attack2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Data Address</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Boss_transition</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_attack1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_idle_stay</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_hit_4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_dead</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_dynamite</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Straw_select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sprite Address</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Title_Screen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Origin Sprite</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jose_selected</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_hit_2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_walk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Straw_selected</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pointnum_one</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_damaged1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Title_screen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_deadani</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Roger_select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_wakeup</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_homerun</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Animation Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound Data Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Roger_selected</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_kick</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_selected</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_tryspin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stage_6_boss</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_hit_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_punch</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_damaged</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound Address</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_hit_3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_shock</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Baseball/Baseball_hit_3.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_underattack.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Baseball/Baseball_hit_2.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_gameoversign.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_thunderattack.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Baseball/Baseball_walk.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_catchattack.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Baseball/Baseball_punch.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_bearhandmode.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/Monster/WindyPlane.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Ryno_selected.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Straw_selected.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Background/stage_5.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Bat/Bat_hat.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Bat/Bat_hit.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Background/stage_4.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_attack.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_catch.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Background/Stage_1_2_3.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_idle.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_born.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_spin.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Player_picture_hurt.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Bat/Bat_idle.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_splash.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_throw.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Player_hpbar_full.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Player_hpbar_empty.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_fly.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_walk.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Select_background.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_jump.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_run.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_slide.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_dead.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/Player/Ryno_dynamite_ball.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Baseball/Baseball_wakeup.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Background1/Background1_BackStage.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Baseball/Baseball_explode.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/Background/Background.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Player_picture.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Roger_selected.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Jose_selected.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/titlescreen.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/1P_select.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Jose_select.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Pointnum_one.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Player_name.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/UI_restword.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Straw_select.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Roger_tag.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Baseball/Baseball_ReadyForFight.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_damaged1.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_attack2.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_deadani.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Background/Boss_Transition.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_idle_stay.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_attack1.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_homerun.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_tryspin.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_dynamite.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Player_picture_normal.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_damaged.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bat</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HUD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Baseball/Baseball_hit_1.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_dynamite_ball.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Background1/Background1_stage1.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Baseball/Baseball_hit_4.txt</x:t>
+    <x:t>AniData/UI/Pointnum_eight.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Pointnum_nine.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Pointnum_four.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Pointnum_five.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Pointnum_three.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Pointnum_seven.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Pointnum_zero.txt</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1464,10 +1344,10 @@
   <x:sheetData>
     <x:row r="1" spans="1:7">
       <x:c r="A1" s="12" t="s">
-        <x:v>94</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B1" s="12" t="s">
-        <x:v>120</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C1" s="12"/>
       <x:c r="D1" s="12"/>
@@ -1477,10 +1357,10 @@
     </x:row>
     <x:row r="2" spans="1:2">
       <x:c r="A2" s="11" t="s">
-        <x:v>121</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B2" s="11" t="s">
-        <x:v>109</x:v>
+        <x:v>157</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1506,10 +1386,10 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="12" t="s">
-        <x:v>94</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B1" s="12" t="s">
-        <x:v>120</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1536,13 +1416,13 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="12" t="s">
-        <x:v>134</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B1" s="12" t="s">
-        <x:v>122</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C1" s="12" t="s">
-        <x:v>112</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1589,24 +1469,24 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="12" t="s">
-        <x:v>134</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B1" s="12" t="s">
-        <x:v>122</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C1" s="12" t="s">
-        <x:v>112</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="11" t="s">
-        <x:v>129</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B2" s="11" t="s">
-        <x:v>121</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C2" s="11" t="s">
-        <x:v>190</x:v>
+        <x:v>162</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1632,10 +1512,10 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="12" t="s">
-        <x:v>135</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B1" s="12" t="s">
-        <x:v>144</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1661,26 +1541,26 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="12" t="s">
-        <x:v>94</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B1" s="12" t="s">
-        <x:v>120</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
       <x:c r="A2" s="11" t="s">
-        <x:v>110</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="B2" s="11" t="s">
-        <x:v>68</x:v>
+        <x:v>164</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2">
       <x:c r="A3" s="11" t="s">
-        <x:v>211</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="B3" s="11" t="s">
-        <x:v>103</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1707,343 +1587,343 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="12" t="s">
-        <x:v>134</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B1" s="12" t="s">
-        <x:v>122</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C1" s="12" t="s">
-        <x:v>112</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="11" t="s">
-        <x:v>8</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B2" s="11" t="s">
-        <x:v>110</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C2" s="11" t="s">
-        <x:v>191</x:v>
+        <x:v>154</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="11" t="s">
-        <x:v>52</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B3" s="11" t="s">
-        <x:v>110</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C3" s="11" t="s">
-        <x:v>84</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="11" t="s">
-        <x:v>33</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B4" s="11" t="s">
-        <x:v>110</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C4" s="11" t="s">
-        <x:v>81</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
       <x:c r="A5" s="11" t="s">
-        <x:v>26</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B5" s="11" t="s">
-        <x:v>110</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C5" s="11" t="s">
-        <x:v>192</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
       <x:c r="A6" s="11" t="s">
-        <x:v>123</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="B6" s="11" t="s">
-        <x:v>110</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C6" s="11" t="s">
-        <x:v>189</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
       <x:c r="A7" s="11" t="s">
-        <x:v>40</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B7" s="11" t="s">
-        <x:v>110</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C7" s="11" t="s">
-        <x:v>72</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
       <x:c r="A8" s="11" t="s">
-        <x:v>30</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B8" s="11" t="s">
-        <x:v>110</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C8" s="11" t="s">
-        <x:v>176</x:v>
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
       <x:c r="A9" s="11" t="s">
-        <x:v>48</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B9" s="11" t="s">
-        <x:v>110</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C9" s="11" t="s">
-        <x:v>78</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
       <x:c r="A10" s="11" t="s">
-        <x:v>100</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B10" s="11" t="s">
-        <x:v>110</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C10" s="11" t="s">
-        <x:v>5</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
       <x:c r="A11" s="11" t="s">
-        <x:v>131</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B11" s="11" t="s">
-        <x:v>110</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C11" s="11" t="s">
-        <x:v>69</x:v>
+        <x:v>160</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3">
       <x:c r="A12" s="11" t="s">
-        <x:v>136</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B12" s="11" t="s">
-        <x:v>110</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C12" s="11" t="s">
-        <x:v>188</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3" s="9" customFormat="1">
       <x:c r="A13" s="9" t="s">
-        <x:v>43</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B13" s="9" t="s">
-        <x:v>110</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C13" s="9" t="s">
-        <x:v>197</x:v>
+        <x:v>153</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:3">
       <x:c r="A14" s="11" t="s">
-        <x:v>44</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B14" s="11" t="s">
-        <x:v>110</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C14" s="11" t="s">
-        <x:v>71</x:v>
+        <x:v>159</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:3">
       <x:c r="A15" s="11" t="s">
-        <x:v>138</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="B15" s="11" t="s">
-        <x:v>110</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C15" s="11" t="s">
-        <x:v>157</x:v>
+        <x:v>150</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:3">
       <x:c r="A16" s="11" t="s">
-        <x:v>42</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B16" s="11" t="s">
-        <x:v>110</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C16" s="11" t="s">
-        <x:v>87</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:3">
       <x:c r="A17" s="11" t="s">
-        <x:v>46</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B17" s="11" t="s">
-        <x:v>110</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C17" s="11" t="s">
-        <x:v>92</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:3">
       <x:c r="A18" s="11" t="s">
-        <x:v>93</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B18" s="11" t="s">
-        <x:v>110</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C18" s="11" t="s">
-        <x:v>177</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:3">
       <x:c r="A19" s="11" t="s">
-        <x:v>119</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B19" s="11" t="s">
-        <x:v>110</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C19" s="11" t="s">
-        <x:v>196</x:v>
+        <x:v>158</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:3">
       <x:c r="A20" s="11" t="s">
-        <x:v>126</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B20" s="11" t="s">
-        <x:v>110</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C20" s="11" t="s">
-        <x:v>158</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:3">
       <x:c r="A21" s="11" t="s">
-        <x:v>21</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="B21" s="11" t="s">
-        <x:v>110</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C21" s="11" t="s">
-        <x:v>66</x:v>
+        <x:v>155</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:3">
       <x:c r="A22" s="11" t="s">
-        <x:v>35</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B22" s="11" t="s">
-        <x:v>211</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C22" s="8" t="s">
-        <x:v>75</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:3">
       <x:c r="A23" s="7" t="s">
-        <x:v>55</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B23" s="7" t="s">
-        <x:v>211</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C23" s="7" t="s">
-        <x:v>90</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:3">
       <x:c r="A24" s="7" t="s">
-        <x:v>49</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B24" s="7" t="s">
-        <x:v>211</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C24" s="7" t="s">
-        <x:v>74</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:3">
       <x:c r="A25" s="7" t="s">
-        <x:v>14</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B25" s="7" t="s">
-        <x:v>211</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C25" s="7" t="s">
-        <x:v>67</x:v>
+        <x:v>163</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:3">
       <x:c r="A26" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="B26" s="7" t="s">
-        <x:v>211</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C26" s="7" t="s">
-        <x:v>82</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:3">
       <x:c r="A27" s="7" t="s">
-        <x:v>7</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="B27" s="7" t="s">
-        <x:v>211</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C27" s="7" t="s">
-        <x:v>83</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:3">
       <x:c r="A28" s="7" t="s">
-        <x:v>54</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B28" s="7" t="s">
-        <x:v>211</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C28" s="7" t="s">
-        <x:v>79</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:3">
       <x:c r="A29" s="7" t="s">
-        <x:v>24</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B29" s="7" t="s">
-        <x:v>211</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C29" s="7" t="s">
-        <x:v>108</x:v>
+        <x:v>168</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:3">
       <x:c r="A30" s="6" t="s">
-        <x:v>39</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="B30" s="6" t="s">
-        <x:v>211</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C30" s="6" t="s">
-        <x:v>65</x:v>
+        <x:v>165</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:3">
       <x:c r="A31" s="6" t="s">
-        <x:v>20</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B31" s="6" t="s">
-        <x:v>211</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C31" s="6" t="s">
-        <x:v>89</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2069,90 +1949,90 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="12" t="s">
-        <x:v>94</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B1" s="12" t="s">
-        <x:v>120</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
       <x:c r="A2" s="11" t="s">
-        <x:v>53</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B2" s="11" t="s">
-        <x:v>98</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2">
       <x:c r="A3" s="11" t="s">
-        <x:v>211</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="B3" s="11" t="s">
-        <x:v>103</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2">
       <x:c r="A4" s="11" t="s">
-        <x:v>50</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B4" s="11" t="s">
-        <x:v>85</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2">
       <x:c r="A5" s="11" t="s">
-        <x:v>41</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B5" s="11" t="s">
-        <x:v>70</x:v>
+        <x:v>156</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2">
       <x:c r="A6" s="11" t="s">
-        <x:v>210</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="B6" s="11" t="s">
-        <x:v>80</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2">
       <x:c r="A7" s="11" t="s">
-        <x:v>51</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B7" s="11" t="s">
-        <x:v>88</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2">
       <x:c r="A8" s="11" t="s">
-        <x:v>18</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B8" s="11" t="s">
-        <x:v>156</x:v>
+        <x:v>149</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2">
       <x:c r="A9" s="11" t="s">
-        <x:v>11</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="B9" s="11" t="s">
-        <x:v>186</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2">
       <x:c r="A10" s="11" t="s">
-        <x:v>31</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B10" s="11" t="s">
-        <x:v>3</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2">
       <x:c r="A11" s="11" t="s">
-        <x:v>97</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B11" s="11" t="s">
-        <x:v>182</x:v>
+        <x:v>126</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2166,8 +2046,8 @@
   <x:sheetPr codeName="Sheet11"/>
   <x:dimension ref="A1:C56"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="C36" activeCellId="0" sqref="C36:C36"/>
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="B26" activeCellId="0" sqref="B26:B26"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
@@ -2179,355 +2059,271 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="12" t="s">
-        <x:v>134</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B1" s="12" t="s">
-        <x:v>122</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C1" s="12" t="s">
-        <x:v>112</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="3" t="s">
-        <x:v>12</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B2" s="3" t="s">
-        <x:v>50</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C2" s="5" t="s">
-        <x:v>163</x:v>
+        <x:v>136</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="5" t="s">
-        <x:v>114</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B3" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C3" s="5" t="s">
-        <x:v>204</x:v>
+        <x:v>147</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="5" t="s">
-        <x:v>111</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B4" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C4" s="5" t="s">
-        <x:v>200</x:v>
+        <x:v>148</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
       <x:c r="A5" s="5" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="B5" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C5" s="5" t="s">
+        <x:v>128</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:3" s="4" customFormat="1">
+      <x:c r="A6" s="1" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="B6" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C6" s="1" t="s">
+        <x:v>145</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:3" s="4" customFormat="1">
+      <x:c r="A7" s="1" t="s">
         <x:v>107</x:v>
       </x:c>
-      <x:c r="B5" s="5" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="C5" s="5" t="s">
-        <x:v>155</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:3" s="4" customFormat="1">
-      <x:c r="A6" s="3" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="B6" s="3" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="C6" s="3" t="s">
-        <x:v>167</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:3" s="4" customFormat="1">
-      <x:c r="A7" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="B7" s="3" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="C7" s="3" t="s">
-        <x:v>61</x:v>
+      <x:c r="B7" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C7" s="1" t="s">
+        <x:v>139</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3" s="4" customFormat="1">
-      <x:c r="A8" s="3" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="B8" s="3" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="C8" s="3" t="s">
-        <x:v>164</x:v>
+      <x:c r="A8" s="1" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="B8" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C8" s="1" t="s">
+        <x:v>142</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
       <x:c r="A9" s="5" t="s">
-        <x:v>95</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="B9" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C9" s="5" t="s">
-        <x:v>153</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
       <x:c r="A10" s="5" t="s">
-        <x:v>143</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B10" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C10" s="5" t="s">
-        <x:v>209</x:v>
+        <x:v>146</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
       <x:c r="A11" s="5" t="s">
-        <x:v>128</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B11" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C11" s="5" t="s">
-        <x:v>199</x:v>
+        <x:v>138</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3">
       <x:c r="A12" s="5" t="s">
-        <x:v>45</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B12" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C12" s="5" t="s">
-        <x:v>181</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3">
       <x:c r="A13" s="5" t="s">
-        <x:v>130</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B13" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C13" s="5" t="s">
-        <x:v>201</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:3">
       <x:c r="A14" s="5" t="s">
-        <x:v>118</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B14" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C14" s="5" t="s">
-        <x:v>207</x:v>
+        <x:v>143</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:3">
       <x:c r="A15" s="5" t="s">
-        <x:v>29</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="B15" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C15" s="5" t="s">
-        <x:v>175</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:3">
       <x:c r="A16" s="5" t="s">
-        <x:v>105</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B16" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C16" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:3">
       <x:c r="A17" s="5" t="s">
-        <x:v>133</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B17" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C17" s="5" t="s">
-        <x:v>205</x:v>
+        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:3">
-      <x:c r="A18" s="5" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B18" s="5" t="s">
-        <x:v>50</x:v>
+      <x:c r="A18" s="1" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B18" s="1" t="s">
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C18" s="5" t="s">
-        <x:v>166</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:3">
-      <x:c r="A19" s="5" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="B19" s="5" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="C19" s="5" t="s">
-        <x:v>203</x:v>
-      </x:c>
+      <x:c r="A19" s="5"/>
+      <x:c r="B19" s="5"/>
+      <x:c r="C19" s="5"/>
     </x:row>
     <x:row r="20" spans="1:3">
-      <x:c r="A20" s="5" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B20" s="5" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="C20" s="5" t="s">
-        <x:v>178</x:v>
-      </x:c>
+      <x:c r="A20" s="5"/>
+      <x:c r="B20" s="5"/>
+      <x:c r="C20" s="5"/>
     </x:row>
     <x:row r="21" spans="1:3">
-      <x:c r="A21" s="5" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="B21" s="5" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="C21" s="5" t="s">
-        <x:v>63</x:v>
-      </x:c>
+      <x:c r="A21" s="5"/>
+      <x:c r="B21" s="5"/>
+      <x:c r="C21" s="5"/>
     </x:row>
     <x:row r="22" spans="1:3">
-      <x:c r="A22" s="5" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="B22" s="5" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="C22" s="5" t="s">
-        <x:v>179</x:v>
-      </x:c>
+      <x:c r="A22" s="1"/>
+      <x:c r="B22" s="1"/>
+      <x:c r="C22" s="1"/>
     </x:row>
     <x:row r="23" spans="1:3">
-      <x:c r="A23" s="5" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="B23" s="5" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="C23" s="5" t="s">
-        <x:v>180</x:v>
-      </x:c>
+      <x:c r="A23" s="1"/>
+      <x:c r="B23" s="1"/>
+      <x:c r="C23" s="1"/>
     </x:row>
     <x:row r="24" spans="1:3">
-      <x:c r="A24" s="5" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B24" s="5" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="C24" s="5" t="s">
-        <x:v>168</x:v>
-      </x:c>
+      <x:c r="A24" s="1"/>
+      <x:c r="B24" s="1"/>
+      <x:c r="C24" s="1"/>
     </x:row>
     <x:row r="25" spans="1:3">
-      <x:c r="A25" s="5" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="B25" s="5" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="C25" s="5" t="s">
-        <x:v>171</x:v>
-      </x:c>
+      <x:c r="A25" s="5"/>
+      <x:c r="B25" s="5"/>
+      <x:c r="C25" s="5"/>
     </x:row>
     <x:row r="26" spans="1:3">
-      <x:c r="A26" s="5" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="B26" s="5" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="C26" s="5" t="s">
-        <x:v>172</x:v>
-      </x:c>
+      <x:c r="A26" s="5"/>
+      <x:c r="B26" s="5"/>
+      <x:c r="C26" s="5"/>
     </x:row>
     <x:row r="27" spans="1:3">
-      <x:c r="A27" s="5" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="B27" s="5" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="C27" s="5" t="s">
-        <x:v>151</x:v>
-      </x:c>
+      <x:c r="A27" s="5"/>
+      <x:c r="B27" s="5"/>
+      <x:c r="C27" s="5"/>
     </x:row>
     <x:row r="28" spans="1:3">
-      <x:c r="A28" s="5" t="s">
-        <x:v>139</x:v>
-      </x:c>
-      <x:c r="B28" s="5" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="C28" s="5" t="s">
-        <x:v>206</x:v>
-      </x:c>
+      <x:c r="A28" s="5"/>
+      <x:c r="B28" s="5"/>
+      <x:c r="C28" s="5"/>
     </x:row>
     <x:row r="29" spans="1:3">
-      <x:c r="A29" s="5" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="B29" s="5" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="C29" s="5" t="s">
-        <x:v>148</x:v>
-      </x:c>
+      <x:c r="A29" s="5"/>
+      <x:c r="B29" s="5"/>
+      <x:c r="C29" s="5"/>
     </x:row>
     <x:row r="30" spans="1:3">
-      <x:c r="A30" s="5" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="B30" s="5" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="C30" s="5" t="s">
-        <x:v>176</x:v>
-      </x:c>
+      <x:c r="A30" s="5"/>
+      <x:c r="B30" s="5"/>
+      <x:c r="C30" s="5"/>
     </x:row>
     <x:row r="31" spans="1:3">
-      <x:c r="A31" s="5" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="B31" s="5" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="C31" s="5" t="s">
-        <x:v>4</x:v>
-      </x:c>
+      <x:c r="A31" s="5"/>
+      <x:c r="B31" s="5"/>
+      <x:c r="C31" s="5"/>
     </x:row>
     <x:row r="32" spans="1:3">
-      <x:c r="A32" s="3" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="B32" s="3" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="C32" s="5" t="s">
-        <x:v>213</x:v>
-      </x:c>
+      <x:c r="A32" s="1"/>
+      <x:c r="B32" s="1"/>
+      <x:c r="C32" s="5"/>
     </x:row>
     <x:row r="33" spans="1:3">
       <x:c r="A33" s="5"/>
@@ -2650,8 +2446,8 @@
       <x:c r="C56" s="4"/>
     </x:row>
   </x:sheetData>
-  <x:sortState columnSort="0" caseSensitive="0" ref="A1:C54">
-    <x:sortCondition descending="0" sortBy="value" ref="B1:B54"/>
+  <x:sortState columnSort="0" caseSensitive="0" ref="A2:C32">
+    <x:sortCondition descending="0" sortBy="value" ref="B2:B32"/>
   </x:sortState>
   <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
@@ -2661,10 +2457,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet2"/>
-  <x:dimension ref="A1:C14"/>
+  <x:dimension ref="A1:C9"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="A2" activeCellId="0" sqref="A2:C14"/>
+      <x:selection activeCell="F14" activeCellId="0" sqref="F14:F14"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
@@ -2676,159 +2472,107 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="12" t="s">
-        <x:v>134</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B1" s="12" t="s">
-        <x:v>122</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C1" s="12" t="s">
-        <x:v>112</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="3" t="s">
-        <x:v>125</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B2" s="3" t="s">
-        <x:v>41</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C2" s="3" t="s">
-        <x:v>152</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="3" t="s">
-        <x:v>117</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B3" s="3" t="s">
-        <x:v>41</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C3" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="3" t="s">
-        <x:v>58</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B4" s="3" t="s">
-        <x:v>41</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C4" s="3" t="s">
-        <x:v>185</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
       <x:c r="A5" s="3" t="s">
-        <x:v>141</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>41</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
-        <x:v>212</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
       <x:c r="A6" s="3" t="s">
-        <x:v>124</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B6" s="3" t="s">
-        <x:v>41</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C6" s="3" t="s">
-        <x:v>149</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
       <x:c r="A7" s="3" t="s">
-        <x:v>145</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B7" s="3" t="s">
-        <x:v>41</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C7" s="3" t="s">
-        <x:v>147</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
       <x:c r="A8" s="3" t="s">
-        <x:v>116</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="B8" s="3" t="s">
-        <x:v>41</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C8" s="3" t="s">
-        <x:v>215</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
       <x:c r="A9" s="3" t="s">
-        <x:v>137</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B9" s="3" t="s">
-        <x:v>41</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C9" s="3" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:3">
-      <x:c r="A10" s="3" t="s">
-        <x:v>142</x:v>
-      </x:c>
-      <x:c r="B10" s="3" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="C10" s="3" t="s">
-        <x:v>154</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:3">
-      <x:c r="A11" s="3" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="B11" s="3" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="C11" s="3" t="s">
-        <x:v>198</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:3">
-      <x:c r="A12" s="3" t="s">
-        <x:v>146</x:v>
-      </x:c>
-      <x:c r="B12" s="3" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="C12" s="3" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:3">
-      <x:c r="A13" s="3" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="B13" s="3" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="C13" s="3" t="s">
-        <x:v>183</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:3">
-      <x:c r="A14" s="3" t="s">
-        <x:v>125</x:v>
-      </x:c>
-      <x:c r="B14" s="3" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="C14" s="3" t="s">
-        <x:v>152</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
+  <x:sortState columnSort="0" caseSensitive="0" ref="A2:C11">
+    <x:sortCondition descending="0" sortBy="value" ref="B2:B11"/>
+  </x:sortState>
   <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
@@ -2837,10 +2581,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet3"/>
-  <x:dimension ref="A1:C21"/>
+  <x:dimension ref="A1:C29"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="A21" activeCellId="0" sqref="A21:A21"/>
+      <x:selection activeCell="A10" activeCellId="0" sqref="A10:A10"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
@@ -2852,238 +2596,266 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="12" t="s">
-        <x:v>134</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B1" s="12" t="s">
-        <x:v>122</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C1" s="12" t="s">
-        <x:v>112</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="3" t="s">
-        <x:v>113</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B2" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C2" s="3" t="s">
-        <x:v>202</x:v>
+        <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
-      <x:c r="A3" s="3" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="B3" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C3" s="3" t="s">
-        <x:v>165</x:v>
+      <x:c r="A3" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B3" s="1" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="C3" s="1" t="s">
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="3" t="s">
-        <x:v>59</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B4" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C4" s="3" t="s">
-        <x:v>162</x:v>
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C4" s="1" t="s">
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
       <x:c r="A5" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C5" s="3" t="s">
-        <x:v>159</x:v>
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C5" s="1" t="s">
+        <x:v>137</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
       <x:c r="A6" s="3" t="s">
-        <x:v>140</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B6" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C6" s="3" t="s">
-        <x:v>62</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:3" s="1" customFormat="1">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C6" s="1" t="s">
+        <x:v>161</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:3" s="2" customFormat="1">
       <x:c r="A7" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
       <x:c r="A8" s="3" t="s">
-        <x:v>102</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B8" s="3" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="C8" s="3" t="s">
-        <x:v>214</x:v>
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C8" s="1" t="s">
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
       <x:c r="A9" s="3" t="s">
-        <x:v>47</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="3" t="s">
-        <x:v>210</x:v>
-      </x:c>
-      <x:c r="C9" s="3" t="s">
-        <x:v>161</x:v>
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C9" s="1" t="s">
+        <x:v>144</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
-      <x:c r="A10" s="3" t="s">
+      <x:c r="A10" s="1" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B10" s="1" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C10" s="1" t="s">
+        <x:v>175</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:3">
+      <x:c r="A11" s="1" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="B11" s="1" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C11" s="1" t="s">
+        <x:v>151</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:3">
+      <x:c r="A12" s="1" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="B12" s="1" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C12" s="1" t="s">
+        <x:v>167</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:3">
+      <x:c r="A13" s="1" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="B13" s="1" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C13" s="1" t="s">
+        <x:v>173</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:3">
+      <x:c r="A14" s="1" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="B10" s="3" t="s">
-        <x:v>210</x:v>
-      </x:c>
-      <x:c r="C10" s="3" t="s">
-        <x:v>160</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:3">
-      <x:c r="A11" s="3" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="B11" s="3" t="s">
-        <x:v>210</x:v>
-      </x:c>
-      <x:c r="C11" s="3" t="s">
+      <x:c r="B14" s="1" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C14" s="1" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:3">
+      <x:c r="A15" s="1" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="B15" s="1" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C15" s="1" t="s">
+        <x:v>172</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:3">
+      <x:c r="A16" s="1" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B16" s="1" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C16" s="1" t="s">
+        <x:v>166</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:3">
+      <x:c r="A17" s="1" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="B17" s="1" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C17" s="1" t="s">
+        <x:v>174</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:3">
+      <x:c r="A18" s="1" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B18" s="1" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C18" s="1" t="s">
+        <x:v>169</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:3">
+      <x:c r="A19" s="1" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="B19" s="1" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C19" s="1" t="s">
         <x:v>170</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:3">
-      <x:c r="A12" s="3" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="B12" s="3" t="s">
-        <x:v>210</x:v>
-      </x:c>
-      <x:c r="C12" s="3" t="s">
-        <x:v>64</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:3">
-      <x:c r="A13" s="3" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="B13" s="3" t="s">
-        <x:v>211</x:v>
-      </x:c>
-      <x:c r="C13" s="2" t="s">
-        <x:v>77</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:3">
-      <x:c r="A14" s="3" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="B14" s="3" t="s">
-        <x:v>211</x:v>
-      </x:c>
-      <x:c r="C14" s="2" t="s">
-        <x:v>174</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:3">
-      <x:c r="A15" s="3" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="B15" s="3" t="s">
-        <x:v>211</x:v>
-      </x:c>
-      <x:c r="C15" s="2" t="s">
-        <x:v>173</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:3">
-      <x:c r="A16" s="3" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="B16" s="3" t="s">
-        <x:v>211</x:v>
-      </x:c>
-      <x:c r="C16" s="2" t="s">
-        <x:v>194</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:3">
-      <x:c r="A17" s="3" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="B17" s="3" t="s">
-        <x:v>211</x:v>
-      </x:c>
-      <x:c r="C17" s="2" t="s">
-        <x:v>187</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:3">
-      <x:c r="A18" s="3" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="B18" s="3" t="s">
-        <x:v>211</x:v>
-      </x:c>
-      <x:c r="C18" s="2" t="s">
-        <x:v>169</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:3">
-      <x:c r="A19" s="3" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="B19" s="3" t="s">
-        <x:v>211</x:v>
-      </x:c>
-      <x:c r="C19" s="2" t="s">
-        <x:v>208</x:v>
-      </x:c>
-    </x:row>
     <x:row r="20" spans="1:3">
-      <x:c r="A20" s="3" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="B20" s="3" t="s">
-        <x:v>211</x:v>
-      </x:c>
-      <x:c r="C20" s="3" t="s">
-        <x:v>193</x:v>
-      </x:c>
+      <x:c r="A20" s="1"/>
+      <x:c r="B20" s="1"/>
+      <x:c r="C20" s="1"/>
     </x:row>
     <x:row r="21" spans="1:3">
-      <x:c r="A21" s="3" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="B21" s="3" t="s">
-        <x:v>211</x:v>
-      </x:c>
-      <x:c r="C21" s="2" t="s">
-        <x:v>195</x:v>
-      </x:c>
+      <x:c r="A21" s="1"/>
+      <x:c r="B21" s="1"/>
+      <x:c r="C21" s="1"/>
+    </x:row>
+    <x:row r="22" spans="1:3">
+      <x:c r="A22" s="1"/>
+      <x:c r="B22" s="1"/>
+      <x:c r="C22" s="1"/>
+    </x:row>
+    <x:row r="23" spans="1:3">
+      <x:c r="A23" s="1"/>
+      <x:c r="B23" s="1"/>
+      <x:c r="C23" s="1"/>
+    </x:row>
+    <x:row r="24" spans="1:3">
+      <x:c r="A24" s="1"/>
+      <x:c r="B24" s="1"/>
+      <x:c r="C24" s="1"/>
+    </x:row>
+    <x:row r="25" spans="1:3">
+      <x:c r="A25" s="1"/>
+      <x:c r="B25" s="1"/>
+      <x:c r="C25" s="1"/>
+    </x:row>
+    <x:row r="26" spans="1:3">
+      <x:c r="A26" s="1"/>
+      <x:c r="B26" s="1"/>
+      <x:c r="C26" s="1"/>
+    </x:row>
+    <x:row r="27" spans="1:3">
+      <x:c r="A27" s="1"/>
+      <x:c r="B27" s="1"/>
+      <x:c r="C27" s="1"/>
+    </x:row>
+    <x:row r="28" spans="1:3">
+      <x:c r="A28" s="1"/>
+      <x:c r="B28" s="1"/>
+      <x:c r="C28" s="1"/>
+    </x:row>
+    <x:row r="29" spans="1:3">
+      <x:c r="A29" s="1"/>
+      <x:c r="B29" s="1"/>
+      <x:c r="C29" s="1"/>
     </x:row>
   </x:sheetData>
-  <x:sortState columnSort="0" caseSensitive="0" ref="A2:C24">
-    <x:sortCondition descending="0" sortBy="value" ref="B2:B24"/>
+  <x:sortState columnSort="0" caseSensitive="0" ref="A2:C29">
+    <x:sortCondition descending="0" sortBy="value" ref="B2:B29"/>
   </x:sortState>
   <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>

--- a/4. WindowAPI/Ninja_Baseball_Batman_Project/AniData/AniData.xlsx
+++ b/4. WindowAPI/Ninja_Baseball_Batman_Project/AniData/AniData.xlsx
@@ -36,6 +36,543 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="311">
   <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_attack.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pointnum_0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Player_picture_normal.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_thunder.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_homerun.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_idle_stay.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_damaged.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_dynamite.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_tryspin.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_damaged1.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_spin.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Player_hpbar_full.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_O</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_L</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_R</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_M</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_W</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_S</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_P</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_N</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_Q</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_Y</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blue_R</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_J</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blue_G</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_E</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Object</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_U</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_X</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_G</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blue_O</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_V</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ending</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Drafted</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_H</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blue_A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_C</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_F</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blue_V</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Player</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_T</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_D</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blue_M</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blue_E</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_dead.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Player_hpbar_empty.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_idle.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Select_background.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_win.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_walk.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/playerselect_deco.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_jump.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_S.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_K.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Select.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/hit_ani.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_Q.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_readyforfight</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound/PlayerSelect.wav</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound/Ryno_attack.wav</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_H.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Blue_M.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Blue_G.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_G.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_dynamite_shooting</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_Y.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_O.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Drafted.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Blue_O.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_F.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_A.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_M.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Orange_R.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Orange_O.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Ryno_tag.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound/TitleScene.wav</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_I.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_five.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/employed.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound/Ryno_dynamite.wav</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Orange_E.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound/Baseball_dead.wav</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Blue_E.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_C.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Orange_C.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Background1_BackStage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Jose_tag.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_nine.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Blue_R.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_D.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_six.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_L.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_N.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Player_picture_frame</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_E.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Player_picture_normal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_P.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_zero.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_one.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Player.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_U.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_T.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_R.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound/Baseball_hit.wav</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound/Ryno_homerun.wav</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_V.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Blue_V.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Blue_A.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Orange_S.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/Player/Ryno.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_W.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_X.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_Z.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_J.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_B.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Blue_two.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_two.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Blue_one.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_four.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HUD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_dynamite_ball</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_area_attack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound/Ending.wav</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Player_hpbar_empty</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound/Ryno_hit.wav</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Player_select_deco</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Select_background</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound/Ryno_dead.wav</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/UI/HUD.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Player_picture_hurt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_underattack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Player_hpbar_full</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sprite Data Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound/PlayScene.wav</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/UI/Object.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Roger_select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stage_6_boss</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PlayScene_BGM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_damaged</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_idle_stay</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_dead</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Title_screen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_homerun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_hit_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Roger_selected</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jose_selected</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Title_Screen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_tryspin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Straw_selected</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Origin Sprite</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_damaged1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_hit</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_hit_2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_selected</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Data Address</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_dynamite2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_dynamite</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound Address</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Player_Select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sprite Address</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_hit_4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_punch</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Straw_select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Selected_sound</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_Underbar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_kick</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Animation Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_thunder</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_attack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_hit_3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound Data Name</x:t>
+  </x:si>
+  <x:si>
     <x:t>Sound/Ryno_dynamite_shooting.wav</x:t>
   </x:si>
   <x:si>
@@ -57,916 +594,379 @@
     <x:t>AniData/Player/Ryno/Ryno_run.txt</x:t>
   </x:si>
   <x:si>
-    <x:t>AniData/UI/Player_hpbar_full.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_spin.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_attack.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_win.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_jump.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Player_hpbar_empty.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_walk.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Select_background.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/playerselect_deco.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_dead.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_idle.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_H.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Drafted.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Blue_O.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_K.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_F.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Blue_M.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_S.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Select.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Blue_G.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_A.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_G.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_M.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Orange_R.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_dynamite_shooting</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_Y.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_readyforfight</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_five.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound/Ryno_attack.wav</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Orange_O.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_O.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound/PlayerSelect.wav</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Ryno_tag.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound/TitleScene.wav</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_I.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/employed.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/hit_ani.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_Q.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound/Ryno_dynamite.wav</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Orange_E.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound/Baseball_dead.wav</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_one.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound/Baseball_hit.wav</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_U.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_R.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Player_picture_frame</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_Z.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_W.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_D.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_P.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_L.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Orange_C.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Orange_S.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound/Ryno_homerun.wav</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_X.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/Player/Ryno.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Player.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_V.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_E.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_N.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_six.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_J.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_T.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Jose_tag.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_nine.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Player_picture_normal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_zero.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Blue_E.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Blue_V.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_C.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Blue_A.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Background1_BackStage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Blue_R.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_four.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_B.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Blue_two.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_two.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Blue_one.txt</x:t>
+    <x:t>Orange_9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Background1/Background1_BackStage.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Baseball/Baseball_punch.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Baseball/Baseball_Kick.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_underattack.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Baseball/Baseball_hit_2.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Baseball/Baseball_hit_1.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_dynamite_ball.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Baseball/Baseball_hit_3.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Baseball/Baseball_hit_4.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Baseball/Baseball_dead.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_Area_attack.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Orange_five.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound/Baseball_attack.wav</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_seven.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/UI/titlescreen.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/titlescreen.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Orange_seven.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Orange_zero.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Orange_one.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Orange_dash.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Orange_three.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound/Ryno_dynamite2.wav</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Roger_select.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_eight.txt</x:t>
   </x:si>
   <x:si>
     <x:t>AniData/UI/Pointnum_six.txt</x:t>
   </x:si>
   <x:si>
-    <x:t>AniData/UI/Orange_three.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HUD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound/Ryno_dynamite2.wav</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound/Baseball_attack.wav</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Orange_five.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_seven.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Orange_seven.txt</x:t>
-  </x:si>
-  <x:si>
     <x:t>AniData/UI/Roger_tag.txt</x:t>
   </x:si>
   <x:si>
-    <x:t>AniData/UI/Orange_zero.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Player_picture_hurt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Player_hpbar_empty</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_dynamite_ball</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Player_select_deco</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/UI/Object.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_area_attack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound/PlayScene.wav</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sprite Data Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound/Ryno_hit.wav</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Select_background</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_underattack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Player_hpbar_full</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound/Ending.wav</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound/Ryno_dead.wav</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/UI/HUD.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_R</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_L</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_O</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_B</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_P</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_N</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_W</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_S</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_M</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_Q</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_U</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_V</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_E</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_Y</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_X</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_J</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Blue_R</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_G</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_one</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Object</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Blue_O</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Blue_G</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_Z</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Blue_V</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Drafted</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ending</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_F</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_two</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_D</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Player</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Blue_M</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_T</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_H</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Blue_A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_six</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_C</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Blue_E</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Orange_seven</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_dead</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PlayScene_BGM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_homerun</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Title_screen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_idle_stay</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_hit_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pointnum_five</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Roger_selected</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jose_selected</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Title_Screen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stage_6_boss</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Roger_select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_damaged</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pointnum_nine</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sprite Address</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Animation Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_hit_4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_damaged1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pointnum_eight</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Orange_eight</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_punch</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Origin Sprite</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_tryspin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_selected</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_kick</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_Underbar</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_attack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Straw_select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pointnum_six</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pointnum_zero</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Selected_sound</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pointnum_four</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_thunder</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Data Address</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pointnum_three</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_hit_2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_dynamite2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pointnum_seven</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Orange_three</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_hit</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound Address</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Straw_selected</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pointnum_two</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_dynamite</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Player_Select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound Data Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pointnum_one</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_hit_3</x:t>
+    <x:t>AniData/Monster/Baseball/Baseball_ReadyForFight.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Select_BGM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Orange_R</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Orange_C</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Orange_O</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_tag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_idle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_dead</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Orange_E</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_run</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Roger_tag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Background1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1P_select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Player_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_hit</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jose_select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Background</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_fly</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jose_tag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Orange_S</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Title_sound</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Straw_tag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_win</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_spin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_jump</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_walk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_attack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hit_Image</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Employed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Orange_dash</x:t>
   </x:si>
   <x:si>
     <x:t>AniData/UI/Green_Underbar.txt</x:t>
   </x:si>
   <x:si>
-    <x:t>AniData/Monster/Baseball/Baseball_punch.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Baseball/Baseball_Kick.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Baseball/Baseball_dead.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Baseball/Baseball_hit_1.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_Area_attack.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_dynamite_ball.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_underattack.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Baseball/Baseball_hit_4.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Baseball/Baseball_hit_3.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Baseball/Baseball_hit_2.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Background1/Background1_BackStage.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Player_picture_normal.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_damaged.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_dynamite.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_thunder.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_idle_stay.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_damaged1.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_tryspin.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_homerun.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Baseball/Baseball_ReadyForFight.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Blue_four</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Blue_five</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_tag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_nine</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Orange_R</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Orange_O</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_idle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Orange_nine</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_dead</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Orange_C</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Select_BGM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Orange_six</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Orange_two</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Orange_E</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Orange_zero</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jose_select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_three</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Roger_tag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1P_select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Background</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Orange_one</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Background1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_hit</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_fly</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_run</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_eight</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jose_tag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_seven</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Player_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_zero</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_attack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_five</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Title_sound</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_jump</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hit_Image</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_walk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_spin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Orange_dash</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Orange_S</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Straw_tag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Orange_five</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_win</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Employed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Blue_three</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Orange_four</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Blue_two</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Blue_one</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_four</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/UI/titlescreen.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Orange_dash.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/titlescreen.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Orange_one.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Roger_select.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_eight.txt</x:t>
+    <x:t>AniData/UI/Roger_selected.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Pointnum_three.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Jose_selected.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Jose_select.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Orange_two.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Blue_five.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/Monster/Baseball.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Orange_four.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Orange_nine.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Player_name.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/UI/PlayerSelect.bmp</x:t>
   </x:si>
   <x:si>
     <x:t>AniData/UI/Straw_select.txt</x:t>
   </x:si>
   <x:si>
-    <x:t>AniData/UI/Jose_select.txt</x:t>
+    <x:t>AniData/UI/Pointnum_one.txt</x:t>
   </x:si>
   <x:si>
     <x:t>AniData/UI/Blue_three.txt</x:t>
   </x:si>
   <x:si>
+    <x:t>AniData/UI/1P_select.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Ryno_select.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound/Selected_sound.wav</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Blue_four.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Orange_eight.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Pointnum_two.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Straw_tag.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Orange_six.txt</x:t>
+  </x:si>
+  <x:si>
     <x:t>AniData/UI/Num_three.txt</x:t>
   </x:si>
   <x:si>
-    <x:t>Image/Monster/Baseball.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/1P_select.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Orange_nine.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Blue_four.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Pointnum_two.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/UI/PlayerSelect.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Orange_two.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Blue_five.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Orange_six.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Ryno_select.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Player_name.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Straw_tag.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Orange_eight.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound/Selected_sound.wav</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Pointnum_one.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Orange_four.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Pointnum_three.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Jose_selected.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Roger_selected.txt</x:t>
+    <x:t>AniData/UI/Straw_selected.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Pointnum_eight.txt</x:t>
   </x:si>
   <x:si>
     <x:t>AniData/UI/Pointnum_seven.txt</x:t>
   </x:si>
   <x:si>
+    <x:t>AniData/UI/Pointnum_nine.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Player_picture.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Pointnum_zero.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/Background/Background.bmp</x:t>
+  </x:si>
+  <x:si>
     <x:t>AniData/UI/Pointnum_four.txt</x:t>
   </x:si>
   <x:si>
-    <x:t>AniData/UI/Pointnum_zero.txt</x:t>
+    <x:t>AniData/UI/Pointnum_five.txt</x:t>
   </x:si>
   <x:si>
     <x:t>AniData/UI/Ryno_selected.txt</x:t>
   </x:si>
   <x:si>
-    <x:t>AniData/UI/Pointnum_five.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Pointnum_eight.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/Background/Background.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Pointnum_nine.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Straw_selected.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Player_picture.txt</x:t>
+    <x:t>Num_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blue_2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blue_3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blue_4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blue_5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blue_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pointnum_3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pointnum_4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pointnum_5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pointnum_6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pointnum_7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pointnum_8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pointnum_9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Orange_0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Orange_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Orange_2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Orange_3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Orange_4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Orange_5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Orange_6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pointnum_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pointnum_2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Orange_7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Orange_8</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1780,7 +1780,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:7">
       <x:c r="A1" s="21" t="s">
-        <x:v>102</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B1" s="21" t="s">
         <x:v>167</x:v>
@@ -1793,10 +1793,10 @@
     </x:row>
     <x:row r="2" spans="1:2">
       <x:c r="A2" s="20" t="s">
-        <x:v>162</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B2" s="20" t="s">
-        <x:v>272</x:v>
+        <x:v>201</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1822,66 +1822,66 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="21" t="s">
-        <x:v>198</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="B1" s="21" t="s">
-        <x:v>193</x:v>
+        <x:v>165</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
       <x:c r="A2" s="8" t="s">
-        <x:v>253</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="B2" s="8" t="s">
-        <x:v>35</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2">
       <x:c r="A3" s="8" t="s">
-        <x:v>230</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="B3" s="8" t="s">
-        <x:v>108</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2">
       <x:c r="A4" s="8" t="s">
-        <x:v>196</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="B4" s="8" t="s">
-        <x:v>45</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" s="7" customFormat="1">
       <x:c r="A5" s="7" t="s">
-        <x:v>31</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="B5" s="7" t="s">
-        <x:v>0</x:v>
+        <x:v>179</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2">
       <x:c r="A6" s="8" t="s">
-        <x:v>189</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="B6" s="8" t="s">
-        <x:v>88</x:v>
+        <x:v>208</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2">
       <x:c r="A7" s="8" t="s">
-        <x:v>244</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B7" s="8" t="s">
-        <x:v>103</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2">
       <x:c r="A8" s="8" t="s">
-        <x:v>155</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="B8" s="8" t="s">
-        <x:v>60</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1908,112 +1908,112 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="21" t="s">
-        <x:v>168</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="B1" s="21" t="s">
-        <x:v>174</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="C1" s="21" t="s">
-        <x:v>186</x:v>
+        <x:v>162</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="12" t="s">
-        <x:v>153</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B2" s="12" t="s">
-        <x:v>245</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="C2" s="12" t="s">
-        <x:v>204</x:v>
+        <x:v>196</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="12" t="s">
-        <x:v>158</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="B3" s="12" t="s">
-        <x:v>245</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="C3" s="12" t="s">
-        <x:v>205</x:v>
+        <x:v>192</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="12" t="s">
-        <x:v>188</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B4" s="12" t="s">
-        <x:v>245</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="C4" s="12" t="s">
-        <x:v>211</x:v>
+        <x:v>191</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
       <x:c r="A5" s="12" t="s">
-        <x:v>200</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="B5" s="12" t="s">
-        <x:v>245</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="C5" s="12" t="s">
-        <x:v>210</x:v>
+        <x:v>194</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
       <x:c r="A6" s="12" t="s">
-        <x:v>169</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="B6" s="12" t="s">
-        <x:v>245</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="C6" s="12" t="s">
-        <x:v>209</x:v>
+        <x:v>195</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
       <x:c r="A7" s="12" t="s">
-        <x:v>177</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="B7" s="12" t="s">
-        <x:v>245</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="C7" s="12" t="s">
-        <x:v>203</x:v>
+        <x:v>189</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
       <x:c r="A8" s="12" t="s">
-        <x:v>173</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="B8" s="12" t="s">
-        <x:v>245</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="C8" s="12" t="s">
-        <x:v>202</x:v>
+        <x:v>188</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
       <x:c r="A9" s="12" t="s">
-        <x:v>33</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="B9" s="12" t="s">
-        <x:v>245</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="C9" s="12" t="s">
-        <x:v>221</x:v>
+        <x:v>213</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
       <x:c r="A10" s="4" t="s">
-        <x:v>257</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="B10" s="4" t="s">
-        <x:v>97</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="C10" s="4" t="s">
-        <x:v>43</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2042,34 +2042,34 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="21" t="s">
-        <x:v>198</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="B1" s="21" t="s">
-        <x:v>193</x:v>
+        <x:v>165</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
       <x:c r="A2" s="8" t="s">
-        <x:v>179</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="B2" s="8" t="s">
-        <x:v>89</x:v>
+        <x:v>199</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2">
       <x:c r="A3" s="8" t="s">
-        <x:v>153</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B3" s="8" t="s">
-        <x:v>47</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2">
       <x:c r="A4" s="8" t="s">
-        <x:v>192</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B4" s="8" t="s">
-        <x:v>49</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2084,7 +2084,7 @@
   <x:dimension ref="A1:C29"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="A10" activeCellId="0" sqref="A10:A10"/>
+      <x:selection activeCell="A20" activeCellId="0" sqref="A20:A20"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
@@ -2096,211 +2096,211 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="21" t="s">
-        <x:v>168</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="B1" s="21" t="s">
-        <x:v>174</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="C1" s="21" t="s">
-        <x:v>186</x:v>
+        <x:v>162</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="12" t="s">
-        <x:v>163</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="B2" s="12" t="s">
-        <x:v>241</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="C2" s="12" t="s">
-        <x:v>3</x:v>
+        <x:v>182</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="10" t="s">
-        <x:v>78</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B3" s="10" t="s">
-        <x:v>243</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="C3" s="10" t="s">
-        <x:v>212</x:v>
+        <x:v>187</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="12" t="s">
-        <x:v>96</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B4" s="12" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C4" s="10" t="s">
-        <x:v>12</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
       <x:c r="A5" s="12" t="s">
-        <x:v>106</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B5" s="12" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C5" s="10" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
       <x:c r="A6" s="12" t="s">
-        <x:v>251</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="B6" s="12" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C6" s="10" t="s">
-        <x:v>292</x:v>
+        <x:v>255</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3" s="11" customFormat="1">
       <x:c r="A7" s="10" t="s">
-        <x:v>52</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B7" s="10" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C7" s="10" t="s">
-        <x:v>310</x:v>
+        <x:v>273</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
       <x:c r="A8" s="12" t="s">
-        <x:v>95</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="B8" s="12" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C8" s="10" t="s">
-        <x:v>1</x:v>
+        <x:v>180</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
       <x:c r="A9" s="12" t="s">
-        <x:v>72</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B9" s="12" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C9" s="10" t="s">
-        <x:v>213</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
       <x:c r="A10" s="10" t="s">
-        <x:v>182</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B10" s="10" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C10" s="10" t="s">
-        <x:v>303</x:v>
+        <x:v>274</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
       <x:c r="A11" s="10" t="s">
-        <x:v>199</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="B11" s="10" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C11" s="10" t="s">
-        <x:v>296</x:v>
+        <x:v>258</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3">
       <x:c r="A12" s="10" t="s">
-        <x:v>195</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="B12" s="10" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C12" s="10" t="s">
-        <x:v>286</x:v>
+        <x:v>265</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3">
       <x:c r="A13" s="10" t="s">
-        <x:v>187</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B13" s="10" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C13" s="10" t="s">
-        <x:v>298</x:v>
+        <x:v>247</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:3">
       <x:c r="A14" s="10" t="s">
-        <x:v>184</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B14" s="10" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C14" s="10" t="s">
-        <x:v>302</x:v>
+        <x:v>276</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:3">
       <x:c r="A15" s="10" t="s">
-        <x:v>159</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B15" s="10" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C15" s="10" t="s">
-        <x:v>305</x:v>
+        <x:v>277</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:3">
       <x:c r="A16" s="10" t="s">
-        <x:v>181</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B16" s="10" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C16" s="10" t="s">
-        <x:v>85</x:v>
+        <x:v>211</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:3">
       <x:c r="A17" s="10" t="s">
-        <x:v>190</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="B17" s="10" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C17" s="10" t="s">
-        <x:v>301</x:v>
+        <x:v>271</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:3">
       <x:c r="A18" s="10" t="s">
-        <x:v>171</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="B18" s="10" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C18" s="10" t="s">
-        <x:v>306</x:v>
+        <x:v>270</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:3">
       <x:c r="A19" s="10" t="s">
-        <x:v>166</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="B19" s="10" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C19" s="10" t="s">
-        <x:v>308</x:v>
+        <x:v>272</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:3">
@@ -2379,7 +2379,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="21" t="s">
-        <x:v>102</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B1" s="21" t="s">
         <x:v>167</x:v>
@@ -2387,26 +2387,26 @@
     </x:row>
     <x:row r="2" spans="1:2">
       <x:c r="A2" s="3" t="s">
-        <x:v>241</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="B2" s="3" t="s">
-        <x:v>307</x:v>
+        <x:v>275</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2">
       <x:c r="A3" s="3" t="s">
-        <x:v>243</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B3" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>184</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2">
       <x:c r="A4" s="3" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="B4" s="3" t="s">
-        <x:v>109</x:v>
+        <x:v>136</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2420,8 +2420,8 @@
   <x:sheetPr codeName="Sheet12"/>
   <x:dimension ref="A1:C58"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="C16" activeCellId="0" sqref="C16:C16"/>
+    <x:sheetView topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="A25" activeCellId="0" sqref="A25:A25"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
@@ -2433,640 +2433,640 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="21" t="s">
-        <x:v>168</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="B1" s="21" t="s">
-        <x:v>174</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="C1" s="21" t="s">
-        <x:v>186</x:v>
+        <x:v>162</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="3" t="s">
-        <x:v>163</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="B2" s="3" t="s">
-        <x:v>241</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="C2" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>182</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="3" t="s">
-        <x:v>78</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B3" s="3" t="s">
-        <x:v>243</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="C3" s="3" t="s">
-        <x:v>212</x:v>
+        <x:v>187</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="20" t="s">
-        <x:v>145</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B4" s="20" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C4" s="3" t="s">
-        <x:v>77</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
       <x:c r="A5" s="3" t="s">
-        <x:v>151</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
-        <x:v>74</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
       <x:c r="A6" s="3" t="s">
-        <x:v>133</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B6" s="3" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C6" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
       <x:c r="A7" s="3" t="s">
-        <x:v>142</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B7" s="3" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C7" s="3" t="s">
-        <x:v>23</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
       <x:c r="A8" s="3" t="s">
-        <x:v>131</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B8" s="3" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C8" s="3" t="s">
-        <x:v>20</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
       <x:c r="A9" s="3" t="s">
-        <x:v>126</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B9" s="3" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C9" s="3" t="s">
-        <x:v>79</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
       <x:c r="A10" s="3" t="s">
-        <x:v>135</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B10" s="3" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C10" s="3" t="s">
-        <x:v>75</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3" s="1" customFormat="1">
       <x:c r="A11" s="1" t="s">
-        <x:v>270</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B11" s="1" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C11" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3" s="1" customFormat="1">
       <x:c r="A12" s="1" t="s">
-        <x:v>269</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="B12" s="1" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C12" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3" s="1" customFormat="1">
       <x:c r="A13" s="1" t="s">
-        <x:v>267</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="B13" s="1" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C13" s="1" t="s">
-        <x:v>280</x:v>
+        <x:v>259</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:3" s="1" customFormat="1">
       <x:c r="A14" s="1" t="s">
-        <x:v>222</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="B14" s="1" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C14" s="1" t="s">
-        <x:v>285</x:v>
+        <x:v>263</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:3" s="1" customFormat="1">
       <x:c r="A15" s="1" t="s">
-        <x:v>223</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B15" s="1" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C15" s="1" t="s">
-        <x:v>289</x:v>
+        <x:v>251</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:3">
       <x:c r="A16" s="3" t="s">
-        <x:v>236</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="B16" s="3" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C16" s="3" t="s">
-        <x:v>94</x:v>
+        <x:v>204</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:3">
       <x:c r="A17" s="3" t="s">
-        <x:v>242</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B17" s="3" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C17" s="3" t="s">
-        <x:v>275</x:v>
+        <x:v>205</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:3">
       <x:c r="A18" s="3" t="s">
-        <x:v>234</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B18" s="3" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C18" s="3" t="s">
-        <x:v>288</x:v>
+        <x:v>250</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:3">
       <x:c r="A19" s="3" t="s">
-        <x:v>191</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="B19" s="3" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C19" s="3" t="s">
-        <x:v>86</x:v>
+        <x:v>207</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:3">
       <x:c r="A20" s="3" t="s">
-        <x:v>268</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="B20" s="3" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C20" s="3" t="s">
-        <x:v>297</x:v>
+        <x:v>253</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:3">
       <x:c r="A21" s="3" t="s">
-        <x:v>264</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="B21" s="3" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C21" s="3" t="s">
-        <x:v>90</x:v>
+        <x:v>198</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:3">
       <x:c r="A22" s="3" t="s">
-        <x:v>233</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="B22" s="3" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C22" s="3" t="s">
-        <x:v>290</x:v>
+        <x:v>267</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:3">
       <x:c r="A23" s="3" t="s">
-        <x:v>152</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="B23" s="3" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C23" s="3" t="s">
-        <x:v>92</x:v>
+        <x:v>203</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:3">
       <x:c r="A24" s="3" t="s">
-        <x:v>172</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="B24" s="3" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C24" s="3" t="s">
-        <x:v>294</x:v>
+        <x:v>264</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:3">
       <x:c r="A25" s="3" t="s">
-        <x:v>229</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="B25" s="3" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C25" s="3" t="s">
-        <x:v>284</x:v>
+        <x:v>254</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:3">
       <x:c r="A26" s="3" t="s">
-        <x:v>262</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B26" s="3" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C26" s="3" t="s">
-        <x:v>59</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:3">
       <x:c r="A27" s="3" t="s">
-        <x:v>231</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B27" s="3" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C27" s="3" t="s">
-        <x:v>58</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:3">
       <x:c r="A28" s="3" t="s">
-        <x:v>227</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="B28" s="3" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C28" s="3" t="s">
-        <x:v>36</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:3">
       <x:c r="A29" s="3" t="s">
-        <x:v>226</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="B29" s="3" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C29" s="3" t="s">
-        <x:v>30</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:3">
       <x:c r="A30" s="3" t="s">
-        <x:v>235</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="B30" s="3" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C30" s="3" t="s">
-        <x:v>46</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:3">
       <x:c r="A31" s="3" t="s">
-        <x:v>260</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B31" s="3" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C31" s="3" t="s">
-        <x:v>273</x:v>
+        <x:v>206</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:3">
       <x:c r="A32" s="2" t="s">
-        <x:v>146</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B32" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C32" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:3">
       <x:c r="A33" s="2" t="s">
-        <x:v>113</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B33" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C33" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:3">
       <x:c r="A34" s="2" t="s">
-        <x:v>149</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B34" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C34" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:3">
       <x:c r="A35" s="2" t="s">
-        <x:v>140</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B35" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C35" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:3">
       <x:c r="A36" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B36" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C36" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:3">
       <x:c r="A37" s="2" t="s">
-        <x:v>138</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="B37" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C37" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:3">
       <x:c r="A38" s="2" t="s">
-        <x:v>127</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B38" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C38" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:3">
       <x:c r="A39" s="2" t="s">
-        <x:v>144</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B39" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C39" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:3">
       <x:c r="A40" s="2" t="s">
-        <x:v>132</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B40" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C40" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:3">
       <x:c r="A41" s="2" t="s">
-        <x:v>125</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B41" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C41" s="2" t="s">
-        <x:v>68</x:v>
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:3">
       <x:c r="A42" s="2" t="s">
-        <x:v>128</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B42" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C42" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:3">
       <x:c r="A43" s="2" t="s">
-        <x:v>111</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B43" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C43" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:3">
       <x:c r="A44" s="2" t="s">
-        <x:v>118</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B44" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C44" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:3">
       <x:c r="A45" s="2" t="s">
-        <x:v>115</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B45" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C45" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:3">
       <x:c r="A46" s="2" t="s">
-        <x:v>112</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B46" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C46" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:3">
       <x:c r="A47" s="2" t="s">
-        <x:v>114</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B47" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C47" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:3">
       <x:c r="A48" s="2" t="s">
-        <x:v>119</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B48" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C48" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:3">
       <x:c r="A49" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B49" s="2" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="C49" s="2" t="s">
         <x:v>110</x:v>
-      </x:c>
-      <x:c r="B49" s="2" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="C49" s="2" t="s">
-        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:3">
       <x:c r="A50" s="2" t="s">
-        <x:v>117</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B50" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C50" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:3">
       <x:c r="A51" s="2" t="s">
-        <x:v>143</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B51" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C51" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:3">
       <x:c r="A52" s="2" t="s">
-        <x:v>120</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B52" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C52" s="2" t="s">
-        <x:v>50</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:3">
       <x:c r="A53" s="2" t="s">
-        <x:v>121</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B53" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C53" s="2" t="s">
-        <x:v>64</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:3">
       <x:c r="A54" s="2" t="s">
-        <x:v>116</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B54" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C54" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:3">
       <x:c r="A55" s="2" t="s">
-        <x:v>124</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B55" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C55" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:3">
       <x:c r="A56" s="2" t="s">
-        <x:v>123</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B56" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C56" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:3">
       <x:c r="A57" s="2" t="s">
-        <x:v>134</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B57" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C57" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:3">
       <x:c r="A58" s="2" t="s">
-        <x:v>178</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="B58" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C58" s="2" t="s">
-        <x:v>201</x:v>
+        <x:v>245</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3095,18 +3095,18 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="21" t="s">
-        <x:v>198</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="B1" s="21" t="s">
-        <x:v>193</x:v>
+        <x:v>165</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
       <x:c r="A2" s="5" t="s">
-        <x:v>137</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="B2" s="5" t="s">
-        <x:v>107</x:v>
+        <x:v>130</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3133,24 +3133,24 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="21" t="s">
-        <x:v>168</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="B1" s="21" t="s">
-        <x:v>174</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="C1" s="21" t="s">
-        <x:v>186</x:v>
+        <x:v>162</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="20" t="s">
-        <x:v>156</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B2" s="20" t="s">
-        <x:v>162</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="C2" s="20" t="s">
-        <x:v>274</x:v>
+        <x:v>202</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3176,18 +3176,18 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="21" t="s">
-        <x:v>198</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="B1" s="21" t="s">
-        <x:v>193</x:v>
+        <x:v>165</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
       <x:c r="A2" s="20" t="s">
-        <x:v>255</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="B2" s="20" t="s">
-        <x:v>40</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3213,7 +3213,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="21" t="s">
-        <x:v>102</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B1" s="21" t="s">
         <x:v>167</x:v>
@@ -3221,18 +3221,18 @@
     </x:row>
     <x:row r="2" spans="1:2">
       <x:c r="A2" s="20" t="s">
-        <x:v>197</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="B2" s="20" t="s">
-        <x:v>287</x:v>
+        <x:v>256</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2">
       <x:c r="A3" s="20" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="B3" s="20" t="s">
-        <x:v>109</x:v>
+        <x:v>136</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3247,7 +3247,7 @@
   <x:dimension ref="A1:C31"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="A31" activeCellId="0" sqref="A31:A31"/>
+      <x:selection activeCell="A32" activeCellId="0" sqref="A32:A32"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
@@ -3259,343 +3259,343 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="21" t="s">
-        <x:v>168</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="B1" s="21" t="s">
-        <x:v>174</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="C1" s="21" t="s">
-        <x:v>186</x:v>
+        <x:v>162</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="20" t="s">
-        <x:v>240</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B2" s="20" t="s">
-        <x:v>197</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="C2" s="20" t="s">
-        <x:v>283</x:v>
+        <x:v>260</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="20" t="s">
-        <x:v>136</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="B3" s="20" t="s">
-        <x:v>197</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="C3" s="20" t="s">
-        <x:v>19</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="20" t="s">
-        <x:v>266</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B4" s="20" t="s">
-        <x:v>197</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="C4" s="20" t="s">
-        <x:v>42</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
       <x:c r="A5" s="20" t="s">
-        <x:v>237</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="B5" s="20" t="s">
-        <x:v>197</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="C5" s="20" t="s">
-        <x:v>279</x:v>
+        <x:v>249</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
       <x:c r="A6" s="20" t="s">
-        <x:v>161</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="B6" s="20" t="s">
-        <x:v>197</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="C6" s="20" t="s">
-        <x:v>299</x:v>
+        <x:v>248</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
       <x:c r="A7" s="20" t="s">
-        <x:v>249</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="B7" s="20" t="s">
-        <x:v>197</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="C7" s="20" t="s">
-        <x:v>70</x:v>
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
       <x:c r="A8" s="20" t="s">
-        <x:v>258</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="B8" s="20" t="s">
-        <x:v>197</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="C8" s="20" t="s">
-        <x:v>13</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
       <x:c r="A9" s="20" t="s">
-        <x:v>141</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B9" s="20" t="s">
-        <x:v>197</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="C9" s="20" t="s">
-        <x:v>63</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
       <x:c r="A10" s="20" t="s">
-        <x:v>98</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B10" s="20" t="s">
-        <x:v>197</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="C10" s="20" t="s">
-        <x:v>15</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
       <x:c r="A11" s="20" t="s">
-        <x:v>164</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="B11" s="20" t="s">
-        <x:v>197</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="C11" s="20" t="s">
-        <x:v>276</x:v>
+        <x:v>209</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3">
       <x:c r="A12" s="20" t="s">
-        <x:v>160</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="B12" s="20" t="s">
-        <x:v>197</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="C12" s="20" t="s">
-        <x:v>300</x:v>
+        <x:v>246</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3" s="18" customFormat="1">
       <x:c r="A13" s="18" t="s">
-        <x:v>239</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B13" s="18" t="s">
-        <x:v>197</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="C13" s="18" t="s">
-        <x:v>93</x:v>
+        <x:v>212</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:3">
       <x:c r="A14" s="20" t="s">
+        <x:v>236</x:v>
+      </x:c>
+      <x:c r="B14" s="20" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="C14" s="20" t="s">
         <x:v>261</x:v>
-      </x:c>
-      <x:c r="B14" s="20" t="s">
-        <x:v>197</x:v>
-      </x:c>
-      <x:c r="C14" s="20" t="s">
-        <x:v>291</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:3">
       <x:c r="A15" s="20" t="s">
-        <x:v>176</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="B15" s="20" t="s">
-        <x:v>197</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="C15" s="20" t="s">
-        <x:v>304</x:v>
+        <x:v>278</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:3">
       <x:c r="A16" s="20" t="s">
-        <x:v>224</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="B16" s="20" t="s">
-        <x:v>197</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="C16" s="20" t="s">
-        <x:v>39</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:3">
       <x:c r="A17" s="20" t="s">
-        <x:v>150</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B17" s="20" t="s">
-        <x:v>197</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="C17" s="20" t="s">
-        <x:v>25</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:3">
       <x:c r="A18" s="20" t="s">
-        <x:v>104</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="B18" s="20" t="s">
-        <x:v>197</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="C18" s="20" t="s">
-        <x:v>14</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:3">
       <x:c r="A19" s="20" t="s">
-        <x:v>180</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="B19" s="20" t="s">
-        <x:v>197</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="C19" s="20" t="s">
-        <x:v>278</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:3">
       <x:c r="A20" s="20" t="s">
-        <x:v>194</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B20" s="20" t="s">
-        <x:v>197</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="C20" s="20" t="s">
-        <x:v>309</x:v>
+        <x:v>269</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:3">
       <x:c r="A21" s="20" t="s">
-        <x:v>263</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B21" s="20" t="s">
-        <x:v>197</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="C21" s="20" t="s">
-        <x:v>293</x:v>
+        <x:v>266</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:3">
       <x:c r="A22" s="20" t="s">
-        <x:v>252</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B22" s="20" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C22" s="17" t="s">
-        <x:v>73</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:3">
       <x:c r="A23" s="16" t="s">
-        <x:v>129</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="B23" s="16" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C23" s="16" t="s">
-        <x:v>48</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:3">
       <x:c r="A24" s="16" t="s">
-        <x:v>139</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B24" s="16" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C24" s="16" t="s">
-        <x:v>83</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:3">
       <x:c r="A25" s="16" t="s">
-        <x:v>238</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B25" s="16" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C25" s="16" t="s">
-        <x:v>281</x:v>
+        <x:v>268</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:3">
       <x:c r="A26" s="16" t="s">
-        <x:v>271</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B26" s="16" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C26" s="16" t="s">
-        <x:v>80</x:v>
+        <x:v>126</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:3">
       <x:c r="A27" s="16" t="s">
-        <x:v>254</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="B27" s="16" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C27" s="16" t="s">
-        <x:v>34</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:3">
       <x:c r="A28" s="16" t="s">
-        <x:v>147</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B28" s="16" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C28" s="16" t="s">
-        <x:v>67</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:3">
       <x:c r="A29" s="16" t="s">
-        <x:v>250</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B29" s="16" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C29" s="16" t="s">
-        <x:v>91</x:v>
+        <x:v>200</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:3">
       <x:c r="A30" s="15" t="s">
-        <x:v>248</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="B30" s="15" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C30" s="15" t="s">
-        <x:v>277</x:v>
+        <x:v>210</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:3">
       <x:c r="A31" s="15" t="s">
-        <x:v>225</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="B31" s="15" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C31" s="15" t="s">
-        <x:v>71</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3621,26 +3621,26 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="21" t="s">
-        <x:v>198</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="B1" s="21" t="s">
-        <x:v>193</x:v>
+        <x:v>165</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
       <x:c r="A2" s="9" t="s">
-        <x:v>232</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="B2" s="9" t="s">
-        <x:v>38</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2">
       <x:c r="A3" s="19" t="s">
-        <x:v>183</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="B3" s="19" t="s">
-        <x:v>295</x:v>
+        <x:v>262</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3652,10 +3652,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet6"/>
-  <x:dimension ref="A1:B11"/>
+  <x:dimension ref="A1:B8"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="B3" activeCellId="0" sqref="A3:B3"/>
+      <x:selection activeCell="F14" activeCellId="0" sqref="F14:F14"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
@@ -3666,7 +3666,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="21" t="s">
-        <x:v>102</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B1" s="21" t="s">
         <x:v>167</x:v>
@@ -3674,61 +3674,64 @@
     </x:row>
     <x:row r="2" spans="1:2">
       <x:c r="A2" s="20" t="s">
-        <x:v>130</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="B2" s="20" t="s">
-        <x:v>99</x:v>
+        <x:v>275</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2">
       <x:c r="A3" s="20" t="s">
-        <x:v>87</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B3" s="20" t="s">
-        <x:v>109</x:v>
+        <x:v>184</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2">
       <x:c r="A4" s="20" t="s">
-        <x:v>148</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B4" s="20" t="s">
-        <x:v>62</x:v>
+        <x:v>252</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2">
       <x:c r="A5" s="20" t="s">
-        <x:v>245</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="B5" s="20" t="s">
-        <x:v>282</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:2">
-      <x:c r="A9" s="20" t="s">
-        <x:v>241</x:v>
-      </x:c>
-      <x:c r="B9" s="20" t="s">
-        <x:v>307</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:2">
-      <x:c r="A10" s="20" t="s">
-        <x:v>243</x:v>
-      </x:c>
-      <x:c r="B10" s="20" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:2">
-      <x:c r="A11" s="20" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="B11" s="20" t="s">
-        <x:v>4</x:v>
+        <x:v>117</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:2">
+      <x:c r="A6" s="20" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="B6" s="20" t="s">
+        <x:v>183</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:2">
+      <x:c r="A7" s="20" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="B7" s="20" t="s">
+        <x:v>136</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:2">
+      <x:c r="A8" s="20" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B8" s="20" t="s">
+        <x:v>142</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
+  <x:sortState columnSort="0" caseSensitive="0" ref="A2:B11">
+    <x:sortCondition descending="0" sortBy="value" ref="B2:B11"/>
+  </x:sortState>
   <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
@@ -3751,18 +3754,18 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="21" t="s">
-        <x:v>198</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="B1" s="21" t="s">
-        <x:v>193</x:v>
+        <x:v>165</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
       <x:c r="A2" s="8" t="s">
-        <x:v>154</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="B2" s="8" t="s">
-        <x:v>101</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3789,233 +3792,233 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="21" t="s">
-        <x:v>168</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="B1" s="21" t="s">
-        <x:v>174</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="C1" s="21" t="s">
-        <x:v>186</x:v>
+        <x:v>162</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="12" t="s">
-        <x:v>253</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="B2" s="12" t="s">
-        <x:v>148</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C2" s="14" t="s">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="14" t="s">
-        <x:v>165</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B3" s="14" t="s">
-        <x:v>148</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C3" s="14" t="s">
-        <x:v>214</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="14" t="s">
-        <x:v>170</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B4" s="14" t="s">
-        <x:v>148</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C4" s="14" t="s">
-        <x:v>218</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
       <x:c r="A5" s="14" t="s">
-        <x:v>230</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="B5" s="14" t="s">
-        <x:v>148</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C5" s="14" t="s">
-        <x:v>16</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3" s="13" customFormat="1">
       <x:c r="A6" s="10" t="s">
-        <x:v>196</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="B6" s="10" t="s">
-        <x:v>148</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C6" s="10" t="s">
-        <x:v>215</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3" s="13" customFormat="1">
       <x:c r="A7" s="10" t="s">
-        <x:v>246</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="B7" s="10" t="s">
-        <x:v>148</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C7" s="10" t="s">
-        <x:v>2</x:v>
+        <x:v>181</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3" s="13" customFormat="1">
       <x:c r="A8" s="10" t="s">
-        <x:v>155</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="B8" s="10" t="s">
-        <x:v>148</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C8" s="10" t="s">
-        <x:v>220</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
       <x:c r="A9" s="14" t="s">
-        <x:v>228</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B9" s="14" t="s">
-        <x:v>148</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C9" s="14" t="s">
-        <x:v>17</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
       <x:c r="A10" s="14" t="s">
-        <x:v>157</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B10" s="14" t="s">
-        <x:v>148</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C10" s="14" t="s">
-        <x:v>217</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
       <x:c r="A11" s="14" t="s">
-        <x:v>256</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="B11" s="14" t="s">
-        <x:v>148</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C11" s="14" t="s">
-        <x:v>11</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3">
       <x:c r="A12" s="14" t="s">
-        <x:v>247</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B12" s="14" t="s">
-        <x:v>148</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C12" s="14" t="s">
-        <x:v>6</x:v>
+        <x:v>185</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3">
       <x:c r="A13" s="14" t="s">
-        <x:v>259</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B13" s="14" t="s">
-        <x:v>148</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C13" s="14" t="s">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:3">
       <x:c r="A14" s="14" t="s">
-        <x:v>175</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="B14" s="14" t="s">
-        <x:v>148</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C14" s="14" t="s">
-        <x:v>219</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:3">
       <x:c r="A15" s="14" t="s">
-        <x:v>105</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B15" s="14" t="s">
-        <x:v>148</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C15" s="14" t="s">
-        <x:v>208</x:v>
+        <x:v>190</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:3">
       <x:c r="A16" s="14" t="s">
-        <x:v>258</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="B16" s="14" t="s">
-        <x:v>148</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C16" s="14" t="s">
-        <x:v>13</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:3">
       <x:c r="A17" s="14" t="s">
-        <x:v>265</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="B17" s="14" t="s">
-        <x:v>148</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C17" s="14" t="s">
-        <x:v>10</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:3">
       <x:c r="A18" s="10" t="s">
-        <x:v>97</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B18" s="10" t="s">
-        <x:v>97</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="C18" s="14" t="s">
-        <x:v>207</x:v>
+        <x:v>193</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:3">
       <x:c r="A19" s="14" t="s">
-        <x:v>100</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B19" s="6" t="s">
-        <x:v>97</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="C19" s="14" t="s">
-        <x:v>206</x:v>
+        <x:v>197</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:3">
       <x:c r="A20" s="14" t="s">
-        <x:v>185</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="B20" s="6" t="s">
-        <x:v>97</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="C20" s="14" t="s">
-        <x:v>216</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:3">
       <x:c r="A21" s="4" t="s">
-        <x:v>257</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="B21" s="4" t="s">
-        <x:v>97</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="C21" s="4" t="s">
-        <x:v>43</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:3">

--- a/4. WindowAPI/Ninja_Baseball_Batman_Project/AniData/AniData.xlsx
+++ b/4. WindowAPI/Ninja_Baseball_Batman_Project/AniData/AniData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="13620" tabRatio="500" activeTab="15"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="13620" tabRatio="500" activeTab="14"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="TitleScene_Sprites" sheetId="1" r:id="rId4"/>
@@ -36,885 +36,885 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="311">
   <x:si>
+    <x:t>AniData/UI/Straw_select.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Orange_zero.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Orange_dash.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound/Ryno_dynamite2.wav</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Roger_select.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Orange_one.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Orange_three.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_Underbar.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Roger_selected.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Pointnum_three.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Jose_selected.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound/Baseball_attack.wav</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/UI/titlescreen.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Orange_five.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/titlescreen.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Orange_seven.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_seven.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_Area_attack.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Orange_nine.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Orange_four.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/Monster/Baseball.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Straw_selected.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_attack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hit_Image</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Employed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Orange_dash</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_win</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_spin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Title_sound</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Straw_tag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jose_tag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_fly</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Orange_S</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Background</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_jump</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_walk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Baseball/Baseball_hit_4.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Baseball/Baseball_dead.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_tryspin.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_damaged1.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Player_picture_normal.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_homerun.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_damaged.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_thunder.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_dynamite.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_idle_stay.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Background1/Background1_BackStage.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Baseball/Baseball_Kick.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_underattack.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Baseball/Baseball_hit_2.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Baseball/Baseball_punch.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Player_name.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/UI/PlayerSelect.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_R</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_L</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_W</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_M</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_S</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_O</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blue_R</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ending</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_H</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blue_O</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_Y</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_E</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_U</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_N</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_G</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blue_A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_J</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Drafted</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_Q</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_V</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_X</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_P</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Object</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blue_G</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_C</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_F</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blue_V</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Player</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_T</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_D</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blue_M</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blue_E</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blue_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blue_5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blue_3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blue_2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blue_4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HUD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Roger_tag.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Jose_select.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Blue_five.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Orange_two.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_eight.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Pointnum_six.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_six.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Player_picture_frame</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Player_picture_normal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_E.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_P.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Orange_C.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_zero.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Background1_BackStage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Jose_tag.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_nine.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Blue_R.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_D.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_C.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_L.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_N.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Blue_E.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Blue_V.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Blue_one.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_one.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound/Ryno_homerun.wav</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/Player/Ryno.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Blue_two.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_two.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_J.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Orange_S.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound/Baseball_hit.wav</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_V.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_Z.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_B.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_X.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_R.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_U.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Blue_A.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_W.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Player.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_T.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_four.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_G.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_Y.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Orange_R.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_K.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Select.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Blue_O.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_F.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Orange_O.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound/Ryno_dynamite.wav</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Orange_E.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound/Baseball_dead.wav</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_S.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_five.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound/Ryno_attack.wav</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_M.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_I.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Drafted.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Blue_G.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_dynamite_shooting</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_H.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_O.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_A.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_Q.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_readyforfight</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Ryno_tag.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound/TitleScene.wav</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/employed.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/hit_ani.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound/PlayerSelect.wav</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Blue_M.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Pointnum_eight.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Baseball/Baseball_hit_3.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Baseball/Baseball_hit_1.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_dynamite_ball.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Orange_9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Player_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_hit</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_tag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_dead</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_idle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Orange_E</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_run</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Orange_C</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Background1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1P_select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Orange_R</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Select_BGM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Orange_O</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Roger_tag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jose_select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pointnum_0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_win.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/playerselect_deco.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Player_picture_hurt.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Player_hpbar_full.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Select_background.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/Background/Background1.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_spin.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_fly.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_jump.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_run.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound/Ryno_dynamite_shooting.wav</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_walk.txt</x:t>
+  </x:si>
+  <x:si>
     <x:t>AniData/Player/Ryno/Ryno_attack.txt</x:t>
   </x:si>
   <x:si>
-    <x:t>Pointnum_0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Player_picture_normal.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_thunder.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_homerun.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_idle_stay.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_damaged.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_dynamite.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_tryspin.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_damaged1.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_spin.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Player_hpbar_full.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_O</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_B</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_L</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_R</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_M</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_W</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_S</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_P</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_N</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_Q</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_Y</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Blue_R</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_J</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Blue_G</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_E</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Object</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_U</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_X</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_G</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Blue_O</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_V</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ending</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Drafted</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_H</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Blue_A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_C</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_F</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Blue_V</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Player</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_T</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_Z</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_D</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Blue_M</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Blue_E</x:t>
+    <x:t>AniData/Background/stage_6_Boss.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/Player/Ryno_dynamite_ball.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Player_hpbar_empty.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_idle.txt</x:t>
   </x:si>
   <x:si>
     <x:t>AniData/Player/Ryno/Ryno_dead.txt</x:t>
   </x:si>
   <x:si>
-    <x:t>AniData/UI/Player_hpbar_empty.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_idle.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Select_background.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_win.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_walk.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/playerselect_deco.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_jump.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_S.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_K.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Select.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/hit_ani.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_Q.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_readyforfight</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound/PlayerSelect.wav</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound/Ryno_attack.wav</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_H.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Blue_M.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Blue_G.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_G.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_dynamite_shooting</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_Y.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_O.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Drafted.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Blue_O.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_F.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_A.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_M.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Orange_R.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Orange_O.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Ryno_tag.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound/TitleScene.wav</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_I.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_five.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/employed.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound/Ryno_dynamite.wav</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Orange_E.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound/Baseball_dead.wav</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Blue_E.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_C.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Orange_C.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Background1_BackStage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Jose_tag.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_nine.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Blue_R.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_D.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_six.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_L.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_N.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Player_picture_frame</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_E.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Player_picture_normal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_P.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_zero.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_one.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Player.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_U.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_T.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_R.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound/Baseball_hit.wav</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound/Ryno_homerun.wav</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_V.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Blue_V.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Blue_A.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Orange_S.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/Player/Ryno.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_W.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_X.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_Z.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_J.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_B.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Blue_two.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_two.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Blue_one.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_four.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HUD</x:t>
+    <x:t>AniData/Monster/Baseball/Baseball_ReadyForFight.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_damaged</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Title_screen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_dead</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_idle_stay</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_hit_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_homerun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Roger_select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Straw_selected</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Roger_selected</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jose_selected</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PlayScene_BGM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_tryspin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Title_Screen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stage_6_boss</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_selected</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_Underbar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_hit</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Straw_select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_dynamite</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_thunder</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Selected_sound</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_hit_4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_attack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_dynamite2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_damaged1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_hit_2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sprite Address</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_punch</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Player_Select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Origin Sprite</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Animation Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Data Address</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound Address</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_hit_3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound Data Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_kick</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Straw_tag.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Blue_three.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Pointnum_two.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound/Selected_sound.wav</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Orange_eight.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Ryno_select.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Orange_six.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Pointnum_one.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_three.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/1P_select.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Blue_four.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_area_attack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Player_hpbar_empty</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Player_picture_hurt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_underattack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Player_hpbar_full</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sprite Data Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/UI/HUD.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/UI/Object.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Player_select_deco</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound/Ryno_dead.wav</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Select_background</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound/Ending.wav</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound/PlayScene.wav</x:t>
   </x:si>
   <x:si>
     <x:t>Ryno_dynamite_ball</x:t>
   </x:si>
   <x:si>
-    <x:t>Ryno_area_attack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound/Ending.wav</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Player_hpbar_empty</x:t>
-  </x:si>
-  <x:si>
     <x:t>Sound/Ryno_hit.wav</x:t>
   </x:si>
   <x:si>
-    <x:t>Player_select_deco</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Select_background</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound/Ryno_dead.wav</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/UI/HUD.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Player_picture_hurt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_underattack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Player_hpbar_full</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sprite Data Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound/PlayScene.wav</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/UI/Object.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Roger_select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stage_6_boss</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PlayScene_BGM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_damaged</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_idle_stay</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_dead</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Title_screen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_homerun</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_hit_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Roger_selected</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jose_selected</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Title_Screen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_tryspin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Straw_selected</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Origin Sprite</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_damaged1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_hit</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_hit_2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_selected</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Data Address</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_dynamite2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_dynamite</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound Address</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Player_Select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sprite Address</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_hit_4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_punch</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Straw_select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Selected_sound</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_Underbar</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_kick</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Animation Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_thunder</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_attack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_hit_3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound Data Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound/Ryno_dynamite_shooting.wav</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Player_picture_hurt.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_fly.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Background/stage_6_Boss.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/Player/Ryno_dynamite_ball.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/Background/Background1.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_run.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Orange_9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Background1/Background1_BackStage.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Baseball/Baseball_punch.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Baseball/Baseball_Kick.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_underattack.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Baseball/Baseball_hit_2.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Baseball/Baseball_hit_1.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_dynamite_ball.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Baseball/Baseball_hit_3.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Baseball/Baseball_hit_4.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Baseball/Baseball_dead.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_Area_attack.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Orange_five.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound/Baseball_attack.wav</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_seven.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/UI/titlescreen.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/titlescreen.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Orange_seven.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Orange_zero.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Orange_one.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Orange_dash.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Orange_three.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound/Ryno_dynamite2.wav</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Roger_select.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_eight.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Pointnum_six.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Roger_tag.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Baseball/Baseball_ReadyForFight.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Select_BGM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Orange_R</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Orange_C</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Orange_O</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_tag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_idle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_dead</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Orange_E</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_run</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Roger_tag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Background1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1P_select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Player_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_hit</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jose_select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Background</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_fly</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jose_tag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Orange_S</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Title_sound</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Straw_tag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_win</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_spin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_jump</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_walk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_attack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hit_Image</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Employed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Orange_dash</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_Underbar.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Roger_selected.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Pointnum_three.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Jose_selected.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Jose_select.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Orange_two.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Blue_five.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/Monster/Baseball.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Orange_four.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Orange_nine.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Player_name.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/UI/PlayerSelect.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Straw_select.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Pointnum_one.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Blue_three.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/1P_select.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Ryno_select.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound/Selected_sound.wav</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Blue_four.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Orange_eight.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Pointnum_two.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Straw_tag.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Orange_six.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_three.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Straw_selected.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Pointnum_eight.txt</x:t>
+    <x:t>Image/Background/Background.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Player_picture.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Pointnum_four.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Pointnum_five.txt</x:t>
   </x:si>
   <x:si>
     <x:t>AniData/UI/Pointnum_seven.txt</x:t>
   </x:si>
   <x:si>
+    <x:t>AniData/UI/Ryno_selected.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Pointnum_zero.txt</x:t>
+  </x:si>
+  <x:si>
     <x:t>AniData/UI/Pointnum_nine.txt</x:t>
   </x:si>
   <x:si>
-    <x:t>AniData/UI/Player_picture.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Pointnum_zero.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/Background/Background.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Pointnum_four.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Pointnum_five.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Ryno_selected.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Blue_2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Blue_3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Blue_4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Blue_5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Blue_1</x:t>
-  </x:si>
-  <x:si>
     <x:t>Pointnum_3</x:t>
   </x:si>
   <x:si>
@@ -924,46 +924,46 @@
     <x:t>Pointnum_5</x:t>
   </x:si>
   <x:si>
+    <x:t>Pointnum_9</x:t>
+  </x:si>
+  <x:si>
     <x:t>Pointnum_6</x:t>
   </x:si>
   <x:si>
     <x:t>Pointnum_7</x:t>
   </x:si>
   <x:si>
+    <x:t>Orange_0</x:t>
+  </x:si>
+  <x:si>
     <x:t>Pointnum_8</x:t>
   </x:si>
   <x:si>
-    <x:t>Pointnum_9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Orange_0</x:t>
-  </x:si>
-  <x:si>
     <x:t>Orange_1</x:t>
   </x:si>
   <x:si>
+    <x:t>Orange_3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Orange_5</x:t>
+  </x:si>
+  <x:si>
     <x:t>Orange_2</x:t>
   </x:si>
   <x:si>
-    <x:t>Orange_3</x:t>
+    <x:t>Orange_7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pointnum_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pointnum_2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Orange_6</x:t>
   </x:si>
   <x:si>
     <x:t>Orange_4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Orange_5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Orange_6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pointnum_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pointnum_2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Orange_7</x:t>
   </x:si>
   <x:si>
     <x:t>Orange_8</x:t>
@@ -1780,10 +1780,10 @@
   <x:sheetData>
     <x:row r="1" spans="1:7">
       <x:c r="A1" s="21" t="s">
-        <x:v>140</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="B1" s="21" t="s">
-        <x:v>167</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="C1" s="21"/>
       <x:c r="D1" s="21"/>
@@ -1793,10 +1793,10 @@
     </x:row>
     <x:row r="2" spans="1:2">
       <x:c r="A2" s="20" t="s">
-        <x:v>154</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B2" s="20" t="s">
-        <x:v>201</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1822,66 +1822,66 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="21" t="s">
-        <x:v>178</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B1" s="21" t="s">
-        <x:v>165</x:v>
+        <x:v>255</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
       <x:c r="A2" s="8" t="s">
-        <x:v>241</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B2" s="8" t="s">
-        <x:v>67</x:v>
+        <x:v>165</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2">
       <x:c r="A3" s="8" t="s">
-        <x:v>220</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="B3" s="8" t="s">
-        <x:v>135</x:v>
+        <x:v>279</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2">
       <x:c r="A4" s="8" t="s">
-        <x:v>164</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="B4" s="8" t="s">
-        <x:v>87</x:v>
+        <x:v>160</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" s="7" customFormat="1">
       <x:c r="A5" s="7" t="s">
-        <x:v>72</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="B5" s="7" t="s">
-        <x:v>179</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2">
       <x:c r="A6" s="8" t="s">
-        <x:v>163</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B6" s="8" t="s">
-        <x:v>208</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2">
       <x:c r="A7" s="8" t="s">
-        <x:v>227</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="B7" s="8" t="s">
-        <x:v>132</x:v>
+        <x:v>284</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2">
       <x:c r="A8" s="8" t="s">
-        <x:v>150</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B8" s="8" t="s">
-        <x:v>112</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1908,112 +1908,112 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="21" t="s">
-        <x:v>174</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="B1" s="21" t="s">
-        <x:v>157</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="C1" s="21" t="s">
-        <x:v>162</x:v>
+        <x:v>254</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="12" t="s">
-        <x:v>148</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B2" s="12" t="s">
-        <x:v>228</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="C2" s="12" t="s">
-        <x:v>196</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="12" t="s">
-        <x:v>151</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B3" s="12" t="s">
-        <x:v>228</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="C3" s="12" t="s">
-        <x:v>192</x:v>
+        <x:v>184</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="12" t="s">
-        <x:v>160</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="B4" s="12" t="s">
-        <x:v>228</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="C4" s="12" t="s">
-        <x:v>191</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
       <x:c r="A5" s="12" t="s">
-        <x:v>177</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B5" s="12" t="s">
-        <x:v>228</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="C5" s="12" t="s">
-        <x:v>194</x:v>
+        <x:v>183</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
       <x:c r="A6" s="12" t="s">
-        <x:v>168</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B6" s="12" t="s">
-        <x:v>228</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="C6" s="12" t="s">
-        <x:v>195</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
       <x:c r="A7" s="12" t="s">
-        <x:v>173</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B7" s="12" t="s">
-        <x:v>228</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="C7" s="12" t="s">
-        <x:v>189</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
       <x:c r="A8" s="12" t="s">
-        <x:v>169</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="B8" s="12" t="s">
-        <x:v>228</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="C8" s="12" t="s">
-        <x:v>188</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
       <x:c r="A9" s="12" t="s">
-        <x:v>65</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="B9" s="12" t="s">
-        <x:v>228</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="C9" s="12" t="s">
-        <x:v>213</x:v>
+        <x:v>222</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
       <x:c r="A10" s="4" t="s">
-        <x:v>242</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B10" s="4" t="s">
-        <x:v>128</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="C10" s="4" t="s">
-        <x:v>63</x:v>
+        <x:v>179</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2042,34 +2042,34 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="21" t="s">
-        <x:v>178</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B1" s="21" t="s">
-        <x:v>165</x:v>
+        <x:v>255</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
       <x:c r="A2" s="8" t="s">
-        <x:v>176</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B2" s="8" t="s">
-        <x:v>199</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2">
       <x:c r="A3" s="8" t="s">
-        <x:v>148</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B3" s="8" t="s">
-        <x:v>89</x:v>
+        <x:v>162</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2">
       <x:c r="A4" s="8" t="s">
-        <x:v>159</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="B4" s="8" t="s">
-        <x:v>111</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2096,134 +2096,134 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="21" t="s">
-        <x:v>174</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="B1" s="21" t="s">
-        <x:v>157</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="C1" s="21" t="s">
-        <x:v>162</x:v>
+        <x:v>254</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="12" t="s">
-        <x:v>144</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B2" s="12" t="s">
-        <x:v>230</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C2" s="12" t="s">
-        <x:v>182</x:v>
+        <x:v>217</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="10" t="s">
-        <x:v>93</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="B3" s="10" t="s">
-        <x:v>224</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="C3" s="10" t="s">
-        <x:v>187</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="12" t="s">
-        <x:v>131</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="B4" s="12" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C4" s="10" t="s">
-        <x:v>53</x:v>
+        <x:v>219</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
       <x:c r="A5" s="12" t="s">
-        <x:v>139</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="B5" s="12" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C5" s="10" t="s">
-        <x:v>11</x:v>
+        <x:v>207</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
       <x:c r="A6" s="12" t="s">
-        <x:v>226</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="B6" s="12" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C6" s="10" t="s">
-        <x:v>255</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3" s="11" customFormat="1">
       <x:c r="A7" s="10" t="s">
-        <x:v>101</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B7" s="10" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C7" s="10" t="s">
-        <x:v>273</x:v>
+        <x:v>286</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
       <x:c r="A8" s="12" t="s">
-        <x:v>137</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="B8" s="12" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C8" s="10" t="s">
-        <x:v>180</x:v>
+        <x:v>206</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
       <x:c r="A9" s="12" t="s">
-        <x:v>103</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B9" s="12" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C9" s="10" t="s">
-        <x:v>2</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
       <x:c r="A10" s="10" t="s">
-        <x:v>1</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="B10" s="10" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C10" s="10" t="s">
-        <x:v>274</x:v>
+        <x:v>291</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
       <x:c r="A11" s="10" t="s">
-        <x:v>307</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="B11" s="10" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C11" s="10" t="s">
-        <x:v>258</x:v>
+        <x:v>266</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3">
       <x:c r="A12" s="10" t="s">
-        <x:v>308</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="B12" s="10" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C12" s="10" t="s">
-        <x:v>265</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3">
@@ -2231,10 +2231,10 @@
         <x:v>293</x:v>
       </x:c>
       <x:c r="B13" s="10" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C13" s="10" t="s">
-        <x:v>247</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:3">
@@ -2242,10 +2242,10 @@
         <x:v>294</x:v>
       </x:c>
       <x:c r="B14" s="10" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C14" s="10" t="s">
-        <x:v>276</x:v>
+        <x:v>287</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:3">
@@ -2253,54 +2253,54 @@
         <x:v>295</x:v>
       </x:c>
       <x:c r="B15" s="10" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C15" s="10" t="s">
-        <x:v>277</x:v>
+        <x:v>288</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:3">
       <x:c r="A16" s="10" t="s">
-        <x:v>296</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="B16" s="10" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C16" s="10" t="s">
-        <x:v>211</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:3">
       <x:c r="A17" s="10" t="s">
-        <x:v>297</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="B17" s="10" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C17" s="10" t="s">
-        <x:v>271</x:v>
+        <x:v>289</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:3">
       <x:c r="A18" s="10" t="s">
-        <x:v>298</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="B18" s="10" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C18" s="10" t="s">
-        <x:v>270</x:v>
+        <x:v>182</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:3">
       <x:c r="A19" s="10" t="s">
-        <x:v>299</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B19" s="10" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C19" s="10" t="s">
-        <x:v>272</x:v>
+        <x:v>292</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:3">
@@ -2379,34 +2379,34 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="21" t="s">
-        <x:v>140</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="B1" s="21" t="s">
-        <x:v>167</x:v>
+        <x:v>249</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
       <x:c r="A2" s="3" t="s">
-        <x:v>230</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B2" s="3" t="s">
-        <x:v>275</x:v>
+        <x:v>285</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2">
       <x:c r="A3" s="3" t="s">
-        <x:v>224</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="B3" s="3" t="s">
-        <x:v>184</x:v>
+        <x:v>209</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2">
       <x:c r="A4" s="3" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="B4" s="3" t="s">
-        <x:v>136</x:v>
+        <x:v>276</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2420,8 +2420,8 @@
   <x:sheetPr codeName="Sheet12"/>
   <x:dimension ref="A1:C58"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="A25" activeCellId="0" sqref="A25:A25"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="H6" activeCellId="0" sqref="H6:H6"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
@@ -2433,178 +2433,178 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="21" t="s">
-        <x:v>174</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="B1" s="21" t="s">
-        <x:v>157</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="C1" s="21" t="s">
-        <x:v>162</x:v>
+        <x:v>254</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="3" t="s">
-        <x:v>144</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B2" s="3" t="s">
-        <x:v>230</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C2" s="3" t="s">
-        <x:v>182</x:v>
+        <x:v>217</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="3" t="s">
-        <x:v>93</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="B3" s="3" t="s">
-        <x:v>224</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="C3" s="3" t="s">
-        <x:v>187</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="20" t="s">
-        <x:v>39</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="B4" s="20" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C4" s="3" t="s">
-        <x:v>115</x:v>
+        <x:v>147</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
       <x:c r="A5" s="3" t="s">
-        <x:v>51</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
-        <x:v>90</x:v>
+        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
       <x:c r="A6" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="B6" s="3" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C6" s="3" t="s">
-        <x:v>70</x:v>
+        <x:v>169</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
       <x:c r="A7" s="3" t="s">
-        <x:v>49</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B7" s="3" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C7" s="3" t="s">
-        <x:v>69</x:v>
+        <x:v>181</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
       <x:c r="A8" s="3" t="s">
-        <x:v>34</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B8" s="3" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C8" s="3" t="s">
-        <x:v>76</x:v>
+        <x:v>157</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
       <x:c r="A9" s="3" t="s">
-        <x:v>24</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B9" s="3" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C9" s="3" t="s">
-        <x:v>96</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
       <x:c r="A10" s="3" t="s">
-        <x:v>43</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="B10" s="3" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C10" s="3" t="s">
-        <x:v>114</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3" s="1" customFormat="1">
       <x:c r="A11" s="1" t="s">
-        <x:v>292</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B11" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C11" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3" s="1" customFormat="1">
       <x:c r="A12" s="1" t="s">
-        <x:v>288</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B12" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C12" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>136</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3" s="1" customFormat="1">
       <x:c r="A13" s="1" t="s">
-        <x:v>289</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B13" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C13" s="1" t="s">
-        <x:v>259</x:v>
+        <x:v>260</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:3" s="1" customFormat="1">
       <x:c r="A14" s="1" t="s">
-        <x:v>290</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="B14" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C14" s="1" t="s">
-        <x:v>263</x:v>
+        <x:v>269</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:3" s="1" customFormat="1">
       <x:c r="A15" s="1" t="s">
-        <x:v>291</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="B15" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C15" s="1" t="s">
-        <x:v>251</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:3">
       <x:c r="A16" s="3" t="s">
-        <x:v>300</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="B16" s="3" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C16" s="3" t="s">
-        <x:v>204</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:3">
@@ -2612,76 +2612,76 @@
         <x:v>301</x:v>
       </x:c>
       <x:c r="B17" s="3" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C17" s="3" t="s">
-        <x:v>205</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:3">
       <x:c r="A18" s="3" t="s">
-        <x:v>302</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="B18" s="3" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C18" s="3" t="s">
-        <x:v>250</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:3">
       <x:c r="A19" s="3" t="s">
-        <x:v>303</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B19" s="3" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C19" s="3" t="s">
-        <x:v>207</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:3">
       <x:c r="A20" s="3" t="s">
-        <x:v>304</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="B20" s="3" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C20" s="3" t="s">
-        <x:v>253</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:3">
       <x:c r="A21" s="3" t="s">
-        <x:v>305</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="B21" s="3" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C21" s="3" t="s">
-        <x:v>198</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:3">
       <x:c r="A22" s="3" t="s">
-        <x:v>306</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="B22" s="3" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C22" s="3" t="s">
-        <x:v>267</x:v>
+        <x:v>265</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:3">
       <x:c r="A23" s="3" t="s">
-        <x:v>309</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="B23" s="3" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C23" s="3" t="s">
-        <x:v>203</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:3">
@@ -2689,10 +2689,10 @@
         <x:v>310</x:v>
       </x:c>
       <x:c r="B24" s="3" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C24" s="3" t="s">
-        <x:v>264</x:v>
+        <x:v>263</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:3">
@@ -2700,373 +2700,373 @@
         <x:v>186</x:v>
       </x:c>
       <x:c r="B25" s="3" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C25" s="3" t="s">
-        <x:v>254</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:3">
       <x:c r="A26" s="3" t="s">
-        <x:v>233</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B26" s="3" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C26" s="3" t="s">
-        <x:v>116</x:v>
+        <x:v>139</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:3">
       <x:c r="A27" s="3" t="s">
-        <x:v>216</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="B27" s="3" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C27" s="3" t="s">
-        <x:v>92</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:3">
       <x:c r="A28" s="3" t="s">
-        <x:v>217</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B28" s="3" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C28" s="3" t="s">
-        <x:v>81</x:v>
+        <x:v>159</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:3">
       <x:c r="A29" s="3" t="s">
-        <x:v>215</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="B29" s="3" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C29" s="3" t="s">
-        <x:v>80</x:v>
+        <x:v>154</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:3">
       <x:c r="A30" s="3" t="s">
-        <x:v>221</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="B30" s="3" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C30" s="3" t="s">
-        <x:v>88</x:v>
+        <x:v>161</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:3">
       <x:c r="A31" s="3" t="s">
-        <x:v>244</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B31" s="3" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C31" s="3" t="s">
-        <x:v>206</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:3">
       <x:c r="A32" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="B32" s="2" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C32" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>173</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:3">
       <x:c r="A33" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B33" s="2" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C33" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>143</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:3">
       <x:c r="A34" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B34" s="2" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
         <x:v>127</x:v>
-      </x:c>
-      <x:c r="C34" s="2" t="s">
-        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:3">
       <x:c r="A35" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="B35" s="2" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C35" s="2" t="s">
-        <x:v>97</x:v>
+        <x:v>126</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:3">
       <x:c r="A36" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B36" s="2" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C36" s="2" t="s">
-        <x:v>102</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:3">
       <x:c r="A37" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B37" s="2" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C37" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>158</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:3">
       <x:c r="A38" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B38" s="2" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C38" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:3">
       <x:c r="A39" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="B39" s="2" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C39" s="2" t="s">
-        <x:v>68</x:v>
+        <x:v>171</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:3">
       <x:c r="A40" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="B40" s="2" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C40" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>167</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:3">
       <x:c r="A41" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B41" s="2" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C41" s="2" t="s">
-        <x:v>121</x:v>
+        <x:v>138</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:3">
       <x:c r="A42" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B42" s="2" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C42" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>155</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:3">
       <x:c r="A43" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B43" s="2" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C43" s="2" t="s">
-        <x:v>99</x:v>
+        <x:v>128</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:3">
       <x:c r="A44" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B44" s="2" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C44" s="2" t="s">
-        <x:v>79</x:v>
+        <x:v>166</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:3">
       <x:c r="A45" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="B45" s="2" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C45" s="2" t="s">
-        <x:v>100</x:v>
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:3">
       <x:c r="A46" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B46" s="2" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C46" s="2" t="s">
-        <x:v>74</x:v>
+        <x:v>172</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:3">
       <x:c r="A47" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="B47" s="2" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C47" s="2" t="s">
-        <x:v>104</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:3">
       <x:c r="A48" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="B48" s="2" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C48" s="2" t="s">
-        <x:v>64</x:v>
+        <x:v>174</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:3">
       <x:c r="A49" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B49" s="2" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C49" s="2" t="s">
-        <x:v>110</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:3">
       <x:c r="A50" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B50" s="2" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C50" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>163</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:3">
       <x:c r="A51" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B51" s="2" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C51" s="2" t="s">
-        <x:v>109</x:v>
+        <x:v>150</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:3">
       <x:c r="A52" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B52" s="2" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C52" s="2" t="s">
-        <x:v>108</x:v>
+        <x:v>146</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:3">
       <x:c r="A53" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B53" s="2" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C53" s="2" t="s">
-        <x:v>113</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:3">
       <x:c r="A54" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B54" s="2" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C54" s="2" t="s">
-        <x:v>118</x:v>
+        <x:v>148</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:3">
       <x:c r="A55" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B55" s="2" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C55" s="2" t="s">
-        <x:v>119</x:v>
+        <x:v>144</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:3">
       <x:c r="A56" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B56" s="2" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C56" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>153</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:3">
       <x:c r="A57" s="2" t="s">
-        <x:v>47</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="B57" s="2" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C57" s="2" t="s">
-        <x:v>120</x:v>
+        <x:v>142</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:3">
       <x:c r="A58" s="2" t="s">
-        <x:v>172</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B58" s="2" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C58" s="2" t="s">
-        <x:v>245</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3083,7 +3083,7 @@
   <x:sheetPr codeName="Sheet16"/>
   <x:dimension ref="A1:B2"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <x:selection activeCell="B2" activeCellId="0" sqref="B2:B2"/>
     </x:sheetView>
   </x:sheetViews>
@@ -3095,18 +3095,18 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="21" t="s">
-        <x:v>178</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B1" s="21" t="s">
-        <x:v>165</x:v>
+        <x:v>255</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
       <x:c r="A2" s="5" t="s">
-        <x:v>36</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B2" s="5" t="s">
-        <x:v>130</x:v>
+        <x:v>281</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3133,24 +3133,24 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="21" t="s">
-        <x:v>174</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="B1" s="21" t="s">
-        <x:v>157</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="C1" s="21" t="s">
-        <x:v>162</x:v>
+        <x:v>254</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="20" t="s">
-        <x:v>149</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B2" s="20" t="s">
-        <x:v>154</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="C2" s="20" t="s">
-        <x:v>202</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3176,18 +3176,18 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="21" t="s">
-        <x:v>178</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B1" s="21" t="s">
-        <x:v>165</x:v>
+        <x:v>255</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
       <x:c r="A2" s="20" t="s">
-        <x:v>234</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B2" s="20" t="s">
-        <x:v>83</x:v>
+        <x:v>177</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3213,26 +3213,26 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="21" t="s">
-        <x:v>140</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="B1" s="21" t="s">
-        <x:v>167</x:v>
+        <x:v>249</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
       <x:c r="A2" s="20" t="s">
-        <x:v>166</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="B2" s="20" t="s">
-        <x:v>256</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2">
       <x:c r="A3" s="20" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="B3" s="20" t="s">
-        <x:v>136</x:v>
+        <x:v>276</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3259,343 +3259,343 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="21" t="s">
-        <x:v>174</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="B1" s="21" t="s">
-        <x:v>157</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="C1" s="21" t="s">
-        <x:v>162</x:v>
+        <x:v>254</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="20" t="s">
-        <x:v>225</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="B2" s="20" t="s">
-        <x:v>166</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="C2" s="20" t="s">
-        <x:v>260</x:v>
+        <x:v>268</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="20" t="s">
-        <x:v>37</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B3" s="20" t="s">
-        <x:v>166</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="C3" s="20" t="s">
-        <x:v>75</x:v>
+        <x:v>168</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="20" t="s">
-        <x:v>243</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B4" s="20" t="s">
-        <x:v>166</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="C4" s="20" t="s">
-        <x:v>86</x:v>
+        <x:v>178</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
       <x:c r="A5" s="20" t="s">
-        <x:v>229</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="B5" s="20" t="s">
-        <x:v>166</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="C5" s="20" t="s">
-        <x:v>249</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
       <x:c r="A6" s="20" t="s">
-        <x:v>153</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="B6" s="20" t="s">
-        <x:v>166</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="C6" s="20" t="s">
-        <x:v>248</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
       <x:c r="A7" s="20" t="s">
-        <x:v>232</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B7" s="20" t="s">
-        <x:v>166</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="C7" s="20" t="s">
-        <x:v>94</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
       <x:c r="A8" s="20" t="s">
-        <x:v>240</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="B8" s="20" t="s">
-        <x:v>166</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="C8" s="20" t="s">
-        <x:v>57</x:v>
+        <x:v>215</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
       <x:c r="A9" s="20" t="s">
-        <x:v>44</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B9" s="20" t="s">
-        <x:v>166</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="C9" s="20" t="s">
-        <x:v>107</x:v>
+        <x:v>149</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
       <x:c r="A10" s="20" t="s">
-        <x:v>133</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="B10" s="20" t="s">
-        <x:v>166</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="C10" s="20" t="s">
-        <x:v>58</x:v>
+        <x:v>205</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
       <x:c r="A11" s="20" t="s">
-        <x:v>143</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="B11" s="20" t="s">
-        <x:v>166</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="C11" s="20" t="s">
-        <x:v>209</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3">
       <x:c r="A12" s="20" t="s">
-        <x:v>152</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="B12" s="20" t="s">
-        <x:v>166</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="C12" s="20" t="s">
-        <x:v>246</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3" s="18" customFormat="1">
       <x:c r="A13" s="18" t="s">
-        <x:v>223</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="B13" s="18" t="s">
-        <x:v>166</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="C13" s="18" t="s">
-        <x:v>212</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:3">
       <x:c r="A14" s="20" t="s">
-        <x:v>236</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B14" s="20" t="s">
-        <x:v>166</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="C14" s="20" t="s">
-        <x:v>261</x:v>
+        <x:v>264</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:3">
       <x:c r="A15" s="20" t="s">
-        <x:v>161</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="B15" s="20" t="s">
-        <x:v>166</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="C15" s="20" t="s">
-        <x:v>278</x:v>
+        <x:v>290</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:3">
       <x:c r="A16" s="20" t="s">
-        <x:v>218</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B16" s="20" t="s">
-        <x:v>166</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="C16" s="20" t="s">
-        <x:v>82</x:v>
+        <x:v>176</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:3">
       <x:c r="A17" s="20" t="s">
-        <x:v>50</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B17" s="20" t="s">
-        <x:v>166</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="C17" s="20" t="s">
-        <x:v>62</x:v>
+        <x:v>156</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:3">
       <x:c r="A18" s="20" t="s">
-        <x:v>134</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B18" s="20" t="s">
-        <x:v>166</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="C18" s="20" t="s">
-        <x:v>55</x:v>
+        <x:v>208</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:3">
       <x:c r="A19" s="20" t="s">
-        <x:v>170</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="B19" s="20" t="s">
-        <x:v>166</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="C19" s="20" t="s">
-        <x:v>257</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:3">
       <x:c r="A20" s="20" t="s">
-        <x:v>156</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="B20" s="20" t="s">
-        <x:v>166</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="C20" s="20" t="s">
-        <x:v>269</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:3">
       <x:c r="A21" s="20" t="s">
-        <x:v>235</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B21" s="20" t="s">
-        <x:v>166</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="C21" s="20" t="s">
-        <x:v>266</x:v>
+        <x:v>259</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:3">
       <x:c r="A22" s="20" t="s">
-        <x:v>13</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B22" s="20" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C22" s="17" t="s">
-        <x:v>105</x:v>
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:3">
       <x:c r="A23" s="16" t="s">
-        <x:v>279</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B23" s="16" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C23" s="16" t="s">
-        <x:v>106</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:3">
       <x:c r="A24" s="16" t="s">
-        <x:v>280</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B24" s="16" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C24" s="16" t="s">
-        <x:v>124</x:v>
+        <x:v>137</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:3">
       <x:c r="A25" s="16" t="s">
-        <x:v>281</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B25" s="16" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C25" s="16" t="s">
-        <x:v>268</x:v>
+        <x:v>267</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:3">
       <x:c r="A26" s="16" t="s">
-        <x:v>282</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B26" s="16" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C26" s="16" t="s">
-        <x:v>126</x:v>
+        <x:v>151</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:3">
       <x:c r="A27" s="16" t="s">
-        <x:v>283</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B27" s="16" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C27" s="16" t="s">
-        <x:v>85</x:v>
+        <x:v>164</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:3">
       <x:c r="A28" s="16" t="s">
-        <x:v>284</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B28" s="16" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C28" s="16" t="s">
-        <x:v>98</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:3">
       <x:c r="A29" s="16" t="s">
-        <x:v>285</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B29" s="16" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C29" s="16" t="s">
-        <x:v>200</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:3">
       <x:c r="A30" s="15" t="s">
-        <x:v>286</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B30" s="15" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C30" s="15" t="s">
-        <x:v>210</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:3">
       <x:c r="A31" s="15" t="s">
-        <x:v>287</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B31" s="15" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C31" s="15" t="s">
-        <x:v>95</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3621,23 +3621,23 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="21" t="s">
-        <x:v>178</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B1" s="21" t="s">
-        <x:v>165</x:v>
+        <x:v>255</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
       <x:c r="A2" s="9" t="s">
-        <x:v>214</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="B2" s="9" t="s">
-        <x:v>66</x:v>
+        <x:v>180</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2">
       <x:c r="A3" s="19" t="s">
-        <x:v>171</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B3" s="19" t="s">
         <x:v>262</x:v>
@@ -3666,66 +3666,66 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="21" t="s">
-        <x:v>140</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="B1" s="21" t="s">
-        <x:v>167</x:v>
+        <x:v>249</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
       <x:c r="A2" s="20" t="s">
-        <x:v>230</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B2" s="20" t="s">
-        <x:v>275</x:v>
+        <x:v>285</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2">
       <x:c r="A3" s="20" t="s">
-        <x:v>224</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="B3" s="20" t="s">
-        <x:v>184</x:v>
+        <x:v>209</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2">
       <x:c r="A4" s="20" t="s">
-        <x:v>228</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="B4" s="20" t="s">
-        <x:v>252</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2">
       <x:c r="A5" s="20" t="s">
-        <x:v>46</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="B5" s="20" t="s">
-        <x:v>117</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2">
       <x:c r="A6" s="20" t="s">
-        <x:v>128</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="B6" s="20" t="s">
-        <x:v>183</x:v>
+        <x:v>218</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2">
       <x:c r="A7" s="20" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="B7" s="20" t="s">
-        <x:v>136</x:v>
+        <x:v>276</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2">
       <x:c r="A8" s="20" t="s">
-        <x:v>28</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="B8" s="20" t="s">
-        <x:v>142</x:v>
+        <x:v>277</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3743,7 +3743,7 @@
   <x:dimension ref="A1:B2"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="A2" activeCellId="0" sqref="A2:A2"/>
+      <x:selection activeCell="B13" activeCellId="0" sqref="B13:B13"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
@@ -3754,18 +3754,18 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="21" t="s">
-        <x:v>178</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B1" s="21" t="s">
-        <x:v>165</x:v>
+        <x:v>255</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
       <x:c r="A2" s="8" t="s">
-        <x:v>145</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B2" s="8" t="s">
-        <x:v>141</x:v>
+        <x:v>282</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3792,233 +3792,233 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="21" t="s">
-        <x:v>174</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="B1" s="21" t="s">
-        <x:v>157</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="C1" s="21" t="s">
-        <x:v>162</x:v>
+        <x:v>254</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="12" t="s">
-        <x:v>241</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B2" s="12" t="s">
-        <x:v>46</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C2" s="14" t="s">
-        <x:v>0</x:v>
+        <x:v>216</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="14" t="s">
-        <x:v>146</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B3" s="14" t="s">
-        <x:v>46</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C3" s="14" t="s">
-        <x:v>6</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="14" t="s">
-        <x:v>158</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B4" s="14" t="s">
-        <x:v>46</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C4" s="14" t="s">
-        <x:v>9</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
       <x:c r="A5" s="14" t="s">
-        <x:v>220</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="B5" s="14" t="s">
-        <x:v>46</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C5" s="14" t="s">
-        <x:v>52</x:v>
+        <x:v>221</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3" s="13" customFormat="1">
       <x:c r="A6" s="10" t="s">
-        <x:v>164</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="B6" s="10" t="s">
-        <x:v>46</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C6" s="10" t="s">
-        <x:v>7</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3" s="13" customFormat="1">
       <x:c r="A7" s="10" t="s">
-        <x:v>231</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B7" s="10" t="s">
-        <x:v>46</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C7" s="10" t="s">
-        <x:v>181</x:v>
+        <x:v>211</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3" s="13" customFormat="1">
       <x:c r="A8" s="10" t="s">
-        <x:v>150</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B8" s="10" t="s">
-        <x:v>46</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C8" s="10" t="s">
-        <x:v>4</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
       <x:c r="A9" s="14" t="s">
-        <x:v>219</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="B9" s="14" t="s">
-        <x:v>46</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C9" s="14" t="s">
-        <x:v>54</x:v>
+        <x:v>220</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
       <x:c r="A10" s="14" t="s">
-        <x:v>147</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="B10" s="14" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C10" s="14" t="s">
         <x:v>46</x:v>
-      </x:c>
-      <x:c r="C10" s="14" t="s">
-        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
       <x:c r="A11" s="14" t="s">
-        <x:v>239</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B11" s="14" t="s">
-        <x:v>46</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C11" s="14" t="s">
-        <x:v>59</x:v>
+        <x:v>212</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3">
       <x:c r="A12" s="14" t="s">
-        <x:v>222</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="B12" s="14" t="s">
-        <x:v>46</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C12" s="14" t="s">
-        <x:v>185</x:v>
+        <x:v>213</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3">
       <x:c r="A13" s="14" t="s">
-        <x:v>238</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B13" s="14" t="s">
-        <x:v>46</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C13" s="14" t="s">
-        <x:v>10</x:v>
+        <x:v>210</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:3">
       <x:c r="A14" s="14" t="s">
-        <x:v>155</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="B14" s="14" t="s">
-        <x:v>46</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C14" s="14" t="s">
-        <x:v>8</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:3">
       <x:c r="A15" s="14" t="s">
-        <x:v>138</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="B15" s="14" t="s">
-        <x:v>46</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C15" s="14" t="s">
-        <x:v>190</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:3">
       <x:c r="A16" s="14" t="s">
-        <x:v>240</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="B16" s="14" t="s">
-        <x:v>46</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C16" s="14" t="s">
-        <x:v>57</x:v>
+        <x:v>215</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:3">
       <x:c r="A17" s="14" t="s">
-        <x:v>237</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B17" s="14" t="s">
-        <x:v>46</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C17" s="14" t="s">
-        <x:v>56</x:v>
+        <x:v>204</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:3">
       <x:c r="A18" s="10" t="s">
-        <x:v>128</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="B18" s="10" t="s">
-        <x:v>128</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="C18" s="14" t="s">
-        <x:v>193</x:v>
+        <x:v>185</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:3">
       <x:c r="A19" s="14" t="s">
-        <x:v>129</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="B19" s="6" t="s">
-        <x:v>128</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="C19" s="14" t="s">
-        <x:v>197</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:3">
       <x:c r="A20" s="14" t="s">
-        <x:v>175</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="B20" s="6" t="s">
-        <x:v>128</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="C20" s="14" t="s">
-        <x:v>3</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:3">
       <x:c r="A21" s="4" t="s">
-        <x:v>242</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B21" s="4" t="s">
-        <x:v>128</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="C21" s="4" t="s">
-        <x:v>63</x:v>
+        <x:v>179</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:3">

--- a/4. WindowAPI/Ninja_Baseball_Batman_Project/AniData/AniData.xlsx
+++ b/4. WindowAPI/Ninja_Baseball_Batman_Project/AniData/AniData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="13620" tabRatio="500" activeTab="9"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="13620" tabRatio="500" activeTab="15"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="TitleScene_Sprites" sheetId="1" r:id="rId4"/>
@@ -36,58 +36,763 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="331">
   <x:si>
+    <x:t>AniData/UI/Select_background.txt</x:t>
+  </x:si>
+  <x:si>
     <x:t>Image/Background/Background1.bmp</x:t>
   </x:si>
   <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_fly.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_walk.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Player_picture_hurt.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Player_hpbar_empty.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_idle.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_dead.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_win.txt</x:t>
+  </x:si>
+  <x:si>
     <x:t>AniData/Player/Ryno/Ryno_run.txt</x:t>
   </x:si>
   <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_jump.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_spin.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/Player/Ryno_dynamite_ball.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Player_hpbar_full.txt</x:t>
+  </x:si>
+  <x:si>
     <x:t>AniData/UI/playerselect_deco.txt</x:t>
   </x:si>
   <x:si>
-    <x:t>Image/Player/Ryno_dynamite_ball.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_idle.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Player_hpbar_empty.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_win.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_fly.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_walk.txt</x:t>
-  </x:si>
-  <x:si>
     <x:t>AniData/Player/Ryno/Ryno_attack.txt</x:t>
   </x:si>
   <x:si>
+    <x:t>AniData/Background/stage_6_Boss.txt</x:t>
+  </x:si>
+  <x:si>
     <x:t>Sound/Ryno_dynamite_shooting.wav</x:t>
   </x:si>
   <x:si>
-    <x:t>AniData/UI/Player_picture_hurt.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Background/stage_6_Boss.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_jump.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_dead.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Player_hpbar_full.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_spin.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Select_background.txt</x:t>
+    <x:t>AniData/UI/Blue_three.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Ryno_select.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Orange_dash.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Orange_five.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound/Baseball_attack.wav</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_hit_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound Address</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Animation Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_idle_stay</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Roger_select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_homerun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_dynamite2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_damaged</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_punch</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_hit_3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_dead</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_hit_4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound Data Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_damaged1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Straw_selected</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_selected</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_hit</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_thunder</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PlayScene_BGM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Straw_select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_hit_2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_Underbar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stage_6_boss</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sprite Address</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Title_Screen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Data Address</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_dynamite</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_kick</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_tryspin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Roger_selected</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Origin Sprite</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_attack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Title_screen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Player_Select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jose_selected</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Selected_sound</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Pink_R.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Pink_K.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Pink_C.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Pink_N.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Pink_O.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_Z.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_nine.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Blue_one.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_zero.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Orange_S.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Blue_E.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Pink_S.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_D.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Orange_C.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_six.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_J.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Blue_V.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_V.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_X.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Blue_R.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Blue_two.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/Player/Ryno.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound/Baseball_hit.wav</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound/Ryno_homerun.wav</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_L.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_two.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_one.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_B.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Player_picture_normal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_C.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_T.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Jose_tag.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Pink_E.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_H.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Pink_M.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_O.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_M.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_I.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Orange_E.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Blue_G.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_K.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_F.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_P.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Orange_O.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_five.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_four.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Select.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Orange_R.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_Y.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Player.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_S.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Player_picture_frame</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Background1_BackStage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_W.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_Q.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_G.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_N.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound/Ryno_dynamite.wav</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Ryno_tag.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_readyforfight</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_E.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Drafted.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound/Ryno_attack.wav</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Blue_A.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Blue_O.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Blue_M.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/hit_ani.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_dynamite_shooting</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound/TitleScene.wav</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_U.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_R.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound/Baseball_dead.wav</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound/PlayerSelect.wav</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/employed.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Pink_A.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_A.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HUD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sprite Data Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Player_hpbar_full</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/UI/HUD.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_dynamite_ball</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/UI/Object.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound/Ending.wav</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound/PlayScene.wav</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Player_select_deco</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_area_attack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Player_hpbar_empty</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_underattack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound/Ryno_hit.wav</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Player_picture_hurt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound/Ryno_dead.wav</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_dynamite_crush</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Select_background</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_H</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_S</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pink_S</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pink_E</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blue_R</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_O</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Player</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_X</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_F</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_M</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_U</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_E</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ending</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_N</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_Y</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_P</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_L</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_R</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_J</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_T</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blue_G</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blue_3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blue_4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_V</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blue_A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_D</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_W</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blue_O</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pink_A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blue_V</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blue_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_Q</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_G</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Drafted</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blue_2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pink_R</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pink_N</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blue_E</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blue_5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Object</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pink_C</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pink_M</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pink_K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_C</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blue_M</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pink_O</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Orange_eight.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Player_name.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Blue_five.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Pointnum_one.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_three.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/titlescreen.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Background1/Background1_BackStage.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Pointnum_seven.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Jose_selected.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Pointnum_nine.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Pointnum_eight.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Roger_selected.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_Underbar.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Player_picture.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Straw_selected.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Pointnum_three.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Pointnum_zero.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/Background/Background.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Ryno_selected.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Pointnum_five.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Pointnum_four.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_Area_attack.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Baseball/Baseball_hit_1.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Baseball/Baseball_hit_3.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_underattack.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Baseball/Baseball_Kick.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_dynamite_ball.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Baseball/Baseball_hit_2.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Baseball/Baseball_dead.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Baseball/Baseball_hit_4.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Baseball/Baseball_punch.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/Monster/Baseball.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/1P_select.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Jose_select.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Orange_seven.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/UI/PlayerSelect.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Pointnum_two.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Player_picture_normal.txt</x:t>
   </x:si>
   <x:si>
     <x:t>AniData/Player/Ryno/Ryno_tryspin.txt</x:t>
@@ -96,937 +801,232 @@
     <x:t>AniData/Player/Ryno/Ryno_dynamite.txt</x:t>
   </x:si>
   <x:si>
-    <x:t>AniData/UI/Player_picture_normal.txt</x:t>
+    <x:t>AniData/Player/Ryno/Ryno_damaged1.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_damaged.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_thunder.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_idle_stay.txt</x:t>
   </x:si>
   <x:si>
     <x:t>AniData/Player/Ryno/Ryno_homerun.txt</x:t>
   </x:si>
   <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_damaged.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_idle_stay.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_thunder.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_damaged1.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/Monster/Baseball.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/1P_select.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Jose_select.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Orange_seven.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/UI/PlayerSelect.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Pointnum_two.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_three.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/titlescreen.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Player_name.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Orange_eight.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Pointnum_one.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Pink_R.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Pink_C.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Pink_O.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Pink_K.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Pink_N.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Player_picture_normal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_one.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_X.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Pink_M.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_six.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_nine.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_B.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_J.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/Player/Ryno.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Jose_tag.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Blue_V.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_zero.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Blue_one.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_V.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Orange_S.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Blue_R.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Pink_S.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Blue_two.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_L.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_C.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_Z.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Blue_E.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_D.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_two.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Orange_C.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound/Baseball_hit.wav</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound/Ryno_homerun.wav</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_T.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Pink_E.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_H.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Orange_E.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Blue_A.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_Q.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound/Ryno_attack.wav</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Ryno_tag.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_M.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Select.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_four.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_S.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Orange_O.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_readyforfight</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_O.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_G.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Blue_G.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_I.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_N.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_K.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_E.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_F.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Orange_R.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_Y.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Background1_BackStage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_P.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound/Ryno_dynamite.wav</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_five.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Player.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Drafted.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Player_picture_frame</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_W.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Blue_O.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound/Baseball_dead.wav</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_R.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Pink_A.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound/PlayerSelect.wav</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound/TitleScene.wav</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_dynamite_shooting</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_U.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/hit_ani.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Blue_M.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_A.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/employed.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_hit_3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Animation Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_dead</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Roger_select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_idle_stay</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_hit_4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_damaged1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_homerun</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_dynamite2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_damaged</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound Data Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_punch</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Straw_selected</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_kick</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Straw_select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_thunder</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jose_selected</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Title_Screen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PlayScene_BGM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Selected_sound</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_tryspin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_hit_2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_Underbar</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_selected</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stage_6_boss</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_attack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Title_screen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Roger_selected</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Player_Select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Origin Sprite</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Data Address</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_hit</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sprite Address</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_dynamite</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound Address</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_hit_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Background1/Background1_BackStage.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_underattack.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Baseball/Baseball_Kick.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Baseball/Baseball_hit_4.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_Area_attack.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Baseball/Baseball_punch.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_dynamite_ball.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Baseball/Baseball_hit_1.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Baseball/Baseball_hit_2.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Baseball/Baseball_hit_3.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Baseball/Baseball_dead.txt</x:t>
-  </x:si>
-  <x:si>
     <x:t>AniData/Monster/Baseball/Baseball_ReadyForFight.txt</x:t>
   </x:si>
   <x:si>
-    <x:t>AniData/UI/Blue_five.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Orange_dash.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Orange_five.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Ryno_select.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound/Baseball_attack.wav</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Blue_three.txt</x:t>
+    <x:t>AniData/UI/Orange_nine.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Orange_three.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Straw_tag.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Orange_six.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/UI/titlescreen.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Blue_four.txt</x:t>
   </x:si>
   <x:si>
     <x:t>AniData/UI/Orange_four.txt</x:t>
   </x:si>
   <x:si>
+    <x:t>AniData/UI/Roger_tag.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Orange_two.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_seven.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Roger_select.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Orange_one.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Orange_zero.txt</x:t>
+  </x:si>
+  <x:si>
     <x:t>AniData/UI/Pointnum_six.txt</x:t>
   </x:si>
   <x:si>
-    <x:t>AniData/UI/Roger_tag.txt</x:t>
+    <x:t>AniData/UI/Straw_select.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound/Ryno_dynamite2.wav</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound/Selected_sound.wav</x:t>
   </x:si>
   <x:si>
     <x:t>AniData/UI/Num_eight.txt</x:t>
   </x:si>
   <x:si>
-    <x:t>Sound/Ryno_dynamite2.wav</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Orange_six.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Orange_three.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Straw_select.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Straw_tag.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound/Selected_sound.wav</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Orange_zero.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Orange_two.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/UI/titlescreen.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Orange_nine.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Orange_one.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Blue_four.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_seven.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Roger_select.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Ryno_selected.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Pointnum_zero.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/Background/Background.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Pointnum_five.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Pointnum_four.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Pointnum_seven.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Player_picture.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Jose_selected.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Roger_selected.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Pointnum_nine.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Pointnum_three.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Straw_selected.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Pointnum_eight.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_Underbar.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sprite Data Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_dynamite_ball</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Player_hpbar_empty</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/UI/Object.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/UI/HUD.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_dynamite_crush</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_underattack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Player_hpbar_full</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Select_background</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound/Ryno_hit.wav</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound/Ending.wav</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound/PlayScene.wav</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Player_select_deco</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_area_attack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Player_picture_hurt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound/Ryno_dead.wav</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HUD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pink_S</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pink_E</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_S</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_H</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Blue_R</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_O</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_B</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_M</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_F</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_L</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ending</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_X</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Player</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_P</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_N</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_Y</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_U</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_E</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_R</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_J</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_T</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Blue_G</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Blue_A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_W</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_D</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Blue_V</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Blue_O</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Blue_4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pink_A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_V</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Blue_3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Blue_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_Z</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_G</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Drafted</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_Q</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_C</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Blue_M</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Object</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Blue_E</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Blue_2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Blue_5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pink_R</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pink_O</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pink_K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pink_M</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pink_N</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pink_C</x:t>
+    <x:t>Ryno_select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Orange_E</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_spin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Select_BGM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_jump</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Background1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_win</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_attack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hit_Image</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Straw_tag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_walk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Orange_S</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1P_select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Player_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Background</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Orange_9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_fly</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Employed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Title_sound</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_hit</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jose_tag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pointnum_0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_dead</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pointnum_5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Orange_dash</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_run</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Orange_C</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pointnum_6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Roger_tag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_idle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Orange_R</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Orange_O</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Orange_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_tag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Orange_4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Orange_6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Orange_2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jose_select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Orange_8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Orange_7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pointnum_4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pointnum_2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Orange_0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pointnum_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pointnum_7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pointnum_3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pointnum_8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pointnum_9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Orange_5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Orange_3</x:t>
   </x:si>
   <x:si>
     <x:t>Sound/Ryno_dynamite_crush.wav</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Orange_E</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_jump</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_spin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Select_BGM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1P_select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Straw_tag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Background</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_fly</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Title_sound</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jose_tag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_attack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hit_Image</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_win</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_walk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Employed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Player_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Orange_S</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_hit</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Background1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Orange_9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Roger_tag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_idle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_run</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pointnum_0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Orange_R</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_dead</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Orange_dash</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_tag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Orange_C</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Orange_O</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Orange_4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pointnum_6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Orange_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pointnum_5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Orange_6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Orange_0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Orange_7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Orange_3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pointnum_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pointnum_7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Orange_2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pointnum_3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jose_select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pointnum_9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pointnum_8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Orange_8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pointnum_4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pointnum_2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Orange_5</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1846,10 +1846,10 @@
   <x:sheetData>
     <x:row r="1" spans="1:7">
       <x:c r="A1" s="23" t="s">
-        <x:v>199</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B1" s="23" t="s">
-        <x:v>145</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C1" s="23"/>
       <x:c r="D1" s="23"/>
@@ -1859,10 +1859,10 @@
     </x:row>
     <x:row r="2" spans="1:2">
       <x:c r="A2" s="22" t="s">
-        <x:v>130</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B2" s="22" t="s">
-        <x:v>179</x:v>
+        <x:v>265</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1876,8 +1876,8 @@
   <x:sheetPr codeName="Sheet14"/>
   <x:dimension ref="A1:B9"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="B9" activeCellId="0" sqref="B9:B9"/>
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="A2" activeCellId="0" sqref="A2:A9"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
@@ -1888,50 +1888,50 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="23" t="s">
-        <x:v>123</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B1" s="23" t="s">
-        <x:v>147</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
       <x:c r="A2" s="10" t="s">
-        <x:v>291</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="B2" s="10" t="s">
-        <x:v>75</x:v>
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2">
       <x:c r="A3" s="10" t="s">
-        <x:v>307</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B3" s="10" t="s">
-        <x:v>214</x:v>
+        <x:v>149</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2">
       <x:c r="A4" s="10" t="s">
-        <x:v>146</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B4" s="10" t="s">
-        <x:v>95</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" s="9" customFormat="1">
       <x:c r="A5" s="9" t="s">
-        <x:v>107</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B5" s="9" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2">
       <x:c r="A6" s="10" t="s">
-        <x:v>121</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B6" s="10" t="s">
-        <x:v>171</x:v>
+        <x:v>276</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2">
@@ -1939,23 +1939,23 @@
         <x:v>298</x:v>
       </x:c>
       <x:c r="B7" s="10" t="s">
-        <x:v>208</x:v>
+        <x:v>147</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2">
       <x:c r="A8" s="10" t="s">
-        <x:v>120</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B8" s="10" t="s">
-        <x:v>68</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2">
       <x:c r="A9" s="10" t="s">
-        <x:v>204</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="B9" s="10" t="s">
-        <x:v>279</x:v>
+        <x:v>330</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1970,7 +1970,7 @@
   <x:dimension ref="A1:C10"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="A10" activeCellId="0" sqref="A10:C10"/>
+      <x:selection activeCell="A2" activeCellId="0" sqref="A2:A10"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
@@ -1982,112 +1982,112 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="23" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B1" s="23" t="s">
-        <x:v>142</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C1" s="23" t="s">
-        <x:v>143</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="14" t="s">
-        <x:v>115</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B2" s="14" t="s">
-        <x:v>305</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="C2" s="14" t="s">
-        <x:v>159</x:v>
+        <x:v>243</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="14" t="s">
-        <x:v>148</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B3" s="14" t="s">
-        <x:v>305</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="C3" s="14" t="s">
-        <x:v>156</x:v>
+        <x:v>237</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="14" t="s">
-        <x:v>134</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B4" s="14" t="s">
-        <x:v>305</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="C4" s="14" t="s">
-        <x:v>157</x:v>
+        <x:v>242</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
       <x:c r="A5" s="14" t="s">
-        <x:v>113</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B5" s="14" t="s">
-        <x:v>305</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="C5" s="14" t="s">
-        <x:v>158</x:v>
+        <x:v>238</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
       <x:c r="A6" s="14" t="s">
-        <x:v>118</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B6" s="14" t="s">
-        <x:v>305</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="C6" s="14" t="s">
-        <x:v>152</x:v>
+        <x:v>244</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
       <x:c r="A7" s="14" t="s">
-        <x:v>126</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B7" s="14" t="s">
-        <x:v>305</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="C7" s="14" t="s">
-        <x:v>151</x:v>
+        <x:v>240</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
       <x:c r="A8" s="14" t="s">
-        <x:v>124</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B8" s="14" t="s">
-        <x:v>305</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="C8" s="14" t="s">
-        <x:v>154</x:v>
+        <x:v>245</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
       <x:c r="A9" s="14" t="s">
-        <x:v>82</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B9" s="14" t="s">
-        <x:v>305</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="C9" s="14" t="s">
-        <x:v>160</x:v>
+        <x:v>260</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
       <x:c r="A10" s="6" t="s">
-        <x:v>292</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="B10" s="6" t="s">
-        <x:v>200</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="C10" s="6" t="s">
-        <x:v>109</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2105,7 +2105,7 @@
   <x:dimension ref="A1:B4"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="B4" activeCellId="0" sqref="B4:B4"/>
+      <x:selection activeCell="A2" activeCellId="0" sqref="A2:A4"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
@@ -2116,34 +2116,34 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="23" t="s">
-        <x:v>123</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B1" s="23" t="s">
-        <x:v>147</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
       <x:c r="A2" s="10" t="s">
-        <x:v>138</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B2" s="10" t="s">
-        <x:v>165</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2">
       <x:c r="A3" s="10" t="s">
-        <x:v>115</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B3" s="10" t="s">
-        <x:v>102</x:v>
+        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2">
       <x:c r="A4" s="10" t="s">
-        <x:v>144</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B4" s="10" t="s">
-        <x:v>67</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2158,7 +2158,7 @@
   <x:dimension ref="A1:C29"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="A20" activeCellId="0" sqref="A20:A20"/>
+      <x:selection activeCell="E30" activeCellId="0" sqref="E30:E30"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
@@ -2170,43 +2170,43 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="23" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B1" s="23" t="s">
-        <x:v>142</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C1" s="23" t="s">
-        <x:v>143</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="14" t="s">
-        <x:v>137</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B2" s="14" t="s">
-        <x:v>287</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="C2" s="14" t="s">
-        <x:v>12</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="12" t="s">
-        <x:v>93</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B3" s="12" t="s">
-        <x:v>299</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="C3" s="12" t="s">
-        <x:v>149</x:v>
+        <x:v>221</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="14" t="s">
-        <x:v>201</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="B4" s="14" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C4" s="12" t="s">
         <x:v>5</x:v>
@@ -2214,145 +2214,145 @@
     </x:row>
     <x:row r="5" spans="1:3">
       <x:c r="A5" s="14" t="s">
-        <x:v>206</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="B5" s="14" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C5" s="12" t="s">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
       <x:c r="A6" s="14" t="s">
-        <x:v>296</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B6" s="14" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C6" s="12" t="s">
-        <x:v>34</x:v>
+        <x:v>216</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3" s="13" customFormat="1">
       <x:c r="A7" s="12" t="s">
-        <x:v>99</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B7" s="12" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C7" s="12" t="s">
-        <x:v>191</x:v>
+        <x:v>228</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
       <x:c r="A8" s="14" t="s">
-        <x:v>213</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B8" s="14" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C8" s="12" t="s">
-        <x:v>11</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
       <x:c r="A9" s="14" t="s">
-        <x:v>42</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B9" s="14" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C9" s="12" t="s">
-        <x:v>20</x:v>
+        <x:v>252</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
       <x:c r="A10" s="12" t="s">
-        <x:v>304</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="B10" s="12" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C10" s="12" t="s">
-        <x:v>186</x:v>
+        <x:v>231</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
       <x:c r="A11" s="12" t="s">
-        <x:v>320</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B11" s="12" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C11" s="12" t="s">
-        <x:v>36</x:v>
+        <x:v>218</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3">
       <x:c r="A12" s="12" t="s">
-        <x:v>329</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B12" s="12" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C12" s="12" t="s">
-        <x:v>31</x:v>
+        <x:v>251</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3">
       <x:c r="A13" s="12" t="s">
-        <x:v>323</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B13" s="12" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C13" s="12" t="s">
-        <x:v>195</x:v>
+        <x:v>230</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:3">
       <x:c r="A14" s="12" t="s">
-        <x:v>328</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="B14" s="12" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C14" s="12" t="s">
-        <x:v>189</x:v>
+        <x:v>235</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:3">
       <x:c r="A15" s="12" t="s">
-        <x:v>315</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B15" s="12" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C15" s="12" t="s">
-        <x:v>188</x:v>
+        <x:v>234</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:3">
       <x:c r="A16" s="12" t="s">
-        <x:v>313</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="B16" s="12" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C16" s="12" t="s">
-        <x:v>168</x:v>
+        <x:v>274</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:3">
       <x:c r="A17" s="12" t="s">
-        <x:v>321</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B17" s="12" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C17" s="12" t="s">
-        <x:v>190</x:v>
+        <x:v>222</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:3">
@@ -2360,21 +2360,21 @@
         <x:v>326</x:v>
       </x:c>
       <x:c r="B18" s="12" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C18" s="12" t="s">
-        <x:v>197</x:v>
+        <x:v>225</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:3">
       <x:c r="A19" s="12" t="s">
-        <x:v>325</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B19" s="12" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C19" s="12" t="s">
-        <x:v>194</x:v>
+        <x:v>224</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:3">
@@ -2442,7 +2442,7 @@
   <x:dimension ref="A1:B4"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="A4" activeCellId="0" sqref="A4:B4"/>
+      <x:selection activeCell="A11" activeCellId="0" sqref="A10:A11"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
@@ -2453,34 +2453,34 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="23" t="s">
-        <x:v>199</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B1" s="23" t="s">
-        <x:v>145</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
       <x:c r="A2" s="5" t="s">
-        <x:v>287</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B2" s="5" t="s">
-        <x:v>187</x:v>
+        <x:v>232</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2">
       <x:c r="A3" s="5" t="s">
-        <x:v>299</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B3" s="5" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2">
       <x:c r="A4" s="5" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="B4" s="5" t="s">
-        <x:v>203</x:v>
+        <x:v>138</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2494,8 +2494,8 @@
   <x:sheetPr codeName="Sheet12"/>
   <x:dimension ref="A1:C68"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A37" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="A59" activeCellId="0" sqref="A59:A59"/>
+    <x:sheetView topLeftCell="A30" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="A4" activeCellId="0" sqref="A4:A68"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
@@ -2507,321 +2507,321 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="23" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B1" s="23" t="s">
-        <x:v>142</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C1" s="23" t="s">
-        <x:v>143</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="5" t="s">
-        <x:v>137</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B2" s="5" t="s">
-        <x:v>287</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="C2" s="5" t="s">
-        <x:v>12</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="5" t="s">
-        <x:v>93</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B3" s="5" t="s">
-        <x:v>299</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="C3" s="5" t="s">
-        <x:v>149</x:v>
+        <x:v>221</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="22" t="s">
-        <x:v>243</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="B4" s="22" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C4" s="5" t="s">
-        <x:v>73</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
       <x:c r="A5" s="5" t="s">
-        <x:v>266</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="B5" s="5" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C5" s="5" t="s">
-        <x:v>63</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
       <x:c r="A6" s="5" t="s">
-        <x:v>242</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="B6" s="5" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C6" s="5" t="s">
-        <x:v>85</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
       <x:c r="A7" s="5" t="s">
-        <x:v>264</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="B7" s="5" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C7" s="5" t="s">
-        <x:v>110</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
       <x:c r="A8" s="5" t="s">
-        <x:v>248</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="B8" s="5" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C8" s="5" t="s">
-        <x:v>101</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
       <x:c r="A9" s="5" t="s">
-        <x:v>220</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B9" s="5" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C9" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
       <x:c r="A10" s="5" t="s">
-        <x:v>246</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B10" s="5" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C10" s="5" t="s">
-        <x:v>52</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3" s="3" customFormat="1">
       <x:c r="A11" s="3" t="s">
-        <x:v>255</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="B11" s="3" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C11" s="3" t="s">
-        <x:v>54</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3" s="3" customFormat="1">
       <x:c r="A12" s="3" t="s">
-        <x:v>267</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="B12" s="3" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C12" s="3" t="s">
-        <x:v>59</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3" s="3" customFormat="1">
       <x:c r="A13" s="3" t="s">
-        <x:v>253</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="B13" s="3" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C13" s="3" t="s">
-        <x:v>166</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:3" s="3" customFormat="1">
       <x:c r="A14" s="3" t="s">
-        <x:v>249</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="B14" s="3" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C14" s="3" t="s">
-        <x:v>182</x:v>
+        <x:v>266</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:3" s="3" customFormat="1">
       <x:c r="A15" s="3" t="s">
-        <x:v>268</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="B15" s="3" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C15" s="3" t="s">
-        <x:v>161</x:v>
+        <x:v>217</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:3">
       <x:c r="A16" s="5" t="s">
-        <x:v>317</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="B16" s="5" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C16" s="5" t="s">
-        <x:v>177</x:v>
+        <x:v>273</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:3">
       <x:c r="A17" s="5" t="s">
-        <x:v>314</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="B17" s="5" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C17" s="5" t="s">
-        <x:v>181</x:v>
+        <x:v>272</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:3">
       <x:c r="A18" s="5" t="s">
-        <x:v>322</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="B18" s="5" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C18" s="5" t="s">
-        <x:v>178</x:v>
+        <x:v>269</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:3">
       <x:c r="A19" s="5" t="s">
-        <x:v>319</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B19" s="5" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C19" s="5" t="s">
-        <x:v>173</x:v>
+        <x:v>262</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:3">
       <x:c r="A20" s="5" t="s">
-        <x:v>312</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="B20" s="5" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C20" s="5" t="s">
-        <x:v>167</x:v>
+        <x:v>267</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:3">
       <x:c r="A21" s="5" t="s">
-        <x:v>330</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B21" s="5" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C21" s="5" t="s">
-        <x:v>163</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:3">
       <x:c r="A22" s="5" t="s">
-        <x:v>316</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="B22" s="5" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C22" s="5" t="s">
-        <x:v>172</x:v>
+        <x:v>264</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:3">
       <x:c r="A23" s="5" t="s">
-        <x:v>318</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="B23" s="5" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C23" s="5" t="s">
-        <x:v>29</x:v>
+        <x:v>249</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:3">
       <x:c r="A24" s="5" t="s">
-        <x:v>327</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="B24" s="5" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="C24" s="5" t="s">
         <x:v>215</x:v>
-      </x:c>
-      <x:c r="C24" s="5" t="s">
-        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:3">
       <x:c r="A25" s="5" t="s">
-        <x:v>300</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B25" s="5" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C25" s="5" t="s">
-        <x:v>180</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:3">
       <x:c r="A26" s="5" t="s">
-        <x:v>297</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="B26" s="5" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C26" s="5" t="s">
-        <x:v>56</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:3">
       <x:c r="A27" s="5" t="s">
-        <x:v>310</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="B27" s="5" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C27" s="5" t="s">
-        <x:v>66</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:3">
       <x:c r="A28" s="5" t="s">
-        <x:v>311</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="B28" s="5" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C28" s="5" t="s">
-        <x:v>81</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:3">
       <x:c r="A29" s="5" t="s">
-        <x:v>306</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="B29" s="5" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C29" s="5" t="s">
-        <x:v>91</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:3">
@@ -2829,428 +2829,428 @@
         <x:v>280</x:v>
       </x:c>
       <x:c r="B30" s="5" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C30" s="5" t="s">
-        <x:v>72</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:3">
       <x:c r="A31" s="5" t="s">
-        <x:v>308</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="B31" s="5" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C31" s="5" t="s">
-        <x:v>162</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:3">
       <x:c r="A32" s="4" t="s">
-        <x:v>252</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="B32" s="4" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C32" s="4" t="s">
-        <x:v>111</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:3">
       <x:c r="A33" s="4" t="s">
-        <x:v>222</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B33" s="4" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C33" s="4" t="s">
-        <x:v>48</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:3">
       <x:c r="A34" s="4" t="s">
-        <x:v>263</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B34" s="4" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C34" s="4" t="s">
-        <x:v>61</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:3">
       <x:c r="A35" s="4" t="s">
-        <x:v>245</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="B35" s="4" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C35" s="4" t="s">
-        <x:v>64</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:3">
       <x:c r="A36" s="4" t="s">
-        <x:v>237</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="B36" s="4" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C36" s="4" t="s">
-        <x:v>89</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:3">
       <x:c r="A37" s="4" t="s">
-        <x:v>225</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="B37" s="4" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C37" s="4" t="s">
-        <x:v>90</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:3">
       <x:c r="A38" s="4" t="s">
-        <x:v>259</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="B38" s="4" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C38" s="4" t="s">
-        <x:v>84</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:3">
       <x:c r="A39" s="4" t="s">
-        <x:v>219</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="B39" s="4" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C39" s="4" t="s">
-        <x:v>71</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:3">
       <x:c r="A40" s="4" t="s">
-        <x:v>247</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="B40" s="4" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C40" s="4" t="s">
-        <x:v>86</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:3">
       <x:c r="A41" s="4" t="s">
-        <x:v>240</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="B41" s="4" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C41" s="4" t="s">
-        <x:v>49</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:3">
       <x:c r="A42" s="4" t="s">
-        <x:v>229</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="B42" s="4" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C42" s="4" t="s">
-        <x:v>88</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:3">
       <x:c r="A43" s="4" t="s">
-        <x:v>226</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="B43" s="4" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C43" s="4" t="s">
-        <x:v>60</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:3">
       <x:c r="A44" s="4" t="s">
-        <x:v>223</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="B44" s="4" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C44" s="4" t="s">
-        <x:v>77</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:3">
       <x:c r="A45" s="4" t="s">
-        <x:v>233</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="B45" s="4" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C45" s="4" t="s">
-        <x:v>87</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:3">
       <x:c r="A46" s="4" t="s">
-        <x:v>221</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="B46" s="4" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C46" s="4" t="s">
-        <x:v>83</x:v>
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:3">
       <x:c r="A47" s="4" t="s">
-        <x:v>232</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="B47" s="4" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C47" s="4" t="s">
-        <x:v>94</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:3">
       <x:c r="A48" s="4" t="s">
-        <x:v>261</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="B48" s="4" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C48" s="4" t="s">
-        <x:v>74</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:3">
       <x:c r="A49" s="4" t="s">
-        <x:v>238</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="B49" s="4" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C49" s="4" t="s">
-        <x:v>103</x:v>
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:3">
       <x:c r="A50" s="4" t="s">
-        <x:v>218</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="B50" s="4" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C50" s="4" t="s">
-        <x:v>80</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:3">
       <x:c r="A51" s="4" t="s">
-        <x:v>241</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="B51" s="4" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C51" s="4" t="s">
-        <x:v>69</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:3">
       <x:c r="A52" s="4" t="s">
-        <x:v>236</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="B52" s="4" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C52" s="4" t="s">
-        <x:v>108</x:v>
+        <x:v>128</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:3">
       <x:c r="A53" s="4" t="s">
-        <x:v>251</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="B53" s="4" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C53" s="4" t="s">
-        <x:v>55</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:3">
       <x:c r="A54" s="4" t="s">
-        <x:v>244</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="B54" s="4" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C54" s="4" t="s">
-        <x:v>100</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:3">
       <x:c r="A55" s="4" t="s">
-        <x:v>230</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B55" s="4" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C55" s="4" t="s">
-        <x:v>44</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:3">
       <x:c r="A56" s="4" t="s">
-        <x:v>235</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="B56" s="4" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C56" s="4" t="s">
-        <x:v>92</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:3">
       <x:c r="A57" s="4" t="s">
-        <x:v>258</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="B57" s="4" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C57" s="4" t="s">
-        <x:v>62</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:3">
       <x:c r="A58" s="4" t="s">
-        <x:v>135</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B58" s="4" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C58" s="4" t="s">
-        <x:v>198</x:v>
+        <x:v>227</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:3" s="1" customFormat="1">
       <x:c r="A59" s="1" t="s">
-        <x:v>271</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B59" s="1" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C59" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:3">
       <x:c r="A60" s="22" t="s">
-        <x:v>250</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="B60" s="22" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C60" s="2" t="s">
-        <x:v>104</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:3">
       <x:c r="A61" s="1" t="s">
-        <x:v>277</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="B61" s="1" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C61" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:3">
       <x:c r="A62" s="1" t="s">
-        <x:v>274</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="B62" s="1" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C62" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:3">
       <x:c r="A63" s="1" t="s">
-        <x:v>216</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B63" s="1" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C63" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:3">
       <x:c r="A64" s="1" t="s">
-        <x:v>278</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="B64" s="1" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C64" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:3">
       <x:c r="A65" s="1" t="s">
-        <x:v>273</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="B65" s="1" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C65" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:3">
       <x:c r="A66" s="1" t="s">
-        <x:v>217</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="B66" s="1" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C66" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:3">
       <x:c r="A67" s="1" t="s">
-        <x:v>277</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="B67" s="1" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C67" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:3">
       <x:c r="A68" s="1" t="s">
-        <x:v>276</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="B68" s="1" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C68" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3267,8 +3267,8 @@
   <x:sheetPr codeName="Sheet16"/>
   <x:dimension ref="A1:B2"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="B2" activeCellId="0" sqref="B2:B2"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="A2" activeCellId="0" sqref="A2:A2"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
@@ -3279,18 +3279,18 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="23" t="s">
-        <x:v>123</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B1" s="23" t="s">
-        <x:v>147</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
       <x:c r="A2" s="7" t="s">
-        <x:v>228</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="B2" s="7" t="s">
-        <x:v>209</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3305,7 +3305,7 @@
   <x:dimension ref="A1:C2"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="F5" activeCellId="0" sqref="F5:F5"/>
+      <x:selection activeCell="A2" activeCellId="0" sqref="A2:A2"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
@@ -3317,24 +3317,24 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="23" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B1" s="23" t="s">
-        <x:v>142</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C1" s="23" t="s">
-        <x:v>143</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="22" t="s">
-        <x:v>139</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B2" s="22" t="s">
-        <x:v>130</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C2" s="22" t="s">
-        <x:v>33</x:v>
+        <x:v>220</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3349,7 +3349,7 @@
   <x:dimension ref="A1:B2"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="B1" activeCellId="0" sqref="A1:B1"/>
+      <x:selection activeCell="A2" activeCellId="0" sqref="A2:A2"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
@@ -3360,18 +3360,18 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="23" t="s">
-        <x:v>123</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B1" s="23" t="s">
-        <x:v>147</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
       <x:c r="A2" s="22" t="s">
-        <x:v>289</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="B2" s="22" t="s">
-        <x:v>106</x:v>
+        <x:v>127</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3397,26 +3397,26 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="23" t="s">
-        <x:v>199</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B1" s="23" t="s">
-        <x:v>145</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
       <x:c r="A2" s="22" t="s">
-        <x:v>141</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B2" s="22" t="s">
-        <x:v>30</x:v>
+        <x:v>250</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2">
       <x:c r="A3" s="22" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="B3" s="22" t="s">
-        <x:v>203</x:v>
+        <x:v>138</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3430,8 +3430,8 @@
   <x:sheetPr codeName="Sheet9"/>
   <x:dimension ref="A1:C31"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="A32" activeCellId="0" sqref="A32:A32"/>
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="A2" activeCellId="0" sqref="A2:A31"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
@@ -3443,343 +3443,343 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="23" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B1" s="23" t="s">
-        <x:v>142</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C1" s="23" t="s">
-        <x:v>143</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="22" t="s">
-        <x:v>285</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B2" s="22" t="s">
-        <x:v>141</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C2" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>247</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="22" t="s">
-        <x:v>260</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="B3" s="22" t="s">
-        <x:v>141</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C3" s="22" t="s">
-        <x:v>98</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="22" t="s">
-        <x:v>295</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B4" s="22" t="s">
-        <x:v>141</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C4" s="22" t="s">
-        <x:v>112</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
       <x:c r="A5" s="22" t="s">
-        <x:v>324</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="B5" s="22" t="s">
-        <x:v>141</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C5" s="22" t="s">
-        <x:v>28</x:v>
+        <x:v>248</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
       <x:c r="A6" s="22" t="s">
-        <x:v>129</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B6" s="22" t="s">
-        <x:v>141</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C6" s="22" t="s">
-        <x:v>192</x:v>
+        <x:v>223</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
       <x:c r="A7" s="22" t="s">
-        <x:v>290</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="B7" s="22" t="s">
-        <x:v>141</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C7" s="22" t="s">
-        <x:v>51</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
       <x:c r="A8" s="22" t="s">
-        <x:v>294</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="B8" s="22" t="s">
-        <x:v>141</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C8" s="22" t="s">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
       <x:c r="A9" s="22" t="s">
-        <x:v>231</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B9" s="22" t="s">
-        <x:v>141</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C9" s="22" t="s">
-        <x:v>97</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
       <x:c r="A10" s="22" t="s">
-        <x:v>211</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="B10" s="22" t="s">
-        <x:v>141</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C10" s="22" t="s">
-        <x:v>2</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
       <x:c r="A11" s="22" t="s">
-        <x:v>116</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B11" s="22" t="s">
-        <x:v>141</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C11" s="22" t="s">
-        <x:v>184</x:v>
+        <x:v>271</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3">
       <x:c r="A12" s="22" t="s">
-        <x:v>140</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B12" s="22" t="s">
-        <x:v>141</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C12" s="22" t="s">
-        <x:v>193</x:v>
+        <x:v>226</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3" s="20" customFormat="1">
       <x:c r="A13" s="20" t="s">
-        <x:v>301</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="B13" s="20" t="s">
-        <x:v>141</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C13" s="20" t="s">
-        <x:v>169</x:v>
+        <x:v>268</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:3">
       <x:c r="A14" s="22" t="s">
-        <x:v>283</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="B14" s="22" t="s">
-        <x:v>141</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C14" s="22" t="s">
-        <x:v>164</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:3">
       <x:c r="A15" s="22" t="s">
-        <x:v>136</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B15" s="22" t="s">
-        <x:v>141</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C15" s="22" t="s">
-        <x:v>185</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:3">
       <x:c r="A16" s="22" t="s">
-        <x:v>309</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="B16" s="22" t="s">
-        <x:v>141</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C16" s="22" t="s">
-        <x:v>76</x:v>
+        <x:v>117</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:3">
       <x:c r="A17" s="22" t="s">
-        <x:v>272</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="B17" s="22" t="s">
-        <x:v>141</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C17" s="22" t="s">
-        <x:v>78</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:3">
       <x:c r="A18" s="22" t="s">
-        <x:v>207</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="B18" s="22" t="s">
-        <x:v>141</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C18" s="22" t="s">
-        <x:v>17</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:3">
       <x:c r="A19" s="22" t="s">
-        <x:v>127</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B19" s="22" t="s">
-        <x:v>141</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C19" s="22" t="s">
-        <x:v>174</x:v>
+        <x:v>275</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:3">
       <x:c r="A20" s="22" t="s">
-        <x:v>125</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="B20" s="22" t="s">
-        <x:v>141</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C20" s="22" t="s">
-        <x:v>196</x:v>
+        <x:v>229</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:3">
       <x:c r="A21" s="22" t="s">
-        <x:v>286</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="B21" s="22" t="s">
-        <x:v>141</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C21" s="22" t="s">
-        <x:v>175</x:v>
+        <x:v>263</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:3">
       <x:c r="A22" s="22" t="s">
-        <x:v>224</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="B22" s="22" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C22" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:3">
       <x:c r="A23" s="18" t="s">
-        <x:v>275</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="B23" s="18" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C23" s="18" t="s">
-        <x:v>43</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:3">
       <x:c r="A24" s="18" t="s">
-        <x:v>269</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="B24" s="18" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C24" s="18" t="s">
-        <x:v>65</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:3">
       <x:c r="A25" s="18" t="s">
-        <x:v>257</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="B25" s="18" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C25" s="18" t="s">
-        <x:v>32</x:v>
+        <x:v>219</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:3">
       <x:c r="A26" s="18" t="s">
-        <x:v>239</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="B26" s="18" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C26" s="18" t="s">
-        <x:v>79</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:3">
       <x:c r="A27" s="18" t="s">
-        <x:v>262</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="B27" s="18" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C27" s="18" t="s">
-        <x:v>96</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:3">
       <x:c r="A28" s="18" t="s">
-        <x:v>270</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B28" s="18" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C28" s="18" t="s">
-        <x:v>46</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:3">
       <x:c r="A29" s="18" t="s">
-        <x:v>254</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B29" s="18" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C29" s="18" t="s">
-        <x:v>183</x:v>
+        <x:v>270</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:3">
       <x:c r="A30" s="17" t="s">
-        <x:v>256</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="B30" s="17" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C30" s="17" t="s">
-        <x:v>170</x:v>
+        <x:v>278</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:3">
       <x:c r="A31" s="17" t="s">
-        <x:v>227</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="B31" s="17" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C31" s="17" t="s">
-        <x:v>47</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3794,7 +3794,7 @@
   <x:dimension ref="A1:B3"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="B2" activeCellId="0" sqref="B2:B2"/>
+      <x:selection activeCell="A2" activeCellId="0" sqref="A2:A3"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
@@ -3805,26 +3805,26 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="23" t="s">
-        <x:v>123</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B1" s="23" t="s">
-        <x:v>147</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
       <x:c r="A2" s="11" t="s">
-        <x:v>284</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B2" s="11" t="s">
-        <x:v>105</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2">
       <x:c r="A3" s="21" t="s">
-        <x:v>132</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B3" s="21" t="s">
-        <x:v>176</x:v>
+        <x:v>277</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3850,66 +3850,66 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="23" t="s">
-        <x:v>199</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B1" s="23" t="s">
-        <x:v>145</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
       <x:c r="A2" s="22" t="s">
-        <x:v>287</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B2" s="22" t="s">
-        <x:v>187</x:v>
+        <x:v>232</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2">
       <x:c r="A3" s="22" t="s">
-        <x:v>299</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B3" s="22" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2">
       <x:c r="A4" s="22" t="s">
-        <x:v>305</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B4" s="22" t="s">
-        <x:v>26</x:v>
+        <x:v>246</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2">
       <x:c r="A5" s="22" t="s">
-        <x:v>234</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="B5" s="22" t="s">
-        <x:v>50</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2">
       <x:c r="A6" s="22" t="s">
-        <x:v>200</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B6" s="22" t="s">
-        <x:v>3</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2">
       <x:c r="A7" s="22" t="s">
-        <x:v>215</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="B7" s="22" t="s">
-        <x:v>203</x:v>
+        <x:v>138</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2">
       <x:c r="A8" s="22" t="s">
-        <x:v>265</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="B8" s="22" t="s">
-        <x:v>202</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3927,7 +3927,7 @@
   <x:dimension ref="A1:B2"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="B13" activeCellId="0" sqref="B13:B13"/>
+      <x:selection activeCell="A2" activeCellId="0" sqref="A2:A2"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
@@ -3938,18 +3938,18 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="23" t="s">
-        <x:v>123</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B1" s="23" t="s">
-        <x:v>147</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
       <x:c r="A2" s="10" t="s">
-        <x:v>131</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="B2" s="10" t="s">
-        <x:v>210</x:v>
+        <x:v>142</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3963,8 +3963,8 @@
   <x:sheetPr codeName="Sheet11"/>
   <x:dimension ref="A1:C56"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="A21" activeCellId="0" sqref="A21:C21"/>
+    <x:sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="A2" activeCellId="0" sqref="A2:A21"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
@@ -3976,233 +3976,233 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="23" t="s">
-        <x:v>114</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B1" s="23" t="s">
-        <x:v>142</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C1" s="23" t="s">
-        <x:v>143</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="14" t="s">
-        <x:v>291</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="B2" s="14" t="s">
-        <x:v>234</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="C2" s="16" t="s">
-        <x:v>9</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="16" t="s">
-        <x:v>122</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B3" s="16" t="s">
-        <x:v>234</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="C3" s="16" t="s">
-        <x:v>22</x:v>
+        <x:v>256</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="16" t="s">
-        <x:v>119</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="B4" s="16" t="s">
-        <x:v>234</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="C4" s="16" t="s">
-        <x:v>25</x:v>
+        <x:v>255</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
       <x:c r="A5" s="16" t="s">
-        <x:v>307</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B5" s="16" t="s">
-        <x:v>234</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="C5" s="16" t="s">
-        <x:v>14</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3" s="15" customFormat="1">
       <x:c r="A6" s="12" t="s">
-        <x:v>146</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B6" s="12" t="s">
-        <x:v>234</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="C6" s="12" t="s">
-        <x:v>19</x:v>
+        <x:v>254</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3" s="15" customFormat="1">
       <x:c r="A7" s="12" t="s">
-        <x:v>288</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B7" s="12" t="s">
-        <x:v>234</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="C7" s="12" t="s">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3" s="15" customFormat="1">
       <x:c r="A8" s="12" t="s">
-        <x:v>120</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B8" s="12" t="s">
-        <x:v>234</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="C8" s="12" t="s">
-        <x:v>21</x:v>
+        <x:v>259</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
       <x:c r="A9" s="16" t="s">
-        <x:v>302</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="B9" s="16" t="s">
-        <x:v>234</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="C9" s="16" t="s">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
       <x:c r="A10" s="16" t="s">
-        <x:v>117</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B10" s="16" t="s">
-        <x:v>234</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="C10" s="16" t="s">
-        <x:v>23</x:v>
+        <x:v>258</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
       <x:c r="A11" s="16" t="s">
-        <x:v>281</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="B11" s="16" t="s">
-        <x:v>234</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="C11" s="16" t="s">
-        <x:v>13</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3">
       <x:c r="A12" s="16" t="s">
-        <x:v>303</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="B12" s="16" t="s">
-        <x:v>234</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="C12" s="16" t="s">
-        <x:v>1</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3">
       <x:c r="A13" s="16" t="s">
-        <x:v>282</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B13" s="16" t="s">
-        <x:v>234</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="C13" s="16" t="s">
-        <x:v>16</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:3">
       <x:c r="A14" s="16" t="s">
-        <x:v>133</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B14" s="16" t="s">
-        <x:v>234</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="C14" s="16" t="s">
-        <x:v>18</x:v>
+        <x:v>253</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:3">
       <x:c r="A15" s="16" t="s">
-        <x:v>205</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B15" s="16" t="s">
-        <x:v>234</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="C15" s="16" t="s">
-        <x:v>150</x:v>
+        <x:v>239</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:3">
       <x:c r="A16" s="16" t="s">
-        <x:v>294</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="B16" s="16" t="s">
-        <x:v>234</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="C16" s="16" t="s">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:3">
       <x:c r="A17" s="16" t="s">
-        <x:v>293</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B17" s="16" t="s">
-        <x:v>234</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="C17" s="16" t="s">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:3">
       <x:c r="A18" s="12" t="s">
-        <x:v>200</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B18" s="12" t="s">
-        <x:v>200</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="C18" s="16" t="s">
-        <x:v>155</x:v>
+        <x:v>241</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:3">
       <x:c r="A19" s="16" t="s">
-        <x:v>212</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="B19" s="8" t="s">
-        <x:v>200</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="C19" s="16" t="s">
-        <x:v>153</x:v>
+        <x:v>236</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:3">
       <x:c r="A20" s="16" t="s">
-        <x:v>128</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B20" s="8" t="s">
-        <x:v>200</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="C20" s="16" t="s">
-        <x:v>24</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:3">
       <x:c r="A21" s="6" t="s">
-        <x:v>292</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="B21" s="6" t="s">
-        <x:v>200</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="C21" s="6" t="s">
-        <x:v>109</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:3">

--- a/4. WindowAPI/Ninja_Baseball_Batman_Project/AniData/AniData.xlsx
+++ b/4. WindowAPI/Ninja_Baseball_Batman_Project/AniData/AniData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="13620" tabRatio="500" activeTab="8"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="13620" tabRatio="500" activeTab="15"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="TitleScene_Sprites" sheetId="1" r:id="rId4"/>
@@ -34,57 +34,699 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="367">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="372">
+  <x:si>
+    <x:t>Baseball_hit_sound</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_homerun_sound</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_idle.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/Player/Ryno_dynamite_ball.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/playerselect_deco.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Baseball/Baseball_Kick_rev.txt</x:t>
+  </x:si>
   <x:si>
     <x:t>AniData/Monster/Baseball/Baseball_ReadyForFight.txt</x:t>
   </x:si>
   <x:si>
+    <x:t>Ryno_dynamite_sound</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Player_hpbar_full.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_fly.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Player_picture_hurt.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/Background/Background1.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_attack.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Select_background.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_dead.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_jump.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound/Ryno_dynamite_shooting.wav</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Player_hpbar_empty.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_walk.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_run.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Background/stage_6_Boss.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Jose_tag.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_T.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_readyforfight</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Orange_O.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_Y.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Pink_E.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_four.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Background1_BackStage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Orange_R.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_O.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound/Ryno_dynamite.wav</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_K.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Select.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Player.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Pink_M.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_G.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Drafted.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_Q.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Blue_O.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Blue_G.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_F.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Blue_M.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_five.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_E.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Orange_E.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_S.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_H.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_W.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_N.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Player_picture_frame</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Blue_A.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Ryno_tag.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound/Baseball_hit.wav</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Blue_E.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_six.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Pink_K.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_zero.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_X.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Pink_S.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound/Ryno_attack.wav</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound/Baseball_dead.wav</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_M.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Pink_A.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Orange_S.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound/PlayerSelect.wav</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_D.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_A.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_R.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_C.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_P.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound/TitleScene.wav</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_two.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Orange_C.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/hit_ani.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/employed.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_B.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Player_picture_normal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_L.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Blue_R.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_U.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/Player/Ryno.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_one.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_Z.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_nine.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Blue_V.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Pink_N.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_J.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Pink_R.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Blue_one.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_I.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Blue_two.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound/Ryno_homerun.wav</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Pink_C.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Pink_O.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_V.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_dynamite2_sound</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HUD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pink_C</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_G</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_O</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pink_K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pink_O</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Player</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blue_E</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_U</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blue_M</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blue_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_C</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pink_M</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_L</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pink_N</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pink_R</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_R</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blue_3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Object</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_X</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_S</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pink_S</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_P</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Drafted</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_V</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blue_4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blue_2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blue_5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pink_E</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_W</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_H</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_D</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_T</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_Q</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_J</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blue_G</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blue_V</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_N</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_F</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_M</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pink_A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blue_O</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blue_R</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_E</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Num_4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blue_A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_Y</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_hit_sound</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_idle_stay</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Title_screen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_punch</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_dead_rev</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_fly_rev</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Straw_select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Player_Select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound Data Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Animation Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stage_6_boss</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sprite Address</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Selected_sound</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PlayScene_BGM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_attack_rev</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_dead</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_rev</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Roger_selected</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_jump_rev</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_hit_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_selected</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_idle_rev</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jose_selected</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Origin Sprite</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Straw_selected</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_damaged</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_kick</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green_Underbar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_hit_4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_dynamite</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Title_Screen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_thunder</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_damaged1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_dead_sound</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Roger_select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Data Address</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_homerun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound Address</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_hit_2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_walk_rev</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_hit_3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_run_rev</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_damaged1.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_damaged.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_dead_rev.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_homerun.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_dynamite.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_walk_rev.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_thunder.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_jump_rev.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Player_picture_normal.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_fly_rev.txt</x:t>
+  </x:si>
+  <x:si>
     <x:t>AniData/Player/Ryno/Ryno_idle_stay.txt</x:t>
   </x:si>
   <x:si>
     <x:t>AniData/Player/Ryno/Ryno_attack_rev.txt</x:t>
   </x:si>
   <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_walk_rev.txt</x:t>
+    <x:t>AniData/Player/Ryno/Ryno_run_rev.txt</x:t>
   </x:si>
   <x:si>
     <x:t>AniData/Player/Ryno/Ryno_idle_rev.txt</x:t>
   </x:si>
   <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_jump_rev.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_damaged1.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_thunder.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_run_rev.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_dead_rev.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_homerun.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_dynamite.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_fly_rev.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_damaged.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Player_picture_normal.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_run.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Player_hpbar_empty.txt</x:t>
+    <x:t>Ryno_attack_sound</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_homerun_rev.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_damaged1_rev.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Baseball/Baseball_dead.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_idle_stay_rev.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Baseball/Baseball_punch.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_damaged_rev.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Baseball/Baseball_hit_3.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Baseball/Baseball_hit_1.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_dynamite_rev.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_Area_attack.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Player/Ryno/Ryno_dynamite_ball.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Baseball/Baseball_hit_4.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Baseball/Baseball_hit_2.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/Monster/Baseball/Baseball_Kick.txt</x:t>
   </x:si>
   <x:si>
     <x:t>AniData/Background1/Background1_BackStage.txt</x:t>
@@ -93,6 +735,9 @@
     <x:t>AniData/Monster/Baseball/Baseball_hit_2_rev.txt</x:t>
   </x:si>
   <x:si>
+    <x:t>AniData/Monster/Baseball/Baseball_punch_rev.txt</x:t>
+  </x:si>
+  <x:si>
     <x:t>AniData/Monster/Baseball/Baseball_hit_3_rev.txt</x:t>
   </x:si>
   <x:si>
@@ -105,1021 +750,382 @@
     <x:t>AniData/Monster/Baseball/Baseball_hit_1_rev.txt</x:t>
   </x:si>
   <x:si>
-    <x:t>AniData/Monster/Baseball/Baseball_punch_rev.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Baseball/Baseball_Kick_rev.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Player_hpbar_full.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_attack.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Select_background.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound/Ryno_dynamite_shooting.wav</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Background/stage_6_Boss.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/Background/Background1.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_walk.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_dead.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_fly.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Player_picture_hurt.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_jump.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/Player/Ryno_dynamite_ball.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/playerselect_deco.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_idle.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pink_N</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_U</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pink_R</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_R</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Blue_E</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pink_C</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_O</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pink_M</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_G</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Player</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pink_K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pink_O</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Blue_M</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Blue_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_C</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_L</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_P</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Drafted</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_D</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_H</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pink_S</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_X</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_Z</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Blue_3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_V</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_B</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Object</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Blue_4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_S</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Blue_2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Blue_5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pink_E</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_W</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_T</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Blue_O</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ending</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Blue_V</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Num_0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pink_A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_Q</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_J</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Blue_R</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_E</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Blue_G</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_N</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_F</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_M</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_Y</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Blue_A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Orange_O.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_N.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Background1_BackStage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Player_picture_frame</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_W.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_readyforfight</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Orange_E.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Jose_tag.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_F.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_H.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_O.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_S.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_T.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_Y.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Pink_E.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_Q.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_E.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_four.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Blue_G.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Orange_R.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound/Ryno_dynamite.wav</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_K.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Drafted.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Select.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Blue_M.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Player.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Pink_M.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Blue_O.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_G.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_five.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_zero.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Player_picture_normal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Blue_R.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_L.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Orange_S.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Ryno_tag.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_P.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_U.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Pink_K.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Orange_C.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/hit_ani.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Blue_E.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound/PlayerSelect.wav</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound/TitleScene.wav</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Pink_A.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_dynamite_shooting</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/employed.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_B.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_two.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_D.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/Player/Ryno.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound/Baseball_hit.wav</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Blue_A.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_R.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_six.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_X.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_A.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Pink_S.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_C.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound/Ryno_attack.wav</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound/Baseball_dead.wav</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_M.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_J.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_nine.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_Z.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Pink_R.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Pink_O.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Blue_V.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Pink_C.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound/Ryno_homerun.wav</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_one.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_I.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Green_V.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Blue_one.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Blue_two.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Pink_N.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Roger_selected</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jose_selected</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_hit_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_punch</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Selected_sound</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_rev</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_idle_rev</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_attack_rev</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Straw_select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Title_screen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_dynamite2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_dead_rev</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_fly_rev</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Player_Select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_selected</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_dead</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_idle_stay</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound Data Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Animation Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sprite Address</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_jump_rev</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stage_6_boss</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_attack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PlayScene_BGM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_hit</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_damaged</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_hit_3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Title_Screen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_walk_rev</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_hit_2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Straw_selected</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Data Address</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_run_rev</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Roger_select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound Address</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_thunder</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_homerun</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_kick</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_damaged1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_dynamite</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green_Underbar</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Origin Sprite</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_hit_4</x:t>
+    <x:t>AniData/Monster/Baseball/Baseball_ReadyForFight_rev.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound/Ryno_dynamite2.wav</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Pointnum_one.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Pointnum_two.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Straw_select.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Orange_zero.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Orange_nine.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Orange_eight.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/Player/Ryno_rev.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_three.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Pointnum_six.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/UI/titlescreen.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Orange_three.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_seven.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_readyforfight_rev</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Orange_one.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Blue_three.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Orange_four.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/1P_select.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Orange_dash.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Roger_select.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Straw_tag.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Orange_six.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/UI/PlayerSelect.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound/Selected_sound.wav</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Player_name.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Orange_two.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Num_eight.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Jose_select.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Orange_seven.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Ryno_select.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/titlescreen.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Orange_five.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Roger_tag.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/Monster/Baseball.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Blue_four.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound/Baseball_attack.wav</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Blue_five.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_dead_sound</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Select_background</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound/Ending.wav</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_idle_stay_rev</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_hit_1_rev</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_damaged_rev</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_hit_3_rev</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_area_attack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_kick_rev</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_hit_2_rev</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/UI/HUD.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound/Ryno_hit.wav</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_dead_rev</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_dynamite_ball</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Player_select_deco</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_hit_4_rev</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image/UI/Object.bmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_punch_rev</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Player_hpbar_full</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound/Ryno_dead.wav</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Player_hpbar_empty</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound/PlayScene.wav</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sprite Data Name</x:t>
   </x:si>
   <x:si>
     <x:t>Ryno_dynamite_rev</x:t>
   </x:si>
   <x:si>
-    <x:t>Baseball_hit_1_rev</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Player_hpbar_empty</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Player_select_deco</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sprite Data Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_idle_stay_rev</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_damaged_rev</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_dynamite_crush</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/UI/Object.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_hit_3_rev</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_dead_rev</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_area_attack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Select_background</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_hit_4_rev</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_kick_rev</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound/Ryno_dead.wav</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_dynamite_ball</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_hit_2_rev</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/UI/HUD.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound/Ryno_hit.wav</x:t>
+    <x:t>Player_picture_hurt</x:t>
   </x:si>
   <x:si>
     <x:t>Ryno_homerun_rev</x:t>
   </x:si>
   <x:si>
-    <x:t>Baseball_punch_rev</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Player_hpbar_full</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound/PlayScene.wav</x:t>
-  </x:si>
-  <x:si>
     <x:t>Ryno_damaged1_rev</x:t>
   </x:si>
   <x:si>
-    <x:t>Player_picture_hurt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound/Ending.wav</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HUD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Orange_eight.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Orange_one.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Straw_tag.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Player_name.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_seven.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_eight.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Orange_six.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Straw_select.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Jose_select.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Num_three.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Orange_seven.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Orange_two.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/UI/PlayerSelect.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound/Ryno_dynamite2.wav</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Pointnum_one.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/Player/Ryno_rev.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Pointnum_two.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Orange_zero.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Orange_nine.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball_readyforfight_rev</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound/Selected_sound.wav</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Pointnum_six.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/UI/titlescreen.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Blue_three.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Orange_three.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Orange_dash.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Orange_four.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/1P_select.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Roger_select.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/titlescreen.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image/Monster/Baseball.bmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Blue_five.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Roger_tag.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound/Baseball_attack.wav</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Ryno_select.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Orange_five.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Blue_four.txt</x:t>
+    <x:t>Pointnum_2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Orange_2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Orange_6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pointnum_6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Orange_9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1P_select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Roger_tag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Select_BGM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_fly</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_rev</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Orange_C</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Straw_tag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pointnum_5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Orange_E</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_dead</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_walk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Title_sound</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Background</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Background1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Orange_4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Employed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Orange_R</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pointnum_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pointnum_0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Player_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Orange_dash</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Orange_0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_idle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_attack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Orange_S</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pointnum_9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_run</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hit_Image</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_jump</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jose_select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Orange_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Orange_3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jose_tag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Orange_7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_tag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Orange_O</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pointnum_7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pointnum_4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pointnum_8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Orange_8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Orange_5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pointnum_3</x:t>
   </x:si>
   <x:si>
     <x:t>Image/Monster/Baseball_rev.bmp</x:t>
   </x:si>
   <x:si>
-    <x:t>AniData/Monster/Baseball/Baseball_ReadyForFight_rev.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_damaged1_rev.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Baseball/Baseball_dead.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_idle_stay_rev.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_homerun_rev.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_dynamite_ball.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Baseball/Baseball_hit_4.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Baseball/Baseball_hit_2.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_damaged_rev.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Baseball/Baseball_punch.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Baseball/Baseball_hit_3.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_dynamite_rev.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Baseball/Baseball_Kick.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Monster/Baseball/Baseball_hit_1.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/Player/Ryno/Ryno_Area_attack.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Orange_6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pointnum_6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pointnum_2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Orange_2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Orange_4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_rev</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Background1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Straw_tag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1P_select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_walk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Orange_9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Select_BGM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Title_sound</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Background</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Roger_tag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pointnum_5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Orange_C</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_fly</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Orange_E</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_dead</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_jump</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Orange_R</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_run</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_idle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hit_Image</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Employed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pointnum_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pointnum_0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_attack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Player_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Orange_dash</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Orange_0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Orange_S</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jose_select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pointnum_9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Orange_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pointnum_3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_tag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Orange_5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ryno_hit</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Orange_3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pointnum_8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jose_tag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Orange_7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Orange_8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baseball</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Orange_O</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pointnum_7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pointnum_4</x:t>
+    <x:t>AniData/UI/Pointnum_zero.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Player_picture.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Green_Underbar.txt</x:t>
   </x:si>
   <x:si>
     <x:t>AniData/UI/Pointnum_five.txt</x:t>
   </x:si>
   <x:si>
-    <x:t>AniData/UI/Green_Underbar.txt</x:t>
-  </x:si>
-  <x:si>
     <x:t>AniData/UI/Straw_selected.txt</x:t>
   </x:si>
   <x:si>
+    <x:t>AniData/UI/Jose_selected.txt</x:t>
+  </x:si>
+  <x:si>
     <x:t>AniData/UI/Pointnum_eight.txt</x:t>
   </x:si>
   <x:si>
+    <x:t>AniData/UI/Pointnum_nine.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AniData/UI/Ryno_selected.txt</x:t>
+  </x:si>
+  <x:si>
     <x:t>AniData/UI/Pointnum_three.txt</x:t>
   </x:si>
   <x:si>
-    <x:t>AniData/UI/Player_picture.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Pointnum_zero.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Jose_selected.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Pointnum_nine.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AniData/UI/Ryno_selected.txt</x:t>
+    <x:t>Image/Background/Background.bmp</x:t>
   </x:si>
   <x:si>
     <x:t>Sound/Ryno_dynamite_crush.wav</x:t>
@@ -1134,7 +1140,16 @@
     <x:t>AniData/UI/Pointnum_four.txt</x:t>
   </x:si>
   <x:si>
-    <x:t>Image/Background/Background.bmp</x:t>
+    <x:t>Ryno_dynamite_shooting_sound</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ryno_dynamite_crush_sound</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baseball_attack_sound</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ending_sound</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1954,10 +1969,10 @@
   <x:sheetData>
     <x:row r="1" spans="1:7">
       <x:c r="A1" s="23" t="s">
-        <x:v>225</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="B1" s="23" t="s">
-        <x:v>197</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="C1" s="23"/>
       <x:c r="D1" s="23"/>
@@ -1967,10 +1982,10 @@
     </x:row>
     <x:row r="2" spans="1:2">
       <x:c r="A2" s="22" t="s">
-        <x:v>205</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B2" s="22" t="s">
-        <x:v>271</x:v>
+        <x:v>249</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1985,85 +2000,85 @@
   <x:dimension ref="A1:B9"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="A2" activeCellId="0" sqref="A2:A9"/>
+      <x:selection activeCell="A10" activeCellId="0" sqref="A10:A10"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
   <x:cols>
-    <x:col min="1" max="1" width="24.125" style="10" customWidth="1"/>
+    <x:col min="1" max="1" width="34.75" style="10" customWidth="1"/>
     <x:col min="2" max="2" width="33.875" style="10" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="23" t="s">
-        <x:v>195</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="B1" s="23" t="s">
-        <x:v>212</x:v>
+        <x:v>197</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
       <x:c r="A2" s="10" t="s">
-        <x:v>330</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B2" s="10" t="s">
-        <x:v>161</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2">
       <x:c r="A3" s="10" t="s">
-        <x:v>321</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="B3" s="10" t="s">
-        <x:v>236</x:v>
+        <x:v>295</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2">
       <x:c r="A4" s="10" t="s">
-        <x:v>217</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B4" s="10" t="s">
-        <x:v>122</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" s="9" customFormat="1">
       <x:c r="A5" s="9" t="s">
-        <x:v>147</x:v>
+        <x:v>368</x:v>
       </x:c>
       <x:c r="B5" s="9" t="s">
-        <x:v>28</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2">
       <x:c r="A6" s="10" t="s">
-        <x:v>188</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B6" s="10" t="s">
-        <x:v>262</x:v>
+        <x:v>239</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2">
       <x:c r="A7" s="10" t="s">
-        <x:v>342</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B7" s="10" t="s">
-        <x:v>240</x:v>
+        <x:v>287</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2">
       <x:c r="A8" s="10" t="s">
-        <x:v>214</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B8" s="10" t="s">
-        <x:v>171</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2">
       <x:c r="A9" s="10" t="s">
-        <x:v>228</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="B9" s="10" t="s">
-        <x:v>362</x:v>
+        <x:v>364</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2090,200 +2105,200 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="23" t="s">
-        <x:v>196</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="B1" s="23" t="s">
-        <x:v>219</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="C1" s="23" t="s">
-        <x:v>209</x:v>
+        <x:v>195</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="14" t="s">
-        <x:v>193</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="B2" s="14" t="s">
-        <x:v>348</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="C2" s="14" t="s">
-        <x:v>289</x:v>
+        <x:v>219</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="14" t="s">
-        <x:v>180</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="B3" s="14" t="s">
-        <x:v>348</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="C3" s="14" t="s">
-        <x:v>300</x:v>
+        <x:v>224</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="14" t="s">
-        <x:v>207</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="B4" s="14" t="s">
-        <x:v>348</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="C4" s="14" t="s">
-        <x:v>294</x:v>
+        <x:v>229</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
       <x:c r="A5" s="14" t="s">
-        <x:v>204</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B5" s="14" t="s">
-        <x:v>348</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="C5" s="14" t="s">
-        <x:v>297</x:v>
+        <x:v>223</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
       <x:c r="A6" s="14" t="s">
-        <x:v>220</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="B6" s="14" t="s">
-        <x:v>348</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="C6" s="14" t="s">
-        <x:v>293</x:v>
+        <x:v>228</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
       <x:c r="A7" s="14" t="s">
-        <x:v>215</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="B7" s="14" t="s">
-        <x:v>348</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="C7" s="14" t="s">
-        <x:v>299</x:v>
+        <x:v>230</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
       <x:c r="A8" s="14" t="s">
-        <x:v>181</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="B8" s="14" t="s">
-        <x:v>348</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="C8" s="14" t="s">
-        <x:v>296</x:v>
+        <x:v>221</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
       <x:c r="A9" s="14" t="s">
-        <x:v>107</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B9" s="14" t="s">
-        <x:v>348</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="C9" s="14" t="s">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
       <x:c r="A10" s="2" t="s">
-        <x:v>231</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>183</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>235</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
       <x:c r="A11" s="2" t="s">
-        <x:v>222</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>183</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>237</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3">
       <x:c r="A12" s="2" t="s">
-        <x:v>238</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
-        <x:v>183</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>232</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3">
       <x:c r="A13" s="2" t="s">
-        <x:v>230</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>183</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>234</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:3">
       <x:c r="A14" s="2" t="s">
-        <x:v>234</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
-        <x:v>183</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>236</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:3">
       <x:c r="A15" s="2" t="s">
-        <x:v>235</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>183</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:3">
       <x:c r="A16" s="2" t="s">
-        <x:v>242</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
-        <x:v>183</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:3">
       <x:c r="A17" s="2" t="s">
-        <x:v>268</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
-        <x:v>183</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="C17" s="2" t="s">
-        <x:v>287</x:v>
+        <x:v>238</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:3">
       <x:c r="A18" s="2" t="s">
-        <x:v>326</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
-        <x:v>237</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="C18" s="2" t="s">
-        <x:v>142</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2312,34 +2327,34 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="23" t="s">
-        <x:v>195</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="B1" s="23" t="s">
-        <x:v>212</x:v>
+        <x:v>197</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
       <x:c r="A2" s="10" t="s">
-        <x:v>200</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="B2" s="10" t="s">
-        <x:v>282</x:v>
+        <x:v>274</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2">
       <x:c r="A3" s="10" t="s">
-        <x:v>193</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="B3" s="10" t="s">
-        <x:v>162</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2">
       <x:c r="A4" s="10" t="s">
-        <x:v>202</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B4" s="10" t="s">
-        <x:v>153</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2366,208 +2381,208 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="23" t="s">
-        <x:v>196</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="B1" s="23" t="s">
-        <x:v>219</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="C1" s="23" t="s">
-        <x:v>209</x:v>
+        <x:v>195</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="14" t="s">
-        <x:v>199</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="B2" s="14" t="s">
-        <x:v>315</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="C2" s="14" t="s">
-        <x:v>29</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="12" t="s">
-        <x:v>104</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B3" s="12" t="s">
-        <x:v>308</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="C3" s="12" t="s">
-        <x:v>17</x:v>
+        <x:v>231</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="14" t="s">
-        <x:v>223</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B4" s="14" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C4" s="12" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
       <x:c r="A5" s="14" t="s">
-        <x:v>243</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B5" s="14" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C5" s="12" t="s">
-        <x:v>25</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
       <x:c r="A6" s="14" t="s">
-        <x:v>331</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B6" s="14" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C6" s="12" t="s">
-        <x:v>252</x:v>
+        <x:v>263</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3" s="13" customFormat="1">
       <x:c r="A7" s="12" t="s">
-        <x:v>105</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B7" s="12" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C7" s="12" t="s">
-        <x:v>357</x:v>
+        <x:v>354</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
       <x:c r="A8" s="14" t="s">
-        <x:v>246</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="B8" s="14" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C8" s="12" t="s">
-        <x:v>34</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
       <x:c r="A9" s="14" t="s">
-        <x:v>133</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B9" s="14" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C9" s="12" t="s">
-        <x:v>14</x:v>
+        <x:v>210</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
       <x:c r="A10" s="12" t="s">
-        <x:v>329</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B10" s="12" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C10" s="12" t="s">
-        <x:v>358</x:v>
+        <x:v>353</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
       <x:c r="A11" s="12" t="s">
-        <x:v>328</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B11" s="12" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C11" s="12" t="s">
-        <x:v>263</x:v>
+        <x:v>240</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3">
       <x:c r="A12" s="12" t="s">
-        <x:v>304</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="B12" s="12" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C12" s="12" t="s">
-        <x:v>265</x:v>
+        <x:v>241</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3">
       <x:c r="A13" s="12" t="s">
-        <x:v>338</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="B13" s="12" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C13" s="12" t="s">
-        <x:v>356</x:v>
+        <x:v>362</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:3">
       <x:c r="A14" s="12" t="s">
-        <x:v>351</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="B14" s="12" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C14" s="12" t="s">
-        <x:v>365</x:v>
+        <x:v>367</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:3">
       <x:c r="A15" s="12" t="s">
-        <x:v>317</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="B15" s="12" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C15" s="12" t="s">
-        <x:v>352</x:v>
+        <x:v>356</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:3">
       <x:c r="A16" s="12" t="s">
-        <x:v>303</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="B16" s="12" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="C16" s="12" t="s">
         <x:v>248</x:v>
-      </x:c>
-      <x:c r="C16" s="12" t="s">
-        <x:v>270</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:3">
       <x:c r="A17" s="12" t="s">
-        <x:v>350</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="B17" s="12" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C17" s="12" t="s">
-        <x:v>364</x:v>
+        <x:v>366</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:3">
       <x:c r="A18" s="12" t="s">
-        <x:v>344</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="B18" s="12" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C18" s="12" t="s">
-        <x:v>355</x:v>
+        <x:v>359</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:3">
       <x:c r="A19" s="12" t="s">
-        <x:v>336</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B19" s="12" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C19" s="12" t="s">
         <x:v>360</x:v>
@@ -2649,34 +2664,34 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="23" t="s">
-        <x:v>225</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="B1" s="23" t="s">
-        <x:v>197</x:v>
+        <x:v>171</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
       <x:c r="A2" s="7" t="s">
-        <x:v>315</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="B2" s="7" t="s">
-        <x:v>366</x:v>
+        <x:v>363</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2">
       <x:c r="A3" s="7" t="s">
-        <x:v>308</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B3" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2">
       <x:c r="A4" s="7" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B4" s="7" t="s">
-        <x:v>239</x:v>
+        <x:v>286</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2703,750 +2718,750 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="23" t="s">
-        <x:v>196</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="B1" s="23" t="s">
-        <x:v>219</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="C1" s="23" t="s">
-        <x:v>209</x:v>
+        <x:v>195</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="7" t="s">
-        <x:v>199</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="B2" s="7" t="s">
-        <x:v>315</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="C2" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="7" t="s">
-        <x:v>104</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B3" s="7" t="s">
-        <x:v>308</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="C3" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>231</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="22" t="s">
-        <x:v>101</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B4" s="22" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C4" s="7" t="s">
-        <x:v>154</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
       <x:c r="A5" s="7" t="s">
-        <x:v>44</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B5" s="7" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C5" s="7" t="s">
-        <x:v>143</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
       <x:c r="A6" s="7" t="s">
-        <x:v>96</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B6" s="7" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C6" s="7" t="s">
-        <x:v>120</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
       <x:c r="A7" s="7" t="s">
-        <x:v>54</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="B7" s="7" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C7" s="7" t="s">
-        <x:v>126</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
       <x:c r="A8" s="7" t="s">
-        <x:v>84</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="B8" s="7" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C8" s="7" t="s">
-        <x:v>129</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
       <x:c r="A9" s="7" t="s">
-        <x:v>94</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B9" s="7" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C9" s="7" t="s">
-        <x:v>134</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
       <x:c r="A10" s="7" t="s">
-        <x:v>89</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B10" s="7" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C10" s="7" t="s">
-        <x:v>169</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3" s="5" customFormat="1">
       <x:c r="A11" s="5" t="s">
-        <x:v>55</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="B11" s="5" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C11" s="5" t="s">
-        <x:v>175</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3" s="5" customFormat="1">
       <x:c r="A12" s="5" t="s">
-        <x:v>75</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B12" s="5" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C12" s="5" t="s">
-        <x:v>176</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3" s="5" customFormat="1">
       <x:c r="A13" s="5" t="s">
-        <x:v>68</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="B13" s="5" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C13" s="5" t="s">
-        <x:v>272</x:v>
+        <x:v>254</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:3" s="5" customFormat="1">
       <x:c r="A14" s="5" t="s">
-        <x:v>73</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="B14" s="5" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C14" s="5" t="s">
-        <x:v>285</x:v>
+        <x:v>273</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:3" s="5" customFormat="1">
       <x:c r="A15" s="5" t="s">
-        <x:v>76</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="B15" s="5" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C15" s="5" t="s">
-        <x:v>280</x:v>
+        <x:v>275</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:3">
       <x:c r="A16" s="7" t="s">
-        <x:v>333</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B16" s="7" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C16" s="7" t="s">
-        <x:v>266</x:v>
+        <x:v>243</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:3">
       <x:c r="A17" s="7" t="s">
-        <x:v>337</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B17" s="7" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C17" s="7" t="s">
-        <x:v>250</x:v>
+        <x:v>253</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:3">
       <x:c r="A18" s="7" t="s">
-        <x:v>305</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="B18" s="7" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C18" s="7" t="s">
-        <x:v>260</x:v>
+        <x:v>264</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:3">
       <x:c r="A19" s="7" t="s">
-        <x:v>343</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B19" s="7" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C19" s="7" t="s">
-        <x:v>273</x:v>
+        <x:v>250</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:3">
       <x:c r="A20" s="7" t="s">
-        <x:v>306</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="B20" s="7" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C20" s="7" t="s">
-        <x:v>275</x:v>
+        <x:v>255</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:3">
       <x:c r="A21" s="7" t="s">
-        <x:v>341</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="B21" s="7" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C21" s="7" t="s">
-        <x:v>284</x:v>
+        <x:v>270</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:3">
       <x:c r="A22" s="7" t="s">
-        <x:v>302</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="B22" s="7" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C22" s="7" t="s">
-        <x:v>255</x:v>
+        <x:v>260</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:3">
       <x:c r="A23" s="7" t="s">
-        <x:v>346</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B23" s="7" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C23" s="7" t="s">
-        <x:v>259</x:v>
+        <x:v>267</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:3">
       <x:c r="A24" s="7" t="s">
-        <x:v>347</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="B24" s="7" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C24" s="7" t="s">
-        <x:v>249</x:v>
+        <x:v>245</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:3">
       <x:c r="A25" s="7" t="s">
-        <x:v>312</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="B25" s="7" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C25" s="7" t="s">
-        <x:v>267</x:v>
+        <x:v>244</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:3">
       <x:c r="A26" s="7" t="s">
-        <x:v>334</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="B26" s="7" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C26" s="7" t="s">
-        <x:v>136</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:3">
       <x:c r="A27" s="7" t="s">
-        <x:v>318</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="B27" s="7" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C27" s="7" t="s">
-        <x:v>141</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:3">
       <x:c r="A28" s="7" t="s">
-        <x:v>349</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="B28" s="7" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C28" s="7" t="s">
-        <x:v>102</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:3">
       <x:c r="A29" s="7" t="s">
-        <x:v>323</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B29" s="7" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C29" s="7" t="s">
-        <x:v>121</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:3">
       <x:c r="A30" s="7" t="s">
-        <x:v>320</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="B30" s="7" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C30" s="7" t="s">
-        <x:v>108</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:3">
       <x:c r="A31" s="7" t="s">
-        <x:v>332</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B31" s="7" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C31" s="7" t="s">
-        <x:v>274</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:3">
       <x:c r="A32" s="6" t="s">
-        <x:v>87</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="B32" s="6" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C32" s="6" t="s">
-        <x:v>158</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:3">
       <x:c r="A33" s="6" t="s">
-        <x:v>71</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="B33" s="6" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C33" s="6" t="s">
-        <x:v>149</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:3">
       <x:c r="A34" s="6" t="s">
-        <x:v>56</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B34" s="6" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C34" s="6" t="s">
-        <x:v>160</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:3">
       <x:c r="A35" s="6" t="s">
-        <x:v>61</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B35" s="6" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C35" s="6" t="s">
-        <x:v>151</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:3">
       <x:c r="A36" s="6" t="s">
-        <x:v>95</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="B36" s="6" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C36" s="6" t="s">
-        <x:v>118</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:3">
       <x:c r="A37" s="6" t="s">
-        <x:v>98</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="B37" s="6" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C37" s="6" t="s">
-        <x:v>110</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:3">
       <x:c r="A38" s="6" t="s">
-        <x:v>50</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B38" s="6" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C38" s="6" t="s">
-        <x:v>130</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:3">
       <x:c r="A39" s="6" t="s">
-        <x:v>62</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B39" s="6" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C39" s="6" t="s">
-        <x:v>111</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:3">
       <x:c r="A40" s="6" t="s">
-        <x:v>80</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B40" s="6" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C40" s="6" t="s">
-        <x:v>173</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:3">
       <x:c r="A41" s="6" t="s">
-        <x:v>93</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B41" s="6" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C41" s="6" t="s">
-        <x:v>164</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:3">
       <x:c r="A42" s="6" t="s">
-        <x:v>78</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="B42" s="6" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C42" s="6" t="s">
-        <x:v>123</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:3">
       <x:c r="A43" s="6" t="s">
-        <x:v>57</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B43" s="6" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C43" s="6" t="s">
-        <x:v>135</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:3">
       <x:c r="A44" s="6" t="s">
-        <x:v>99</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="B44" s="6" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C44" s="6" t="s">
-        <x:v>163</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:3">
       <x:c r="A45" s="6" t="s">
-        <x:v>97</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B45" s="6" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C45" s="6" t="s">
-        <x:v>103</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:3">
       <x:c r="A46" s="6" t="s">
-        <x:v>48</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B46" s="6" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C46" s="6" t="s">
-        <x:v>112</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:3">
       <x:c r="A47" s="6" t="s">
-        <x:v>59</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="B47" s="6" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C47" s="6" t="s">
-        <x:v>138</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:3">
       <x:c r="A48" s="6" t="s">
-        <x:v>92</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="B48" s="6" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C48" s="6" t="s">
-        <x:v>117</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:3">
       <x:c r="A49" s="6" t="s">
-        <x:v>43</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B49" s="6" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C49" s="6" t="s">
-        <x:v>155</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:3">
       <x:c r="A50" s="6" t="s">
-        <x:v>74</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B50" s="6" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C50" s="6" t="s">
-        <x:v>113</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:3">
       <x:c r="A51" s="6" t="s">
-        <x:v>83</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B51" s="6" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C51" s="6" t="s">
-        <x:v>114</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:3">
       <x:c r="A52" s="6" t="s">
-        <x:v>40</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="B52" s="6" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C52" s="6" t="s">
-        <x:v>139</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:3">
       <x:c r="A53" s="6" t="s">
-        <x:v>70</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B53" s="6" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C53" s="6" t="s">
-        <x:v>174</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:3">
       <x:c r="A54" s="6" t="s">
-        <x:v>79</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="B54" s="6" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C54" s="6" t="s">
-        <x:v>106</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:3">
       <x:c r="A55" s="6" t="s">
-        <x:v>65</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="B55" s="6" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C55" s="6" t="s">
-        <x:v>157</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:3">
       <x:c r="A56" s="6" t="s">
-        <x:v>100</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B56" s="6" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C56" s="6" t="s">
-        <x:v>115</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:3">
       <x:c r="A57" s="6" t="s">
-        <x:v>66</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B57" s="6" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C57" s="6" t="s">
-        <x:v>166</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:3">
       <x:c r="A58" s="6" t="s">
-        <x:v>218</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="B58" s="6" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C58" s="6" t="s">
-        <x:v>353</x:v>
+        <x:v>355</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:3" s="3" customFormat="1">
       <x:c r="A59" s="3" t="s">
-        <x:v>42</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B59" s="3" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C59" s="3" t="s">
-        <x:v>167</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:3">
       <x:c r="A60" s="22" t="s">
-        <x:v>91</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="B60" s="22" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C60" s="4" t="s">
-        <x:v>146</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:3">
       <x:c r="A61" s="3" t="s">
-        <x:v>39</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B61" s="3" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C61" s="3" t="s">
-        <x:v>177</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:3">
       <x:c r="A62" s="3" t="s">
-        <x:v>52</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B62" s="3" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C62" s="3" t="s">
-        <x:v>140</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:3">
       <x:c r="A63" s="3" t="s">
-        <x:v>64</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B63" s="3" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C63" s="3" t="s">
-        <x:v>159</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:3">
       <x:c r="A64" s="3" t="s">
-        <x:v>46</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B64" s="3" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C64" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:3">
       <x:c r="A65" s="3" t="s">
-        <x:v>53</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="B65" s="3" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C65" s="3" t="s">
-        <x:v>168</x:v>
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:3">
       <x:c r="A66" s="3" t="s">
-        <x:v>77</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B66" s="3" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C66" s="3" t="s">
-        <x:v>116</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:3">
       <x:c r="A67" s="3" t="s">
-        <x:v>39</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B67" s="3" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C67" s="3" t="s">
-        <x:v>177</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:3">
       <x:c r="A68" s="3" t="s">
-        <x:v>49</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B68" s="3" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C68" s="3" t="s">
-        <x:v>128</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3463,8 +3478,8 @@
   <x:sheetPr codeName="Sheet16"/>
   <x:dimension ref="A1:B2"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="A2" activeCellId="0" sqref="A2:A2"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="A3" activeCellId="0" sqref="A3:A3"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
@@ -3475,18 +3490,18 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="23" t="s">
-        <x:v>195</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="B1" s="23" t="s">
-        <x:v>212</x:v>
+        <x:v>197</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
       <x:c r="A2" s="8" t="s">
-        <x:v>88</x:v>
+        <x:v>371</x:v>
       </x:c>
       <x:c r="B2" s="8" t="s">
-        <x:v>247</x:v>
+        <x:v>278</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3513,24 +3528,24 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="23" t="s">
-        <x:v>196</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="B1" s="23" t="s">
-        <x:v>219</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="C1" s="23" t="s">
-        <x:v>209</x:v>
+        <x:v>195</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="22" t="s">
-        <x:v>187</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="B2" s="22" t="s">
-        <x:v>205</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="C2" s="22" t="s">
-        <x:v>278</x:v>
+        <x:v>269</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3556,18 +3571,18 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="23" t="s">
-        <x:v>195</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="B1" s="23" t="s">
-        <x:v>212</x:v>
+        <x:v>197</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
       <x:c r="A2" s="22" t="s">
-        <x:v>314</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="B2" s="22" t="s">
-        <x:v>145</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3593,15 +3608,15 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="23" t="s">
-        <x:v>225</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="B1" s="23" t="s">
-        <x:v>197</x:v>
+        <x:v>171</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
       <x:c r="A2" s="22" t="s">
-        <x:v>191</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="B2" s="22" t="s">
         <x:v>261</x:v>
@@ -3609,10 +3624,10 @@
     </x:row>
     <x:row r="3" spans="1:2">
       <x:c r="A3" s="22" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B3" s="22" t="s">
-        <x:v>239</x:v>
+        <x:v>286</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3639,164 +3654,164 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="23" t="s">
-        <x:v>196</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="B1" s="23" t="s">
-        <x:v>219</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="C1" s="23" t="s">
-        <x:v>209</x:v>
+        <x:v>195</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="22" t="s">
-        <x:v>310</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="B2" s="22" t="s">
-        <x:v>191</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="C2" s="22" t="s">
-        <x:v>276</x:v>
+        <x:v>256</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="22" t="s">
-        <x:v>60</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B3" s="22" t="s">
-        <x:v>191</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="C3" s="22" t="s">
-        <x:v>124</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="22" t="s">
-        <x:v>327</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B4" s="22" t="s">
-        <x:v>191</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="C4" s="22" t="s">
-        <x:v>148</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
       <x:c r="A5" s="22" t="s">
-        <x:v>335</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B5" s="22" t="s">
-        <x:v>191</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="C5" s="22" t="s">
-        <x:v>257</x:v>
+        <x:v>266</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
       <x:c r="A6" s="22" t="s">
-        <x:v>179</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="B6" s="22" t="s">
-        <x:v>191</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="C6" s="22" t="s">
-        <x:v>359</x:v>
+        <x:v>358</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
       <x:c r="A7" s="22" t="s">
-        <x:v>345</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="B7" s="22" t="s">
-        <x:v>191</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="C7" s="22" t="s">
-        <x:v>109</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
       <x:c r="A8" s="22" t="s">
-        <x:v>311</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="B8" s="22" t="s">
-        <x:v>191</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="C8" s="22" t="s">
-        <x:v>31</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
       <x:c r="A9" s="22" t="s">
-        <x:v>51</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B9" s="22" t="s">
-        <x:v>191</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="C9" s="22" t="s">
-        <x:v>127</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
       <x:c r="A10" s="22" t="s">
-        <x:v>224</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="B10" s="22" t="s">
-        <x:v>191</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="C10" s="22" t="s">
-        <x:v>37</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
       <x:c r="A11" s="22" t="s">
-        <x:v>211</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="B11" s="22" t="s">
-        <x:v>191</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="C11" s="22" t="s">
-        <x:v>277</x:v>
+        <x:v>258</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3">
       <x:c r="A12" s="22" t="s">
-        <x:v>178</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="B12" s="22" t="s">
-        <x:v>191</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="C12" s="22" t="s">
-        <x:v>363</x:v>
+        <x:v>365</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3" s="20" customFormat="1">
       <x:c r="A13" s="20" t="s">
-        <x:v>316</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="B13" s="20" t="s">
-        <x:v>191</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="C13" s="20" t="s">
-        <x:v>281</x:v>
+        <x:v>271</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:3">
       <x:c r="A14" s="22" t="s">
-        <x:v>340</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="B14" s="22" t="s">
-        <x:v>191</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="C14" s="22" t="s">
-        <x:v>283</x:v>
+        <x:v>268</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:3">
       <x:c r="A15" s="22" t="s">
-        <x:v>192</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="B15" s="22" t="s">
-        <x:v>191</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="C15" s="22" t="s">
         <x:v>361</x:v>
@@ -3804,178 +3819,178 @@
     </x:row>
     <x:row r="16" spans="1:3">
       <x:c r="A16" s="22" t="s">
-        <x:v>339</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B16" s="22" t="s">
-        <x:v>191</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="C16" s="22" t="s">
-        <x:v>137</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:3">
       <x:c r="A17" s="22" t="s">
-        <x:v>63</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B17" s="22" t="s">
-        <x:v>191</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="C17" s="22" t="s">
-        <x:v>125</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:3">
       <x:c r="A18" s="22" t="s">
-        <x:v>233</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="B18" s="22" t="s">
-        <x:v>191</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="C18" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:3">
       <x:c r="A19" s="22" t="s">
-        <x:v>186</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="B19" s="22" t="s">
-        <x:v>191</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="C19" s="22" t="s">
-        <x:v>256</x:v>
+        <x:v>242</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:3">
       <x:c r="A20" s="22" t="s">
-        <x:v>208</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="B20" s="22" t="s">
-        <x:v>191</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="C20" s="22" t="s">
-        <x:v>354</x:v>
+        <x:v>357</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:3">
       <x:c r="A21" s="22" t="s">
-        <x:v>309</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="B21" s="22" t="s">
-        <x:v>191</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="C21" s="22" t="s">
-        <x:v>251</x:v>
+        <x:v>259</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:3">
       <x:c r="A22" s="22" t="s">
-        <x:v>90</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="B22" s="22" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C22" s="19" t="s">
-        <x:v>132</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:3">
       <x:c r="A23" s="18" t="s">
-        <x:v>41</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B23" s="18" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C23" s="18" t="s">
-        <x:v>172</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:3">
       <x:c r="A24" s="18" t="s">
-        <x:v>47</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B24" s="18" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C24" s="18" t="s">
-        <x:v>150</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:3">
       <x:c r="A25" s="18" t="s">
-        <x:v>69</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B25" s="18" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C25" s="18" t="s">
-        <x:v>258</x:v>
+        <x:v>247</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:3">
       <x:c r="A26" s="18" t="s">
-        <x:v>86</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B26" s="18" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C26" s="18" t="s">
-        <x:v>119</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:3">
       <x:c r="A27" s="18" t="s">
-        <x:v>81</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="B27" s="18" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C27" s="18" t="s">
-        <x:v>131</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:3">
       <x:c r="A28" s="18" t="s">
-        <x:v>58</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="B28" s="18" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C28" s="18" t="s">
-        <x:v>156</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:3">
       <x:c r="A29" s="18" t="s">
-        <x:v>85</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="B29" s="18" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C29" s="18" t="s">
-        <x:v>253</x:v>
+        <x:v>251</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:3">
       <x:c r="A30" s="17" t="s">
-        <x:v>45</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B30" s="17" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C30" s="17" t="s">
-        <x:v>254</x:v>
+        <x:v>265</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:3">
       <x:c r="A31" s="17" t="s">
-        <x:v>82</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="B31" s="17" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C31" s="17" t="s">
-        <x:v>165</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -4001,26 +4016,26 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="23" t="s">
-        <x:v>195</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="B1" s="23" t="s">
-        <x:v>212</x:v>
+        <x:v>197</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
       <x:c r="A2" s="11" t="s">
-        <x:v>313</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="B2" s="11" t="s">
-        <x:v>144</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2">
       <x:c r="A3" s="21" t="s">
-        <x:v>182</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="B3" s="21" t="s">
-        <x:v>269</x:v>
+        <x:v>262</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -4046,82 +4061,82 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="23" t="s">
-        <x:v>225</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="B1" s="23" t="s">
-        <x:v>197</x:v>
+        <x:v>171</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
       <x:c r="A2" s="22" t="s">
-        <x:v>315</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="B2" s="22" t="s">
-        <x:v>366</x:v>
+        <x:v>363</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2">
       <x:c r="A3" s="22" t="s">
-        <x:v>308</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B3" s="22" t="s">
-        <x:v>30</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" s="2" customFormat="1">
       <x:c r="A4" s="2" t="s">
-        <x:v>348</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>279</x:v>
+        <x:v>272</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2">
       <x:c r="A5" s="2" t="s">
-        <x:v>183</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>286</x:v>
+        <x:v>352</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" s="2" customFormat="1">
       <x:c r="A6" s="2" t="s">
-        <x:v>248</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>239</x:v>
+        <x:v>286</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2">
       <x:c r="A7" s="22" t="s">
-        <x:v>72</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B7" s="22" t="s">
-        <x:v>229</x:v>
+        <x:v>292</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2" s="2" customFormat="1">
       <x:c r="A8" s="2" t="s">
-        <x:v>67</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>152</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2">
       <x:c r="A9" s="22" t="s">
-        <x:v>237</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="B9" s="22" t="s">
-        <x:v>36</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2">
       <x:c r="A10" s="2" t="s">
-        <x:v>307</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>246</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2">
@@ -4154,18 +4169,18 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="23" t="s">
-        <x:v>195</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="B1" s="23" t="s">
-        <x:v>212</x:v>
+        <x:v>197</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
       <x:c r="A2" s="10" t="s">
-        <x:v>201</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="B2" s="10" t="s">
-        <x:v>244</x:v>
+        <x:v>297</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -4179,7 +4194,7 @@
   <x:sheetPr codeName="Sheet11"/>
   <x:dimension ref="A1:C58"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <x:selection activeCell="C30" activeCellId="0" sqref="A30:C30"/>
     </x:sheetView>
   </x:sheetViews>
@@ -4192,321 +4207,321 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="23" t="s">
-        <x:v>196</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="B1" s="23" t="s">
-        <x:v>219</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="C1" s="23" t="s">
-        <x:v>209</x:v>
+        <x:v>195</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="14" t="s">
-        <x:v>330</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B2" s="14" t="s">
-        <x:v>67</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C2" s="16" t="s">
-        <x:v>26</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="16" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="B3" s="16" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="C3" s="16" t="s">
         <x:v>203</x:v>
-      </x:c>
-      <x:c r="B3" s="16" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="C3" s="16" t="s">
-        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="16" t="s">
-        <x:v>216</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="B4" s="16" t="s">
-        <x:v>67</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C4" s="16" t="s">
-        <x:v>6</x:v>
+        <x:v>202</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
       <x:c r="A5" s="16" t="s">
-        <x:v>321</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="B5" s="16" t="s">
-        <x:v>67</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C5" s="16" t="s">
-        <x:v>32</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3" s="15" customFormat="1">
       <x:c r="A6" s="12" t="s">
-        <x:v>217</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="B6" s="12" t="s">
-        <x:v>67</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C6" s="12" t="s">
-        <x:v>11</x:v>
+        <x:v>206</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3" s="15" customFormat="1">
       <x:c r="A7" s="12" t="s">
-        <x:v>319</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="B7" s="12" t="s">
-        <x:v>67</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C7" s="12" t="s">
-        <x:v>33</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3" s="15" customFormat="1">
       <x:c r="A8" s="12" t="s">
-        <x:v>214</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="B8" s="12" t="s">
-        <x:v>67</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C8" s="12" t="s">
-        <x:v>10</x:v>
+        <x:v>205</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
       <x:c r="A9" s="16" t="s">
-        <x:v>325</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B9" s="16" t="s">
-        <x:v>67</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C9" s="16" t="s">
-        <x:v>38</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
       <x:c r="A10" s="16" t="s">
-        <x:v>194</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="B10" s="16" t="s">
-        <x:v>67</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C10" s="16" t="s">
-        <x:v>1</x:v>
+        <x:v>212</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
       <x:c r="A11" s="16" t="s">
-        <x:v>322</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B11" s="16" t="s">
-        <x:v>67</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C11" s="16" t="s">
-        <x:v>35</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3">
       <x:c r="A12" s="16" t="s">
-        <x:v>324</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="B12" s="16" t="s">
-        <x:v>67</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C12" s="16" t="s">
-        <x:v>15</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3" s="1" customFormat="1">
       <x:c r="A13" s="1" t="s">
-        <x:v>311</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="B13" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C13" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:3" s="1" customFormat="1">
       <x:c r="A14" s="1" t="s">
-        <x:v>206</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="B14" s="1" t="s">
-        <x:v>307</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="C14" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>207</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:3">
       <x:c r="A15" s="2" t="s">
-        <x:v>185</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>307</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>213</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:3">
       <x:c r="A16" s="2" t="s">
-        <x:v>227</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
-        <x:v>307</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>295</x:v>
+        <x:v>222</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:3">
       <x:c r="A17" s="2" t="s">
-        <x:v>245</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
-        <x:v>307</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="C17" s="2" t="s">
-        <x:v>288</x:v>
+        <x:v>218</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:3">
       <x:c r="A18" s="2" t="s">
-        <x:v>189</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
-        <x:v>307</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="C18" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>204</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:3">
       <x:c r="A19" s="2" t="s">
-        <x:v>221</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
-        <x:v>307</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="C19" s="2" t="s">
-        <x:v>298</x:v>
+        <x:v>225</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:3">
       <x:c r="A20" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
-        <x:v>307</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="C20" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>211</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:3">
       <x:c r="A21" s="2" t="s">
-        <x:v>241</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
-        <x:v>307</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="C21" s="2" t="s">
-        <x:v>291</x:v>
+        <x:v>217</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:3">
       <x:c r="A22" s="2" t="s">
-        <x:v>184</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
-        <x:v>307</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="C22" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>215</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:3">
       <x:c r="A23" s="2" t="s">
-        <x:v>226</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
-        <x:v>307</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="C23" s="2" t="s">
-        <x:v>290</x:v>
+        <x:v>220</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:3">
       <x:c r="A24" s="2" t="s">
-        <x:v>198</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
-        <x:v>307</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="C24" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>209</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:3">
       <x:c r="A25" s="2" t="s">
-        <x:v>210</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
-        <x:v>307</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="C25" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:3">
       <x:c r="A26" s="2" t="s">
-        <x:v>237</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
-        <x:v>237</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="C26" s="2" t="s">
-        <x:v>292</x:v>
+        <x:v>227</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:3">
       <x:c r="A27" s="2" t="s">
-        <x:v>232</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
-        <x:v>237</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="C27" s="2" t="s">
-        <x:v>301</x:v>
+        <x:v>226</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:3">
       <x:c r="A28" s="2" t="s">
-        <x:v>213</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
-        <x:v>237</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="C28" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>208</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:3">
       <x:c r="A29" s="2" t="s">
-        <x:v>326</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
-        <x:v>237</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="C29" s="2" t="s">
-        <x:v>142</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:3">
